--- a/src/info/species/data/species.xlsx
+++ b/src/info/species/data/species.xlsx
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="2834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="2892">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -9590,6 +9590,287 @@
   <si>
     <t xml:space="preserve">Reset</t>
   </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to reset the application to its initial state? This will wipe all the locally stored app data!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to set all valid records for submission?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to delete all successfully synchronised local records?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">records on the server will not be touched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can't be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passwords are not equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you must agree to the terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is too short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should take only a moment...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yikes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please select &lt;b&gt;Login&lt;/b&gt; if you have an account or would like to register, otherwise select &lt;b&gt;Send&lt;/b&gt; and enter your contact details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a method to upload a photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like you are offline!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome aboard!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before submitting any records please check your email and click on the verification link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK, got it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further instructions have been sent to your e-mail address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please add any extra info about this record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many individual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will try to determine your location using the inbuilt phone GPS.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Please make sure you have turned the phone's geolocation on and are well away from large objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">trees, buildings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Fira Code"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearest Named Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We could not find your location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are trying to get your location. This might take a few minutes...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Name Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Name Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favourites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My favourites only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No species with selected filters.</t>
+  </si>
 </sst>
 </file>
 
@@ -9600,7 +9881,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="DD\-MMM"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9802,6 +10083,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Fira Code"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFF9FAF4"/>
+      <name val="Fira Code"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFF92672"/>
+      <name val="Fira Code"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -9827,7 +10133,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF9FAF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -9887,13 +10193,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFF0"/>
-        <bgColor rgb="FFDBEEF4"/>
+        <bgColor rgb="FFF8F8F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEFEFF0"/>
+        <bgColor rgb="FFF9FAF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -9923,7 +10229,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFEFEF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -10174,7 +10480,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10831,6 +11137,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -10876,11 +11190,11 @@
       <rgbColor rgb="FFBFBFC0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF92672"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDBEEF4"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -10894,7 +11208,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFEFEFF0"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFCD5B5"/>
+      <rgbColor rgb="FFF8F8F2"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FFDDD9C3"/>
@@ -10903,7 +11217,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFF9FAF4"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF8064A2"/>
       <rgbColor rgb="FF9BBB59"/>
@@ -26505,10 +26819,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CP133"/>
+  <dimension ref="A1:FQ133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D133" activeCellId="0" sqref="D133"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FD125" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FJ126" activeCellId="0" sqref="FJ126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36592,7 +36906,7 @@
       <c r="BE126" s="29"/>
       <c r="BF126" s="29"/>
     </row>
-    <row r="127" s="163" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="163" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="152" t="s">
         <v>711</v>
       </c>
@@ -36874,6 +37188,243 @@
       </c>
       <c r="CP127" s="163" t="s">
         <v>2833</v>
+      </c>
+      <c r="CQ127" s="164" t="s">
+        <v>2834</v>
+      </c>
+      <c r="CR127" s="164" t="s">
+        <v>2835</v>
+      </c>
+      <c r="CS127" s="164" t="s">
+        <v>2836</v>
+      </c>
+      <c r="CT127" s="164" t="s">
+        <v>2837</v>
+      </c>
+      <c r="CU127" s="164" t="s">
+        <v>2838</v>
+      </c>
+      <c r="CV127" s="164" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CW127" s="164" t="s">
+        <v>2827</v>
+      </c>
+      <c r="CX127" s="164" t="s">
+        <v>2840</v>
+      </c>
+      <c r="CY127" s="164" t="s">
+        <v>2841</v>
+      </c>
+      <c r="CZ127" s="164" t="s">
+        <v>2842</v>
+      </c>
+      <c r="DA127" s="164" t="s">
+        <v>2843</v>
+      </c>
+      <c r="DB127" s="164" t="s">
+        <v>2844</v>
+      </c>
+      <c r="DC127" s="164" t="s">
+        <v>2845</v>
+      </c>
+      <c r="DD127" s="164" t="s">
+        <v>2846</v>
+      </c>
+      <c r="DE127" s="163" t="s">
+        <v>2847</v>
+      </c>
+      <c r="DF127" s="164" t="s">
+        <v>2848</v>
+      </c>
+      <c r="DG127" s="164" t="s">
+        <v>2770</v>
+      </c>
+      <c r="DH127" s="164" t="s">
+        <v>2771</v>
+      </c>
+      <c r="DI127" s="164" t="s">
+        <v>2772</v>
+      </c>
+      <c r="DJ127" s="164" t="s">
+        <v>2849</v>
+      </c>
+      <c r="DK127" s="164" t="s">
+        <v>2850</v>
+      </c>
+      <c r="DL127" s="164" t="s">
+        <v>2814</v>
+      </c>
+      <c r="DM127" s="164" t="s">
+        <v>2846</v>
+      </c>
+      <c r="DN127" s="164" t="s">
+        <v>2851</v>
+      </c>
+      <c r="DO127" s="164" t="s">
+        <v>2852</v>
+      </c>
+      <c r="DP127" s="164" t="s">
+        <v>2853</v>
+      </c>
+      <c r="DQ127" s="164" t="s">
+        <v>2854</v>
+      </c>
+      <c r="DR127" s="164" t="s">
+        <v>2855</v>
+      </c>
+      <c r="DS127" s="164" t="s">
+        <v>2778</v>
+      </c>
+      <c r="DT127" s="164" t="s">
+        <v>2818</v>
+      </c>
+      <c r="DU127" s="164" t="s">
+        <v>2856</v>
+      </c>
+      <c r="DV127" s="164" t="s">
+        <v>2857</v>
+      </c>
+      <c r="DW127" s="164" t="s">
+        <v>2838</v>
+      </c>
+      <c r="DX127" s="164" t="s">
+        <v>2858</v>
+      </c>
+      <c r="DY127" s="164" t="s">
+        <v>2859</v>
+      </c>
+      <c r="DZ127" s="164" t="s">
+        <v>2860</v>
+      </c>
+      <c r="EA127" s="164" t="s">
+        <v>2768</v>
+      </c>
+      <c r="EB127" s="164" t="s">
+        <v>2832</v>
+      </c>
+      <c r="EC127" s="164" t="s">
+        <v>2831</v>
+      </c>
+      <c r="ED127" s="164" t="s">
+        <v>2773</v>
+      </c>
+      <c r="EE127" s="164" t="s">
+        <v>2855</v>
+      </c>
+      <c r="EF127" s="164" t="s">
+        <v>2861</v>
+      </c>
+      <c r="EG127" s="164" t="s">
+        <v>2862</v>
+      </c>
+      <c r="EH127" s="164" t="s">
+        <v>2863</v>
+      </c>
+      <c r="EI127" s="164" t="s">
+        <v>2864</v>
+      </c>
+      <c r="EJ127" s="164" t="s">
+        <v>2833</v>
+      </c>
+      <c r="EK127" s="164" t="s">
+        <v>2865</v>
+      </c>
+      <c r="EL127" s="164" t="s">
+        <v>2866</v>
+      </c>
+      <c r="EM127" s="164" t="s">
+        <v>2812</v>
+      </c>
+      <c r="EN127" s="163" t="s">
+        <v>2867</v>
+      </c>
+      <c r="EO127" s="163" t="s">
+        <v>2868</v>
+      </c>
+      <c r="EP127" s="163" t="s">
+        <v>532</v>
+      </c>
+      <c r="EQ127" s="163" t="s">
+        <v>2814</v>
+      </c>
+      <c r="ER127" s="163" t="s">
+        <v>2869</v>
+      </c>
+      <c r="ES127" s="164" t="s">
+        <v>2870</v>
+      </c>
+      <c r="ET127" s="164" t="s">
+        <v>2871</v>
+      </c>
+      <c r="EU127" s="164" t="s">
+        <v>2872</v>
+      </c>
+      <c r="EV127" s="164" t="s">
+        <v>2873</v>
+      </c>
+      <c r="EW127" s="165" t="s">
+        <v>2874</v>
+      </c>
+      <c r="EX127" s="164" t="s">
+        <v>2875</v>
+      </c>
+      <c r="EY127" s="164" t="s">
+        <v>2876</v>
+      </c>
+      <c r="EZ127" s="164" t="s">
+        <v>2877</v>
+      </c>
+      <c r="FA127" s="164" t="s">
+        <v>2878</v>
+      </c>
+      <c r="FB127" s="164" t="s">
+        <v>2879</v>
+      </c>
+      <c r="FC127" s="164" t="s">
+        <v>2880</v>
+      </c>
+      <c r="FD127" s="164" t="s">
+        <v>2881</v>
+      </c>
+      <c r="FE127" s="164" t="s">
+        <v>2882</v>
+      </c>
+      <c r="FF127" s="164" t="s">
+        <v>2883</v>
+      </c>
+      <c r="FG127" s="164" t="s">
+        <v>2884</v>
+      </c>
+      <c r="FH127" s="164" t="s">
+        <v>2885</v>
+      </c>
+      <c r="FI127" s="164" t="s">
+        <v>2886</v>
+      </c>
+      <c r="FJ127" s="164" t="s">
+        <v>2887</v>
+      </c>
+      <c r="FK127" s="164" t="s">
+        <v>2888</v>
+      </c>
+      <c r="FL127" s="164" t="s">
+        <v>2889</v>
+      </c>
+      <c r="FM127" s="164" t="s">
+        <v>2890</v>
+      </c>
+      <c r="FN127" s="164" t="s">
+        <v>521</v>
+      </c>
+      <c r="FO127" s="164" t="s">
+        <v>665</v>
+      </c>
+      <c r="FP127" s="164" t="s">
+        <v>691</v>
+      </c>
+      <c r="FQ127" s="164" t="s">
+        <v>2891</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37159,6 +37710,240 @@
       <c r="CP128" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="CQ128" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="CR128" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="CS128" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT128" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="CU128" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CV128" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CW128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CX128" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CY128" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CZ128" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA128" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="DB128" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="DC128" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="DD128" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DE128" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DF128" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DG128" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DH128" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI128" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DJ128" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DK128" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="DL128" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DM128" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DN128" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DO128" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DP128" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DQ128" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DR128" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DS128" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT128" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DU128" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DV128" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DW128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DX128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DY128" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="DZ128" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="EA128" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="EB128" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="EC128" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="ED128" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="EE128" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="EF128" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="EG128" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="EH128" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="EI128" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EJ128" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EK128" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EL128" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EM128" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EN128" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EO128" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EP128" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="EQ128" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="ER128" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="ES128" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="ET128" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="EU128" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="EV128" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="EW128" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="EX128" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="EY128" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="EZ128" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="FA128" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="FB128" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="FC128" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="FD128" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="FE128" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="FF128" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="FG128" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="FH128" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="FI128" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="FJ128" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="FK128" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="FL128" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="FM128" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="FN128" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="FO128" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="FP128" s="0" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="117" t="s">
@@ -37443,6 +38228,240 @@
       <c r="CP129" s="0" t="n">
         <v>94</v>
       </c>
+      <c r="CQ129" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR129" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="CS129" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="CT129" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU129" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CV129" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW129" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CX129" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CY129" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CZ129" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="DA129" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="DB129" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="DC129" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DD129" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DE129" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DF129" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DG129" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DH129" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DI129" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DJ129" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="DK129" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DL129" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DM129" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DN129" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DO129" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DP129" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DQ129" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DR129" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DS129" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DT129" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DU129" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DV129" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DW129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DX129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="DY129" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="DZ129" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="EA129" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="EB129" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="EC129" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="ED129" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="EE129" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="EF129" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="EG129" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="EH129" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EI129" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EJ129" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EK129" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EL129" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EM129" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EN129" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EO129" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="EP129" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="EQ129" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="ER129" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="ES129" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="ET129" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="EU129" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="EV129" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="EW129" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="EX129" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="EY129" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="EZ129" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="FA129" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="FB129" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="FC129" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="FD129" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="FE129" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="FF129" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="FG129" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="FH129" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="FI129" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="FJ129" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="FK129" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="FL129" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="FM129" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="FN129" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="FO129" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="FP129" s="0" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="117" t="s">
@@ -37727,6 +38746,240 @@
       <c r="CP130" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="CQ130" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="CR130" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="CS130" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CT130" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CU130" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CV130" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CW130" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CX130" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CY130" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="CZ130" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="DA130" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="DB130" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DC130" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DD130" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DE130" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DF130" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DG130" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DH130" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DI130" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="DJ130" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DK130" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DL130" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DM130" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DN130" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DO130" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DP130" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DQ130" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DR130" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DS130" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DT130" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DU130" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DV130" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DW130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="DX130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="DY130" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="DZ130" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="EA130" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="EB130" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="EC130" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="ED130" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="EE130" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="EF130" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="EG130" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EH130" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EI130" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EJ130" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EK130" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EL130" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EM130" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EN130" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="EO130" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="EP130" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="EQ130" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="ER130" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="ES130" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="ET130" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="EU130" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="EV130" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="EW130" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="EX130" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="EY130" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="EZ130" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="FA130" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="FB130" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="FC130" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="FD130" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="FE130" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="FF130" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="FG130" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="FH130" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="FI130" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="FJ130" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="FK130" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="FL130" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="FM130" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="FN130" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="FO130" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="FP130" s="0" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="117" t="s">
@@ -38011,6 +39264,240 @@
       <c r="CP131" s="0" t="n">
         <v>96</v>
       </c>
+      <c r="CQ131" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="CR131" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CS131" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CT131" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CU131" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CV131" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CW131" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CX131" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="CY131" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="CZ131" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="DA131" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DB131" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DC131" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DD131" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DE131" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DF131" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DG131" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DH131" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="DI131" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DJ131" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DK131" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DL131" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DM131" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DN131" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DO131" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DP131" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DQ131" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DR131" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DS131" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DT131" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DU131" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DV131" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="DW131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="DX131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="DY131" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="DZ131" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="EA131" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="EB131" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="EC131" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="ED131" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="EE131" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="EF131" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EG131" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EH131" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EI131" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EJ131" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EK131" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EL131" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EM131" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="EN131" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="EO131" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="EP131" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="EQ131" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="ER131" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="ES131" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="ET131" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="EU131" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="EV131" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="EW131" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="EX131" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="EY131" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="EZ131" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="FA131" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="FB131" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="FC131" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="FD131" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="FE131" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="FF131" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="FG131" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="FH131" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="FI131" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="FJ131" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="FK131" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="FL131" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="FM131" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="FN131" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="FO131" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="FP131" s="0" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="161" t="s">
@@ -38295,6 +39782,240 @@
       <c r="CP132" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="CQ132" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CR132" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CS132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CT132" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CU132" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CV132" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CW132" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="CX132" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="CY132" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="CZ132" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DA132" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DB132" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DC132" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DD132" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DE132" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DF132" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DG132" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="DH132" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DI132" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DJ132" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DK132" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DL132" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DM132" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DN132" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DO132" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DP132" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DQ132" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DR132" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DS132" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DT132" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DU132" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="DV132" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="DW132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="DX132" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="DY132" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="DZ132" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="EA132" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="EB132" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="EC132" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="ED132" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="EE132" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EF132" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EG132" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EH132" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EI132" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EJ132" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EK132" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EL132" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="EM132" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="EN132" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="EO132" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="EP132" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="EQ132" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="ER132" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="ES132" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="ET132" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="EU132" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="EV132" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="EW132" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="EX132" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="EY132" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="EZ132" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="FA132" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="FB132" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="FC132" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="FD132" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="FE132" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="FF132" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="FG132" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="FH132" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="FI132" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="FJ132" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="FK132" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="FL132" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="FM132" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="FN132" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="FO132" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="FP132" s="0" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="161" t="s">
@@ -38578,6 +40299,240 @@
       </c>
       <c r="CP133" s="0" t="n">
         <v>98</v>
+      </c>
+      <c r="CQ133" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CR133" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CS133" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CT133" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CU133" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CV133" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="CW133" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="CX133" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="CY133" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="CZ133" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DA133" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DB133" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DC133" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DD133" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DE133" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DF133" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="DG133" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DH133" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DI133" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DJ133" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DK133" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DL133" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DM133" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DN133" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DO133" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DP133" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DQ133" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DR133" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DS133" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DT133" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="DU133" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="DV133" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="DW133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="DX133" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="DY133" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="DZ133" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="EA133" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="EB133" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="EC133" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="ED133" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EE133" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EF133" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EG133" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EH133" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EI133" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EJ133" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EK133" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="EL133" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="EM133" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="EN133" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="EO133" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="EP133" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="EQ133" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="ER133" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="ES133" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="ET133" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="EU133" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="EV133" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="EW133" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="EX133" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="EY133" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="EZ133" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="FA133" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="FB133" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="FC133" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="FD133" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="FE133" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="FF133" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="FG133" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="FH133" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="FI133" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="FJ133" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="FK133" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="FL133" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="FM133" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="FN133" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="FO133" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="FP133" s="0" t="n">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/src/info/species/data/species.xlsx
+++ b/src/info/species/data/species.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -61,6 +61,27 @@
           <t xml:space="preserve">I would leave it in English</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>16</xdr:colOff>
+                <xdr:row>126</xdr:row>
+                <xdr:rowOff>7</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>88</xdr:colOff>
+                <xdr:row>127</xdr:row>
+                <xdr:rowOff>48</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
     <comment ref="J113" authorId="0">
       <text>
@@ -87,6 +108,27 @@
           <t xml:space="preserve">so the name of the project will be Ladybird Survey? Shall we translate it into each language? I suggest not but please let me know (I've generally translated it as progetto di ricerca sulle coccinelle)</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>35</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>65</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>107</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>113</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
     <comment ref="J130" authorId="0">
       <text>
@@ -113,6 +155,27 @@
           <t xml:space="preserve">I've put it as plural, since it is so reported in English</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>16</xdr:colOff>
+                <xdr:row>126</xdr:row>
+                <xdr:rowOff>7</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>88</xdr:colOff>
+                <xdr:row>127</xdr:row>
+                <xdr:rowOff>48</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
@@ -307,10 +370,10 @@
     <t xml:space="preserve">BE {order}</t>
   </si>
   <si>
-    <t xml:space="preserve">BE {common_name { NL }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE {common_name { FR }}</t>
+    <t xml:space="preserve">BE {common_name {NL}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE {common_name {FR}}</t>
   </si>
   <si>
     <t xml:space="preserve">BE {habitat {comment[]}}</t>
@@ -328,10 +391,10 @@
     <t xml:space="preserve">BE {comment_EN}</t>
   </si>
   <si>
-    <t xml:space="preserve">BE {comment { NL }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE {comment { FR }}</t>
+    <t xml:space="preserve">BE {comment {NL}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE {comment {FR}}</t>
   </si>
   <si>
     <t xml:space="preserve">?</t>
@@ -14447,12 +14510,12 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BM70" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="DK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BM1" activeCellId="0" sqref="BM1"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
-      <selection pane="bottomRight" activeCell="BX56" activeCellId="0" sqref="BX56"/>
+      <selection pane="topRight" activeCell="DK1" activeCellId="0" sqref="DK1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="DM2" activeCellId="0" sqref="DM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14520,7 +14583,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="160" style="0" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="22" customFormat="true" ht="161.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -48315,8 +48378,8 @@
   </sheetPr>
   <dimension ref="A1:GA135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EA124" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="EQ127" activeCellId="0" sqref="EQ127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D178" activeCellId="0" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/info/species/data/species.xlsx
+++ b/src/info/species/data/species.xlsx
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Karolis Kazlauskis</author>
   </authors>
   <commentList>
     <comment ref="J113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
@@ -66,6 +67,72 @@
             <charset val="1"/>
           </rPr>
           <t>so the name of the project will be Ladybird Survey? Shall we translate it into each language? I suggest not but please let me know (I've generally translated it as progetto di ricerca sulle coccinelle)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FC127" authorId="1" shapeId="0" xr:uid="{01110EC1-AF0F-3648-94D1-C93EE776CBCC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karolis Kazlauskis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>it can be 'Latitude, longitude' for other countries</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FV127" authorId="1" shapeId="0" xr:uid="{C89547C1-E0D8-B04E-8088-3C9122950FF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karolis Kazlauskis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please preserve the special characters in your translations as these are important for formatting of the text</t>
         </r>
       </text>
     </comment>
@@ -13086,7 +13153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -13247,6 +13314,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -49161,8 +49241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -50337,7 +50417,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="117" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:46" ht="104" x14ac:dyDescent="0.15">
       <c r="A17" s="174" t="s">
         <v>1084</v>
       </c>
@@ -50426,7 +50506,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="117" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:46" ht="104" x14ac:dyDescent="0.15">
       <c r="A18" s="174" t="s">
         <v>1092</v>
       </c>
@@ -51875,7 +51955,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A30" s="174" t="s">
         <v>1074</v>
       </c>
@@ -52379,7 +52459,7 @@
       <c r="AM40" s="69"/>
       <c r="AN40" s="69"/>
     </row>
-    <row r="41" spans="1:40" s="178" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:40" s="178" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A41" s="177" t="s">
         <v>1111</v>
       </c>
@@ -53255,7 +53335,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="54" spans="1:65" ht="208" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:65" ht="195" x14ac:dyDescent="0.15">
       <c r="A54" s="176" t="s">
         <v>1102</v>
       </c>
@@ -53535,7 +53615,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="56" spans="1:65" s="178" customFormat="1" ht="182" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:65" s="178" customFormat="1" ht="169" x14ac:dyDescent="0.15">
       <c r="A56" s="177" t="s">
         <v>1121</v>
       </c>
@@ -58889,7 +58969,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="114" spans="1:1025" ht="169" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1025" ht="156" x14ac:dyDescent="0.15">
       <c r="A114" s="174" t="s">
         <v>1074</v>
       </c>
@@ -58983,7 +59063,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="116" spans="1:1025" ht="182" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1025" ht="169" x14ac:dyDescent="0.15">
       <c r="A116" s="174" t="s">
         <v>1092</v>
       </c>

--- a/src/info/species/data/species.xlsx
+++ b/src/info/species/data/species.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Dropbox\leu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JIRISLAV - DATA\Applikace\2018 - rijen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="7530" tabRatio="808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$C$1:$FC$73</definedName>
     <definedName name="Colour">Species!$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -141,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9495" uniqueCount="4045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9605" uniqueCount="4138">
   <si>
     <t>id</t>
   </si>
@@ -13113,9 +13106,6 @@
     <t>Sei sicuro di voler rimuovere questa foto?</t>
   </si>
   <si>
-    <t>&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt; rimarrà nella galleria.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Sei sicuro di voler rimuovere questa foto?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Nota:&lt;/b&gt; rimarrà comunque nella galleria.&lt;/i&gt;</t>
   </si>
   <si>
@@ -13150,12 +13140,295 @@
   </si>
   <si>
     <t>Habitat costiero</t>
+  </si>
+  <si>
+    <t>marien</t>
+  </si>
+  <si>
+    <t>kust</t>
+  </si>
+  <si>
+    <t>binnenwateren</t>
+  </si>
+  <si>
+    <t>gemengd habitat</t>
+  </si>
+  <si>
+    <t>akkers, tuinen en parken</t>
+  </si>
+  <si>
+    <t>braakliggende en ruderale terreinen</t>
+  </si>
+  <si>
+    <t>heides, struwelen en heggen</t>
+  </si>
+  <si>
+    <t>industriële en urbane milieus</t>
+  </si>
+  <si>
+    <t>moerassen, venen en vennen</t>
+  </si>
+  <si>
+    <t>tourbière et marais</t>
+  </si>
+  <si>
+    <t>côte</t>
+  </si>
+  <si>
+    <t>marine</t>
+  </si>
+  <si>
+    <t>habitat mixte</t>
+  </si>
+  <si>
+    <t>champs, jardins et parcs</t>
+  </si>
+  <si>
+    <t>terrains rudéraux et non-végété</t>
+  </si>
+  <si>
+    <t>milieu urbain et industriel</t>
+  </si>
+  <si>
+    <t>eaux intérieures</t>
+  </si>
+  <si>
+    <t>bruyère, bosquets et haies</t>
+  </si>
+  <si>
+    <t>Vnitrozemské vody</t>
+  </si>
+  <si>
+    <t>Rašeliniště a slaniště</t>
+  </si>
+  <si>
+    <t>Orná půda, zahrady a parky</t>
+  </si>
+  <si>
+    <t>Mořské</t>
+  </si>
+  <si>
+    <t>Smíšené stanoviště</t>
+  </si>
+  <si>
+    <t>Pobřežní stanoviště</t>
+  </si>
+  <si>
+    <t>Morský</t>
+  </si>
+  <si>
+    <t>Pobrežný</t>
+  </si>
+  <si>
+    <t>Sladkovodné habitaty</t>
+  </si>
+  <si>
+    <t>Rašeliniská a močiare</t>
+  </si>
+  <si>
+    <t>Trávnaté spoločenstvá</t>
+  </si>
+  <si>
+    <t>Vresoviská, kroviny a živé ploty</t>
+  </si>
+  <si>
+    <t>Habitaty bez vegetácie alebo len  riedko zarastené</t>
+  </si>
+  <si>
+    <t>Ornice, záhrady a parky</t>
+  </si>
+  <si>
+    <t>Mestské a priemyselné zóny</t>
+  </si>
+  <si>
+    <t>Zmiešané habitaty</t>
+  </si>
+  <si>
+    <t>Stanoviště bez vegetace nebo jen řídce zarostlé</t>
+  </si>
+  <si>
+    <t>Průmyslové a městské zóny</t>
+  </si>
+  <si>
+    <t>Travnatá společenstva</t>
+  </si>
+  <si>
+    <t>Marinho</t>
+  </si>
+  <si>
+    <t>Costeiro</t>
+  </si>
+  <si>
+    <t>Águas interiores</t>
+  </si>
+  <si>
+    <t>Pauis e turfeiras</t>
+  </si>
+  <si>
+    <t>Charnecas, Matagais, sebes</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>Habitats com pouca ou nenhuma vegetação</t>
+  </si>
+  <si>
+    <t>Áreas agricolas, jardins ou parques</t>
+  </si>
+  <si>
+    <t>Ambientes industriais  ou Urbanos</t>
+  </si>
+  <si>
+    <t>Diversos tipos de habitat</t>
+  </si>
+  <si>
+    <t>Vřesoviště, křoviny a živé ploty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosques húmidos de caducifólias </t>
+  </si>
+  <si>
+    <t>Odkaz na sieťové mapovanie</t>
+  </si>
+  <si>
+    <t>Najbližšie pomenované miesto</t>
+  </si>
+  <si>
+    <t>V akom type habitatu ste našli túto lienku?</t>
+  </si>
+  <si>
+    <t>Nezaznamenané</t>
+  </si>
+  <si>
+    <t>Ste si istý, že chcete odstrániť túto fotku?</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt; ostene to v galérii.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ste si istý, že chcete odstrániť túto fotku?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt; ostene to v galérii.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ste si istý že chcete odstrániť tento záznam z Vašeho zariadenie?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt; Zostane na serveri.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ste si istý, že chcete odstrániť všetky úspešne synchronizované miestne záznamy?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt;Záznamy sa uchovajú na serveri.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Odkaz na síťové mapování</t>
+  </si>
+  <si>
+    <t>Nejbližší pojmenované místo</t>
+  </si>
+  <si>
+    <t>V jakém typu stanoviště jste našli slunéčko?</t>
+  </si>
+  <si>
+    <t>Opravdu chcete tuto fotku odebrat?</t>
+  </si>
+  <si>
+    <t>&lt;/ br&gt; &lt;i&gt; &lt;b&gt; Poznámka: &lt;/ b&gt; zůstane v galerii. &lt;/ i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Opravdu chcete tuto fotku odebrat? &lt;/ Br&gt; &lt;i&gt; &lt;b&gt; Poznámka: &lt;/ b&gt; zůstane v galerii. &lt;/ I&gt;</t>
+  </si>
+  <si>
+    <t>Opravdu chcete tento záznam odebrat ze zařízení? &lt;/ Br&gt; &lt;i&gt; &lt;b&gt; Poznámka: &lt;/ b&gt; zůstane na serveru. &lt;/ I&gt;</t>
+  </si>
+  <si>
+    <t>Opravdu chcete odstranit všechny úspěšně synchronizované místní záznamy? &lt;/ B&gt; &lt;i&gt; &lt;b&gt; Poznámka: &lt;/ b&gt; záznamů na serveru se to nebude dotýkat. &lt;/ I&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;&lt;i&gt;&lt;b&gt;Nota:&lt;/b&gt; rimarrà nella galleria.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Referência</t>
+  </si>
+  <si>
+    <t>Localidade mais próxima</t>
+  </si>
+  <si>
+    <t>Em que habitat encontraste a joaninha?</t>
+  </si>
+  <si>
+    <t>Não registado</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja remover esta foto da amostra?</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;&lt;i&gt;&lt;b&gt;Nota:&lt;/b&gt; permanecerá na galeria.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja remover esta foto da amostra? &lt;/br&gt;&lt;i&gt;&lt;b&gt;Nota:&lt;/b&gt; permanecerá na galeria.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja remover este registro do seu dispositivo?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt; permanecerá no servidor.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja excluir todos os registros locais sincronizados com sucesso?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Note:&lt;/b&gt;os registos no servidor não serão alterados.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Referentie hok</t>
+  </si>
+  <si>
+    <t>Dichtstbijzijnde plaats</t>
+  </si>
+  <si>
+    <t>In welk habitat vond je de lieveheerbeestjes</t>
+  </si>
+  <si>
+    <t>Niet waargenomen</t>
+  </si>
+  <si>
+    <t>Ben je zeker dat je deze foto wil verwijderen?</t>
+  </si>
+  <si>
+    <t>De foto blijft in de gallerij.</t>
+  </si>
+  <si>
+    <t>Ben je zeker dat je deze foto wil verwijderen?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Opmerking:&lt;/b&gt; De foto blijft in de gallerij.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ben je zeker dat je deze waarneming wil verwijderen van je toestel?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Opmerking:&lt;/b&gt; de waarneming blijft bewaard op de server.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Weet je zeker dat je alle lokaal bewaarde, gesynchroniseerde waarnemingen wilt verwijderen?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Opmerking:&lt;/b&gt;waarnemingen op de server worden niet gewist.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Référence carré</t>
+  </si>
+  <si>
+    <t>Lieu le plus proche</t>
+  </si>
+  <si>
+    <t>Dans quel habitat avez vous trouvé les coccinelles</t>
+  </si>
+  <si>
+    <t>Pas observé</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer cette photo?</t>
+  </si>
+  <si>
+    <t>La photo reste dans la galerie.</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer cette photo?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Remarque:&lt;/b&gt; La photo reste dans la galerie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer cette observation de votre appareil?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Remarque:&lt;/b&gt; l'observation restera sur le serveur.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer toutes les observations sauvées localement et synchronisés avec succès?&lt;/br&gt;&lt;i&gt;&lt;b&gt;Remarque:&lt;/b&gt;les observations sur le serveur ne seront pas touchés.&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -13324,7 +13597,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13417,12 +13690,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDD8C6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13448,6 +13715,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14244,53 +14523,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="2"/>
-    <cellStyle name="Testo descrittivo" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Vysvětlující text" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14396,7 +14675,7 @@
         <xdr:cNvPr id="2054" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F39FF6-FD29-1E45-AA8C-E99A31A03045}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F39FF6-FD29-1E45-AA8C-E99A31A03045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14445,7 +14724,7 @@
         <xdr:cNvPr id="2052" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C861928D-579B-7040-97C5-5385EC85B15B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C861928D-579B-7040-97C5-5385EC85B15B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14494,7 +14773,7 @@
         <xdr:cNvPr id="2050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B38B49-77F6-9E4F-AF9B-C6D8CD7E6FCB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B38B49-77F6-9E4F-AF9B-C6D8CD7E6FCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14853,11 +15132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="DK1" sqref="DK1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43158,7 +43437,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'xlfile://root/users/karkaz/documents/workspace/c:/volumes/documents/evelina/  doctorate/c:/users/alber/documents/2015 lavori/wallingford/aggiornamenti di maggio 2016/[ladybird-data_2016-05-31 alberto gr 12-6.xlsx]charact_default'!#REF!</xm:f>
+            <xm:f>[1]charact_default!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -43167,7 +43446,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'xlfile://root/users/karkaz/documents/workspace/c:/volumes/documents/evelina/  doctorate/c:/users/alber/documents/2016 lavori/coccinelle/antonio soares/correzioni database 12.2016/[ladybird-data_2016-11-10 alberto.xlsx]charact_default'!#REF!</xm:f>
+            <xm:f>[2]charact_default!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -47196,8 +47475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL19"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AY16" sqref="AY16"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49019,7 +49298,7 @@
       <c r="AX16" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="AY16" s="216" t="s">
+      <c r="AY16" s="213" t="s">
         <v>854</v>
       </c>
       <c r="AZ16" s="1"/>
@@ -49285,8 +49564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK134"/>
   <sheetViews>
-    <sheetView topLeftCell="BD64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BO67" sqref="BO67"/>
+    <sheetView tabSelected="1" topLeftCell="ER1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="FE137" sqref="FE137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49306,46 +49585,54 @@
     <col min="13" max="13" width="21.28515625" style="51" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="51" customWidth="1"/>
     <col min="15" max="15" width="32.28515625" style="51" customWidth="1"/>
-    <col min="16" max="1025" width="11.42578125" style="51" customWidth="1"/>
+    <col min="16" max="67" width="11.42578125" style="51" customWidth="1"/>
+    <col min="68" max="68" width="13.42578125" style="51" customWidth="1"/>
+    <col min="69" max="72" width="11.42578125" style="51" customWidth="1"/>
+    <col min="73" max="73" width="13.28515625" style="51" customWidth="1"/>
+    <col min="74" max="166" width="11.42578125" style="51" customWidth="1"/>
+    <col min="167" max="167" width="18.7109375" style="51" customWidth="1"/>
+    <col min="168" max="168" width="22.28515625" style="51" customWidth="1"/>
+    <col min="169" max="169" width="26.140625" style="51" customWidth="1"/>
+    <col min="170" max="1025" width="11.42578125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:40" s="209" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B1" s="210" t="str">
+      <c r="B1" s="209" t="str">
         <f>Characteristics_overview!A1</f>
         <v>Colour</v>
       </c>
-      <c r="C1" s="210" t="str">
+      <c r="C1" s="209" t="str">
         <f>Characteristics_overview!B1</f>
         <v>black</v>
       </c>
-      <c r="D1" s="210" t="str">
+      <c r="D1" s="209" t="str">
         <f>Characteristics_overview!C1</f>
         <v>brown</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="209" t="str">
         <f>Characteristics_overview!D1</f>
         <v>red</v>
       </c>
-      <c r="F1" s="210" t="str">
+      <c r="F1" s="209" t="str">
         <f>Characteristics_overview!E1</f>
         <v>orange</v>
       </c>
-      <c r="G1" s="210" t="str">
+      <c r="G1" s="209" t="str">
         <f>Characteristics_overview!F1</f>
         <v>yellow</v>
       </c>
-      <c r="H1" s="210" t="str">
+      <c r="H1" s="209" t="str">
         <f>Characteristics_overview!G1</f>
         <v>pink</v>
       </c>
-      <c r="I1" s="210" t="str">
+      <c r="I1" s="209" t="str">
         <f>Characteristics_overview!H1</f>
         <v>cream/beige</v>
       </c>
-      <c r="J1" s="210" t="str">
+      <c r="J1" s="209" t="str">
         <f>Characteristics_overview!I1</f>
         <v>white</v>
       </c>
@@ -49572,123 +49859,123 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="210" t="s">
+    <row r="8" spans="1:40" s="209" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B8" s="210" t="str">
+      <c r="B8" s="209" t="str">
         <f>Characteristics_overview!A4</f>
         <v>Basic colour</v>
       </c>
-      <c r="C8" s="210" t="str">
+      <c r="C8" s="209" t="str">
         <f>Characteristics_overview!B4</f>
         <v>Beige</v>
       </c>
-      <c r="D8" s="210" t="str">
+      <c r="D8" s="209" t="str">
         <f>Characteristics_overview!C4</f>
         <v>Black</v>
       </c>
-      <c r="E8" s="210" t="str">
+      <c r="E8" s="209" t="str">
         <f>Characteristics_overview!D4</f>
         <v>Black, brown, maroon</v>
       </c>
-      <c r="F8" s="210" t="str">
+      <c r="F8" s="209" t="str">
         <f>Characteristics_overview!E4</f>
         <v>Chestnut</v>
       </c>
-      <c r="G8" s="210" t="str">
+      <c r="G8" s="209" t="str">
         <f>Characteristics_overview!F4</f>
         <v>Dark orange</v>
       </c>
-      <c r="H8" s="210" t="str">
+      <c r="H8" s="209" t="str">
         <f>Characteristics_overview!G4</f>
         <v>July-April = beige April-June = reddish</v>
       </c>
-      <c r="I8" s="210" t="str">
+      <c r="I8" s="209" t="str">
         <f>Characteristics_overview!H4</f>
         <v>Maroon-brown</v>
       </c>
-      <c r="J8" s="210" t="str">
+      <c r="J8" s="209" t="str">
         <f>Characteristics_overview!I4</f>
         <v>Orange</v>
       </c>
-      <c r="K8" s="210" t="str">
+      <c r="K8" s="209" t="str">
         <f>Characteristics_overview!J4</f>
         <v>Orange-red</v>
       </c>
-      <c r="L8" s="210" t="str">
+      <c r="L8" s="209" t="str">
         <f>Characteristics_overview!K4</f>
         <v>Red</v>
       </c>
-      <c r="M8" s="210" t="str">
+      <c r="M8" s="209" t="str">
         <f>Characteristics_overview!L4</f>
         <v>Russet or burgundy</v>
       </c>
-      <c r="N8" s="210" t="str">
+      <c r="N8" s="209" t="str">
         <f>Characteristics_overview!M4</f>
         <v>Salmon, orange-red</v>
       </c>
-      <c r="O8" s="210" t="str">
+      <c r="O8" s="209" t="str">
         <f>Characteristics_overview!N4</f>
         <v>Tan brown</v>
       </c>
-      <c r="P8" s="210" t="str">
+      <c r="P8" s="209" t="str">
         <f>Characteristics_overview!O4</f>
         <v>Yellow</v>
       </c>
-      <c r="Q8" s="210" t="str">
+      <c r="Q8" s="209" t="str">
         <f>Characteristics_overview!P4</f>
         <v>Yellow or black</v>
       </c>
-      <c r="R8" s="210" t="str">
+      <c r="R8" s="209" t="str">
         <f>Characteristics_overview!Q4</f>
         <v>Yellow, orange-red</v>
       </c>
-      <c r="S8" s="210" t="str">
+      <c r="S8" s="209" t="str">
         <f>Characteristics_overview!R4</f>
         <v>Black, juvenile red brown</v>
       </c>
-      <c r="T8" s="210" t="str">
+      <c r="T8" s="209" t="str">
         <f>Characteristics_overview!S4</f>
         <v>Ochroid or yellow</v>
       </c>
-      <c r="U8" s="210" t="str">
+      <c r="U8" s="209" t="str">
         <f>Characteristics_overview!T4</f>
         <v>Beige to orange-red</v>
       </c>
-      <c r="V8" s="210" t="str">
+      <c r="V8" s="209" t="str">
         <f>Characteristics_overview!U4</f>
         <v>Light yellow-brown</v>
       </c>
-      <c r="W8" s="210" t="str">
+      <c r="W8" s="209" t="str">
         <f>Characteristics_overview!V4</f>
         <v>Orange-red or ochroid</v>
       </c>
-      <c r="X8" s="210" t="str">
+      <c r="X8" s="209" t="str">
         <f>Characteristics_overview!W4</f>
         <v>Ochroid to red</v>
       </c>
-      <c r="Y8" s="210" t="str">
+      <c r="Y8" s="209" t="str">
         <f>Characteristics_overview!X4</f>
         <v>Matt brown</v>
       </c>
-      <c r="Z8" s="210" t="str">
+      <c r="Z8" s="209" t="str">
         <f>Characteristics_overview!Y4</f>
         <v>Brown-orange or rusty</v>
       </c>
-      <c r="AA8" s="210" t="str">
+      <c r="AA8" s="209" t="str">
         <f>Characteristics_overview!Z4</f>
         <v>Cream, yellowish, pink or reddish</v>
       </c>
-      <c r="AB8" s="210" t="str">
+      <c r="AB8" s="209" t="str">
         <f>Characteristics_overview!AA4</f>
         <v>Rusty brown or black</v>
       </c>
-      <c r="AC8" s="210" t="str">
+      <c r="AC8" s="209" t="str">
         <f>Characteristics_overview!AB4</f>
         <v>White, cream, yellowish or pink</v>
       </c>
-      <c r="AD8" s="210" t="str">
+      <c r="AD8" s="209" t="str">
         <f>Characteristics_overview!AC4</f>
         <v>Brown</v>
       </c>
@@ -50255,119 +50542,119 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="210" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="210" t="s">
+    <row r="15" spans="1:40" s="209" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B15" s="210" t="str">
+      <c r="B15" s="209" t="str">
         <f>Characteristics_overview!A5</f>
         <v>Pattern colour</v>
       </c>
-      <c r="C15" s="210" t="str">
+      <c r="C15" s="209" t="str">
         <f>Characteristics_overview!B5</f>
         <v>Black spots</v>
       </c>
-      <c r="D15" s="210" t="str">
+      <c r="D15" s="209" t="str">
         <f>Characteristics_overview!C5</f>
         <v>Black spots with or without cream rings around them</v>
       </c>
-      <c r="E15" s="210" t="str">
+      <c r="E15" s="209" t="str">
         <f>Characteristics_overview!D5</f>
         <v>Black stripes, spots and patches</v>
       </c>
-      <c r="F15" s="210" t="str">
+      <c r="F15" s="209" t="str">
         <f>Characteristics_overview!E5</f>
         <v xml:space="preserve">Brown or black spots </v>
       </c>
-      <c r="G15" s="210" t="str">
+      <c r="G15" s="209" t="str">
         <f>Characteristics_overview!F5</f>
         <v>Cream spots</v>
       </c>
-      <c r="H15" s="210" t="str">
+      <c r="H15" s="209" t="str">
         <f>Characteristics_overview!G5</f>
         <v>Cream streaking</v>
       </c>
-      <c r="I15" s="210" t="str">
+      <c r="I15" s="209" t="str">
         <f>Characteristics_overview!H5</f>
         <v>Cream stripes and spots</v>
       </c>
-      <c r="J15" s="210" t="str">
+      <c r="J15" s="209" t="str">
         <f>Characteristics_overview!I5</f>
         <v>None or dark oblique line posteriorly</v>
       </c>
-      <c r="K15" s="210" t="str">
+      <c r="K15" s="209" t="str">
         <f>Characteristics_overview!J5</f>
         <v>Orange-red spots</v>
       </c>
-      <c r="L15" s="210" t="str">
+      <c r="L15" s="209" t="str">
         <f>Characteristics_overview!K5</f>
         <v>Orange stripes, spots and patches</v>
       </c>
-      <c r="M15" s="210" t="str">
+      <c r="M15" s="209" t="str">
         <f>Characteristics_overview!L5</f>
         <v>Red spots</v>
       </c>
-      <c r="N15" s="210" t="str">
+      <c r="N15" s="209" t="str">
         <f>Characteristics_overview!M5</f>
         <v>Red, orange, cream</v>
       </c>
-      <c r="O15" s="210" t="str">
+      <c r="O15" s="209" t="str">
         <f>Characteristics_overview!N5</f>
         <v>White spots</v>
       </c>
-      <c r="P15" s="210" t="str">
+      <c r="P15" s="209" t="str">
         <f>Characteristics_overview!O5</f>
         <v>Yellow or off-white spots</v>
       </c>
-      <c r="Q15" s="210" t="str">
+      <c r="Q15" s="209" t="str">
         <f>Characteristics_overview!P5</f>
         <v>No spots</v>
       </c>
-      <c r="R15" s="210" t="str">
+      <c r="R15" s="209" t="str">
         <f>Characteristics_overview!Q5</f>
         <v>Yellow spots</v>
       </c>
-      <c r="S15" s="210" t="str">
+      <c r="S15" s="209" t="str">
         <f>Characteristics_overview!R5</f>
         <v>Orange spots</v>
       </c>
-      <c r="T15" s="210" t="str">
+      <c r="T15" s="209" t="str">
         <f>Characteristics_overview!S5</f>
         <v>Yellow-orange spots</v>
       </c>
-      <c r="U15" s="210" t="str">
+      <c r="U15" s="209" t="str">
         <f>Characteristics_overview!T5</f>
         <v xml:space="preserve">Diamond-shaped black spots </v>
       </c>
-      <c r="V15" s="210" t="str">
+      <c r="V15" s="209" t="str">
         <f>Characteristics_overview!U5</f>
         <v>Cream spots</v>
       </c>
-      <c r="W15" s="210" t="str">
+      <c r="W15" s="209" t="str">
         <f>Characteristics_overview!V5</f>
         <v>None</v>
       </c>
-      <c r="X15" s="210" t="str">
+      <c r="X15" s="209" t="str">
         <f>Characteristics_overview!W5</f>
         <v>None or irregular light patches</v>
       </c>
-      <c r="Y15" s="210" t="str">
+      <c r="Y15" s="209" t="str">
         <f>Characteristics_overview!X5</f>
         <v>Angular black spots, black suture</v>
       </c>
-      <c r="Z15" s="210" t="str">
+      <c r="Z15" s="209" t="str">
         <f>Characteristics_overview!Y5</f>
         <v>Yellow rounded spots</v>
       </c>
-      <c r="AA15" s="210" t="str">
+      <c r="AA15" s="209" t="str">
         <f>Characteristics_overview!Z5</f>
         <v>White (mainly in rusty individuals) or lemon yellow (in black individuals)</v>
       </c>
-      <c r="AB15" s="210" t="str">
+      <c r="AB15" s="209" t="str">
         <f>Characteristics_overview!AA5</f>
         <v>Black stripes</v>
       </c>
-      <c r="AC15" s="210" t="str">
+      <c r="AC15" s="209" t="str">
         <f>Characteristics_overview!AB5</f>
         <v>Black with wide yellow-orange lateral margins</v>
       </c>
@@ -50917,187 +51204,187 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="22" spans="1:46" s="210" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="210" t="s">
+    <row r="22" spans="1:46" s="209" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B22" s="210" t="str">
+      <c r="B22" s="209" t="str">
         <f>Characteristics_overview!A6</f>
         <v>Number of spots</v>
       </c>
-      <c r="C22" s="210" t="str">
+      <c r="C22" s="209" t="str">
         <f>Characteristics_overview!B6</f>
         <v>0-7 (usually 2)</v>
       </c>
-      <c r="D22" s="210" t="str">
+      <c r="D22" s="209" t="str">
         <f>Characteristics_overview!C6</f>
         <v>0-7 (usually 5)</v>
       </c>
-      <c r="E22" s="210" t="str">
+      <c r="E22" s="209" t="str">
         <f>Characteristics_overview!D6</f>
         <v>0-9 but nearly always 7</v>
       </c>
-      <c r="F22" s="210" t="str">
+      <c r="F22" s="209" t="str">
         <f>Characteristics_overview!E6</f>
         <v>0-10  (usually spotless)</v>
       </c>
-      <c r="G22" s="210" t="str">
+      <c r="G22" s="209" t="str">
         <f>Characteristics_overview!F6</f>
         <v>0-15 (usually 10)</v>
       </c>
-      <c r="H22" s="210" t="str">
+      <c r="H22" s="209" t="str">
         <f>Characteristics_overview!G6</f>
         <v>0-20</v>
       </c>
-      <c r="I22" s="210" t="str">
+      <c r="I22" s="209" t="str">
         <f>Characteristics_overview!H6</f>
         <v>0-23 (usually 15)</v>
       </c>
-      <c r="J22" s="210" t="str">
+      <c r="J22" s="209" t="str">
         <f>Characteristics_overview!I6</f>
         <v xml:space="preserve">0-15 </v>
       </c>
-      <c r="K22" s="210" t="str">
+      <c r="K22" s="209" t="str">
         <f>Characteristics_overview!J6</f>
         <v>0-26 (usually 20)</v>
       </c>
-      <c r="L22" s="210">
+      <c r="L22" s="209">
         <f>Characteristics_overview!K6</f>
         <v>2</v>
       </c>
-      <c r="M22" s="210" t="str">
+      <c r="M22" s="209" t="str">
         <f>Characteristics_overview!L6</f>
         <v>2-4 (usually 4)</v>
       </c>
-      <c r="N22" s="210" t="str">
+      <c r="N22" s="209" t="str">
         <f>Characteristics_overview!M6</f>
         <v>2-6  (usually 6)</v>
       </c>
-      <c r="O22" s="210" t="str">
+      <c r="O22" s="209" t="str">
         <f>Characteristics_overview!N6</f>
         <v>3-15  (usually 9)</v>
       </c>
-      <c r="P22" s="210">
+      <c r="P22" s="209">
         <f>Characteristics_overview!O6</f>
         <v>4</v>
       </c>
-      <c r="Q22" s="210" t="str">
+      <c r="Q22" s="209" t="str">
         <f>Characteristics_overview!P6</f>
         <v>4-14 (usually 14)</v>
       </c>
-      <c r="R22" s="210">
+      <c r="R22" s="209">
         <f>Characteristics_overview!Q6</f>
         <v>5</v>
       </c>
-      <c r="S22" s="210" t="str">
+      <c r="S22" s="209" t="str">
         <f>Characteristics_overview!R6</f>
         <v>5-9 (usually 5)</v>
       </c>
-      <c r="T22" s="210" t="str">
+      <c r="T22" s="209" t="str">
         <f>Characteristics_overview!S6</f>
         <v>5-11 (usually 7)</v>
       </c>
-      <c r="U22" s="210">
+      <c r="U22" s="209">
         <f>Characteristics_overview!T6</f>
         <v>6</v>
       </c>
-      <c r="V22" s="210">
+      <c r="V22" s="209">
         <f>Characteristics_overview!U6</f>
         <v>7</v>
       </c>
-      <c r="W22" s="210" t="str">
+      <c r="W22" s="209" t="str">
         <f>Characteristics_overview!V6</f>
         <v>7-11 (usually 11)</v>
       </c>
-      <c r="X22" s="210" t="str">
+      <c r="X22" s="209" t="str">
         <f>Characteristics_overview!W6</f>
         <v>7-15 (usually 13)</v>
       </c>
-      <c r="Y22" s="210">
+      <c r="Y22" s="209">
         <f>Characteristics_overview!X6</f>
         <v>10</v>
       </c>
-      <c r="Z22" s="210">
+      <c r="Z22" s="209">
         <f>Characteristics_overview!Y6</f>
         <v>11</v>
       </c>
-      <c r="AA22" s="210">
+      <c r="AA22" s="209">
         <f>Characteristics_overview!Z6</f>
         <v>12</v>
       </c>
-      <c r="AB22" s="210" t="str">
+      <c r="AB22" s="209" t="str">
         <f>Characteristics_overview!AA6</f>
         <v>12-16 (usually 16)</v>
       </c>
-      <c r="AC22" s="210" t="str">
+      <c r="AC22" s="209" t="str">
         <f>Characteristics_overview!AB6</f>
         <v>13-18 (usually 16)</v>
       </c>
-      <c r="AD22" s="210">
+      <c r="AD22" s="209">
         <f>Characteristics_overview!AC6</f>
         <v>14</v>
       </c>
-      <c r="AE22" s="210" t="str">
+      <c r="AE22" s="209" t="str">
         <f>Characteristics_overview!AD6</f>
         <v>14-18</v>
       </c>
-      <c r="AF22" s="210" t="str">
+      <c r="AF22" s="209" t="str">
         <f>Characteristics_overview!AE6</f>
         <v>15-21 (usually 19)</v>
       </c>
-      <c r="AG22" s="210">
+      <c r="AG22" s="209">
         <f>Characteristics_overview!AF6</f>
         <v>16</v>
       </c>
-      <c r="AH22" s="210" t="str">
+      <c r="AH22" s="209" t="str">
         <f>Characteristics_overview!AG6</f>
         <v>20-22</v>
       </c>
-      <c r="AI22" s="210" t="str">
+      <c r="AI22" s="209" t="str">
         <f>Characteristics_overview!AH6</f>
         <v>4-6</v>
       </c>
-      <c r="AJ22" s="210">
+      <c r="AJ22" s="209">
         <f>Characteristics_overview!AI6</f>
         <v>19</v>
       </c>
-      <c r="AK22" s="210" t="str">
+      <c r="AK22" s="209" t="str">
         <f>Characteristics_overview!AJ6</f>
         <v>12-14</v>
       </c>
-      <c r="AL22" s="210" t="str">
+      <c r="AL22" s="209" t="str">
         <f>Characteristics_overview!AK6</f>
         <v>7-11</v>
       </c>
-      <c r="AM22" s="210" t="str">
+      <c r="AM22" s="209" t="str">
         <f>Characteristics_overview!AL6</f>
         <v>9-11</v>
       </c>
-      <c r="AN22" s="210">
+      <c r="AN22" s="209">
         <f>Characteristics_overview!AM6</f>
         <v>0</v>
       </c>
-      <c r="AO22" s="210">
+      <c r="AO22" s="209">
         <f>Characteristics_overview!AN6</f>
         <v>20</v>
       </c>
-      <c r="AP22" s="210" t="str">
+      <c r="AP22" s="209" t="str">
         <f>Characteristics_overview!AO6</f>
         <v>12-13</v>
       </c>
-      <c r="AQ22" s="210" t="str">
+      <c r="AQ22" s="209" t="str">
         <f>Characteristics_overview!AP6</f>
         <v>usually 3</v>
       </c>
-      <c r="AR22" s="210" t="str">
+      <c r="AR22" s="209" t="str">
         <f>Characteristics_overview!AQ6</f>
         <v>usually 0</v>
       </c>
-      <c r="AS22" s="210" t="str">
+      <c r="AS22" s="209" t="str">
         <f>Characteristics_overview!AR6</f>
         <v>7-9</v>
       </c>
-      <c r="AT22" s="210" t="str">
+      <c r="AT22" s="209" t="str">
         <f>Characteristics_overview!AS6</f>
         <v>16-20</v>
       </c>
@@ -51464,10 +51751,10 @@
       <c r="AA25" s="51">
         <v>12</v>
       </c>
-      <c r="AB25" s="212" t="s">
+      <c r="AB25" s="211" t="s">
         <v>4016</v>
       </c>
-      <c r="AC25" s="212" t="s">
+      <c r="AC25" s="211" t="s">
         <v>4017</v>
       </c>
       <c r="AD25" s="51">
@@ -51476,7 +51763,7 @@
       <c r="AE25" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="AF25" s="212" t="s">
+      <c r="AF25" s="211" t="s">
         <v>4018</v>
       </c>
       <c r="AG25" s="51">
@@ -51942,59 +52229,59 @@
         <v>880</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="210" t="s">
+    <row r="29" spans="1:46" s="209" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B29" s="210" t="str">
+      <c r="B29" s="209" t="str">
         <f>Characteristics_overview!A7</f>
         <v>Spot fusions</v>
       </c>
-      <c r="C29" s="210" t="str">
+      <c r="C29" s="209" t="str">
         <f>Characteristics_overview!B7</f>
         <v>3 lateral spots usually fused</v>
       </c>
-      <c r="D29" s="210" t="str">
+      <c r="D29" s="209" t="str">
         <f>Characteristics_overview!C7</f>
         <v>Common</v>
       </c>
-      <c r="E29" s="210" t="str">
+      <c r="E29" s="209" t="str">
         <f>Characteristics_overview!D7</f>
         <v>No</v>
       </c>
-      <c r="F29" s="210" t="str">
+      <c r="F29" s="209" t="str">
         <f>Characteristics_overview!E7</f>
         <v>None</v>
       </c>
-      <c r="G29" s="210" t="str">
+      <c r="G29" s="209" t="str">
         <f>Characteristics_overview!F7</f>
         <v>Not common</v>
       </c>
-      <c r="H29" s="210" t="str">
+      <c r="H29" s="209" t="str">
         <f>Characteristics_overview!G7</f>
         <v>Occasionally</v>
       </c>
-      <c r="I29" s="210" t="str">
+      <c r="I29" s="209" t="str">
         <f>Characteristics_overview!H7</f>
         <v>Rare</v>
       </c>
-      <c r="J29" s="210" t="str">
+      <c r="J29" s="209" t="str">
         <f>Characteristics_overview!I7</f>
         <v>Very common</v>
       </c>
-      <c r="K29" s="210" t="str">
+      <c r="K29" s="209" t="str">
         <f>Characteristics_overview!J7</f>
         <v>Very rare</v>
       </c>
-      <c r="L29" s="210" t="str">
+      <c r="L29" s="209" t="str">
         <f>Characteristics_overview!K7</f>
         <v>Sometimes</v>
       </c>
-      <c r="M29" s="210" t="str">
+      <c r="M29" s="209" t="str">
         <f>Characteristics_overview!L7</f>
         <v>Yes</v>
       </c>
-      <c r="N29" s="210" t="str">
+      <c r="N29" s="209" t="str">
         <f>Characteristics_overview!M7</f>
         <v>N/A</v>
       </c>
@@ -52289,47 +52576,47 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="210" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="210" t="s">
+    <row r="36" spans="1:40" s="209" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B36" s="210" t="str">
+      <c r="B36" s="209" t="str">
         <f>Characteristics_overview!A8</f>
         <v>Melanic (black) form</v>
       </c>
-      <c r="C36" s="210" t="str">
+      <c r="C36" s="209" t="str">
         <f>Characteristics_overview!B8</f>
         <v>Rare</v>
       </c>
-      <c r="D36" s="210" t="str">
+      <c r="D36" s="209" t="str">
         <f>Characteristics_overview!C8</f>
         <v xml:space="preserve">Various and common </v>
       </c>
-      <c r="E36" s="210" t="str">
+      <c r="E36" s="209" t="str">
         <f>Characteristics_overview!D8</f>
         <v>Black with a white patch on each side</v>
       </c>
-      <c r="F36" s="210" t="str">
+      <c r="F36" s="209" t="str">
         <f>Characteristics_overview!E8</f>
         <v>Black with anterior-lateral white marks</v>
       </c>
-      <c r="G36" s="210" t="str">
+      <c r="G36" s="209" t="str">
         <f>Characteristics_overview!F8</f>
         <v>Very rare</v>
       </c>
-      <c r="H36" s="210" t="str">
+      <c r="H36" s="209" t="str">
         <f>Characteristics_overview!G8</f>
         <v>No</v>
       </c>
-      <c r="I36" s="210" t="str">
+      <c r="I36" s="209" t="str">
         <f>Characteristics_overview!H8</f>
         <v>Common</v>
       </c>
-      <c r="J36" s="210" t="str">
+      <c r="J36" s="209" t="str">
         <f>Characteristics_overview!I8</f>
         <v>Many and common</v>
       </c>
-      <c r="K36" s="210" t="str">
+      <c r="K36" s="209" t="str">
         <f>Characteristics_overview!J8</f>
         <v>N/A</v>
       </c>
@@ -52417,8 +52704,8 @@
       <c r="D39" s="51" t="s">
         <v>3985</v>
       </c>
-      <c r="E39" s="212" t="s">
-        <v>4039</v>
+      <c r="E39" s="211" t="s">
+        <v>4038</v>
       </c>
       <c r="F39" s="51" t="s">
         <v>1653</v>
@@ -52573,31 +52860,31 @@
         <v>605</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="210" t="s">
+    <row r="43" spans="1:40" s="209" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B43" s="210" t="str">
+      <c r="B43" s="209" t="str">
         <f>Characteristics_overview!A9</f>
         <v>Pronotum pattern</v>
       </c>
-      <c r="C43" s="210" t="str">
+      <c r="C43" s="209" t="str">
         <f>Characteristics_overview!B9</f>
         <v>one colour</v>
       </c>
-      <c r="D43" s="210" t="str">
+      <c r="D43" s="209" t="str">
         <f>Characteristics_overview!C9</f>
         <v>with spots</v>
       </c>
-      <c r="E43" s="210" t="str">
+      <c r="E43" s="209" t="str">
         <f>Characteristics_overview!D9</f>
         <v>M-shape</v>
       </c>
-      <c r="F43" s="210" t="str">
+      <c r="F43" s="209" t="str">
         <f>Characteristics_overview!E9</f>
         <v>with white patch on each side</v>
       </c>
-      <c r="G43" s="210" t="str">
+      <c r="G43" s="209" t="str">
         <f>Characteristics_overview!F9</f>
         <v>none of them</v>
       </c>
@@ -52773,188 +53060,188 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="50" spans="1:76" s="210" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="210" t="s">
+    <row r="50" spans="1:76" s="209" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B50" s="210" t="str">
+      <c r="B50" s="209" t="str">
         <f>Characteristics_overview!A10</f>
         <v>Pronotum</v>
       </c>
-      <c r="C50" s="210" t="str">
+      <c r="C50" s="209" t="str">
         <f>Characteristics_overview!B10</f>
         <v>Beige with black spots</v>
       </c>
-      <c r="D50" s="210" t="str">
+      <c r="D50" s="209" t="str">
         <f>Characteristics_overview!C10</f>
         <v>Beige or red with 6 black spots</v>
       </c>
-      <c r="E50" s="210" t="str">
+      <c r="E50" s="209" t="str">
         <f>Characteristics_overview!D10</f>
         <v>Beige with brown m-mark</v>
       </c>
-      <c r="F50" s="210" t="str">
+      <c r="F50" s="209" t="str">
         <f>Characteristics_overview!E10</f>
         <v>Black</v>
       </c>
-      <c r="G50" s="210" t="str">
+      <c r="G50" s="209" t="str">
         <f>Characteristics_overview!F10</f>
         <v>Black with anterior-lateral white marks</v>
       </c>
-      <c r="H50" s="210" t="str">
+      <c r="H50" s="209" t="str">
         <f>Characteristics_overview!G10</f>
         <v>Black with white patch at each side</v>
       </c>
-      <c r="I50" s="210" t="str">
+      <c r="I50" s="209" t="str">
         <f>Characteristics_overview!H10</f>
         <v>Black with white sides</v>
       </c>
-      <c r="J50" s="210" t="str">
+      <c r="J50" s="209" t="str">
         <f>Characteristics_overview!I10</f>
         <v>Maroon with lateral posterior off-white marks</v>
       </c>
-      <c r="K50" s="210" t="str">
+      <c r="K50" s="209" t="str">
         <f>Characteristics_overview!J10</f>
         <v>Orange</v>
       </c>
-      <c r="L50" s="210" t="str">
+      <c r="L50" s="209" t="str">
         <f>Characteristics_overview!K10</f>
         <v xml:space="preserve">Russet with black spots </v>
       </c>
-      <c r="M50" s="210" t="str">
+      <c r="M50" s="209" t="str">
         <f>Characteristics_overview!L10</f>
         <v>White or cream with up to 5 spots, or fused lateral spots forming 2 curved lines, M-shaped mark or solid trapezoid</v>
       </c>
-      <c r="N50" s="210" t="str">
+      <c r="N50" s="209" t="str">
         <f>Characteristics_overview!M10</f>
         <v>White with 5 dark spots, which may be fused</v>
       </c>
-      <c r="O50" s="210" t="str">
+      <c r="O50" s="209" t="str">
         <f>Characteristics_overview!N10</f>
         <v>White with 5-9 black spots</v>
       </c>
-      <c r="P50" s="210" t="str">
+      <c r="P50" s="209" t="str">
         <f>Characteristics_overview!O10</f>
         <v>White with black M-mark</v>
       </c>
-      <c r="Q50" s="210" t="str">
+      <c r="Q50" s="209" t="str">
         <f>Characteristics_overview!P10</f>
         <v>White with black pattern</v>
       </c>
-      <c r="R50" s="210" t="str">
+      <c r="R50" s="209" t="str">
         <f>Characteristics_overview!Q10</f>
         <v>White with chestnut m-mark or trapezium</v>
       </c>
-      <c r="S50" s="210" t="str">
+      <c r="S50" s="209" t="str">
         <f>Characteristics_overview!R10</f>
         <v>White with rounded m-mark</v>
       </c>
-      <c r="T50" s="210" t="str">
+      <c r="T50" s="209" t="str">
         <f>Characteristics_overview!S10</f>
         <v>Yellow or cream with black spots or trapezium or crown mark</v>
       </c>
-      <c r="U50" s="210" t="str">
+      <c r="U50" s="209" t="str">
         <f>Characteristics_overview!T10</f>
         <v>Yellow with five discrete black spots</v>
       </c>
-      <c r="V50" s="210" t="str">
+      <c r="V50" s="209" t="str">
         <f>Characteristics_overview!U10</f>
         <v xml:space="preserve"> White with 5 dark spots, which may be fused, or dark trapezium mark </v>
       </c>
-      <c r="W50" s="210" t="str">
+      <c r="W50" s="209" t="str">
         <f>Characteristics_overview!V10</f>
         <v>Beige with 6 black spots (VV pattern)  or up to nine spots with anterior pair and middle spot small.</v>
       </c>
-      <c r="X50" s="210" t="str">
+      <c r="X50" s="209" t="str">
         <f>Characteristics_overview!W10</f>
         <v>Yellow-brown</v>
       </c>
-      <c r="Y50" s="210" t="str">
+      <c r="Y50" s="209" t="str">
         <f>Characteristics_overview!X10</f>
         <v>Black, anterior angles and margins widely white</v>
       </c>
-      <c r="Z50" s="210" t="str">
+      <c r="Z50" s="209" t="str">
         <f>Characteristics_overview!Y10</f>
         <v>Black with large white trapeziodal patches on anterior angle</v>
       </c>
-      <c r="AA50" s="210" t="str">
+      <c r="AA50" s="209" t="str">
         <f>Characteristics_overview!Z10</f>
         <v>Posteriorly black, anterior margin and angles pale, border between colours wavy or four-lobed</v>
       </c>
-      <c r="AB50" s="210" t="str">
+      <c r="AB50" s="209" t="str">
         <f>Characteristics_overview!AA10</f>
         <v>Brown with black spot at centre, rarely with other black markings.</v>
       </c>
-      <c r="AC50" s="210" t="str">
+      <c r="AC50" s="209" t="str">
         <f>Characteristics_overview!AB10</f>
         <v>Black with wide yellow-orange lateral margins</v>
       </c>
-      <c r="AD50" s="210" t="str">
+      <c r="AD50" s="209" t="str">
         <f>Characteristics_overview!AC10</f>
         <v>Brown</v>
       </c>
-      <c r="AE50" s="210" t="str">
+      <c r="AE50" s="209" t="str">
         <f>Characteristics_overview!AD10</f>
         <v>Black, anterior and lateral margins with equally wide white stripe, border between the two colours slightly wavy</v>
       </c>
-      <c r="AF50" s="210" t="str">
+      <c r="AF50" s="209" t="str">
         <f>Characteristics_overview!AE10</f>
         <v>White to beige with seven black spots</v>
       </c>
-      <c r="AG50" s="210" t="str">
+      <c r="AG50" s="209" t="str">
         <f>Characteristics_overview!AF10</f>
         <v>Black with white lateral margins</v>
       </c>
-      <c r="AH50" s="210" t="str">
+      <c r="AH50" s="209" t="str">
         <f>Characteristics_overview!AG10</f>
         <v>Black with large white fore angles and middle white band</v>
       </c>
-      <c r="AI50" s="210" t="str">
+      <c r="AI50" s="209" t="str">
         <f>Characteristics_overview!AH10</f>
         <v>Black with wide yellow or brown lateral margins and fore angles</v>
       </c>
-      <c r="AJ50" s="210" t="str">
+      <c r="AJ50" s="209" t="str">
         <f>Characteristics_overview!AI10</f>
         <v>Dark with wide white lateral margins, strongly arched in the shape of the letter C</v>
       </c>
-      <c r="AK50" s="210" t="str">
+      <c r="AK50" s="209" t="str">
         <f>Characteristics_overview!AJ10</f>
         <v>Brown-orange, transparent with opaque white patches</v>
       </c>
-      <c r="AL50" s="210" t="str">
+      <c r="AL50" s="209" t="str">
         <f>Characteristics_overview!AK10</f>
         <v>Black with white anterior and lateral margins</v>
       </c>
-      <c r="AM50" s="210" t="str">
+      <c r="AM50" s="209" t="str">
         <f>Characteristics_overview!AL10</f>
         <v>Black, anterior angles with small white area</v>
       </c>
-      <c r="AN50" s="210" t="str">
+      <c r="AN50" s="209" t="str">
         <f>Characteristics_overview!AM10</f>
         <v>Black, fore corners (or sometimes both lateral and fore margins) of pronotum yellowish.</v>
       </c>
-      <c r="AO50" s="210" t="str">
+      <c r="AO50" s="209" t="str">
         <f>Characteristics_overview!AN10</f>
         <v>Black, fore angles of pronotum may be slightly cleared to yellowish colour</v>
       </c>
-      <c r="AP50" s="210" t="str">
+      <c r="AP50" s="209" t="str">
         <f>Characteristics_overview!AO10</f>
         <v xml:space="preserve">Yellow-brown, with white lateral and fore margin feebly cut around head, transparent, partially covering eyes. </v>
       </c>
-      <c r="AQ50" s="210" t="str">
+      <c r="AQ50" s="209" t="str">
         <f>Characteristics_overview!AP10</f>
         <v>Yellow-brown, with white patches at
 fore and hind angles, sometimes with a white patch behind at the centre</v>
       </c>
-      <c r="AR50" s="210" t="str">
+      <c r="AR50" s="209" t="str">
         <f>Characteristics_overview!AQ10</f>
         <v>Black, anterior angles widely white, fore margin in males white</v>
       </c>
-      <c r="AS50" s="210" t="str">
+      <c r="AS50" s="209" t="str">
         <f>Characteristics_overview!AR10</f>
         <v>Black, anterior angles and margins widely white, border between the two colours with four deep lobes</v>
       </c>
-      <c r="AT50" s="210" t="str">
+      <c r="AT50" s="209" t="str">
         <f>Characteristics_overview!AS10</f>
         <v>Reddish yellow</v>
       </c>
@@ -53799,84 +54086,84 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="57" spans="1:76" s="210" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="210" t="s">
+    <row r="57" spans="1:76" s="209" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B57" s="210" t="str">
+      <c r="B57" s="209" t="str">
         <f>Characteristics_overview!A11</f>
         <v>Leg colour</v>
       </c>
-      <c r="C57" s="210" t="str">
+      <c r="C57" s="209" t="str">
         <f>Characteristics_overview!B11</f>
         <v>Brown</v>
       </c>
-      <c r="D57" s="210" t="str">
+      <c r="D57" s="209" t="str">
         <f>Characteristics_overview!C11</f>
         <v>Black</v>
       </c>
-      <c r="E57" s="210" t="str">
+      <c r="E57" s="209" t="str">
         <f>Characteristics_overview!D11</f>
         <v>Orange</v>
       </c>
-      <c r="F57" s="210" t="str">
+      <c r="F57" s="209" t="str">
         <f>Characteristics_overview!E11</f>
         <v xml:space="preserve">Russet </v>
       </c>
-      <c r="G57" s="210" t="str">
+      <c r="G57" s="209" t="str">
         <f>Characteristics_overview!F11</f>
         <v>Yellow</v>
       </c>
-      <c r="H57" s="210" t="str">
+      <c r="H57" s="209" t="str">
         <f>Characteristics_overview!G11</f>
         <v>Yellow-brown with black spots on tibiae</v>
       </c>
-      <c r="I57" s="210" t="str">
+      <c r="I57" s="209" t="str">
         <f>Characteristics_overview!H11</f>
         <v>Red-yellow</v>
       </c>
-      <c r="J57" s="210" t="str">
+      <c r="J57" s="209" t="str">
         <f>Characteristics_overview!I11</f>
         <v>Black-brown</v>
       </c>
-      <c r="K57" s="210" t="str">
+      <c r="K57" s="209" t="str">
         <f>Characteristics_overview!J11</f>
         <v>Rusty-brown</v>
       </c>
-      <c r="L57" s="210" t="str">
+      <c r="L57" s="209" t="str">
         <f>Characteristics_overview!K11</f>
         <v>Orange-brown</v>
       </c>
-      <c r="M57" s="210" t="str">
+      <c r="M57" s="209" t="str">
         <f>Characteristics_overview!L11</f>
         <v>Black, fore and mid tibiae brown at tip.</v>
       </c>
-      <c r="N57" s="210" t="str">
+      <c r="N57" s="209" t="str">
         <f>Characteristics_overview!M11</f>
         <v>Black, fore tibiae brown inside and at tip.</v>
       </c>
-      <c r="O57" s="210" t="str">
+      <c r="O57" s="209" t="str">
         <f>Characteristics_overview!N11</f>
         <v>Femora black, fore tibiae brown with black outer margin, mid and hind tibiae black with brown tips</v>
       </c>
-      <c r="P57" s="210" t="str">
+      <c r="P57" s="209" t="str">
         <f>Characteristics_overview!O11</f>
         <v>Forelegs mostly
 yellow-brown, middle legs partially, hind legs mostly black</v>
       </c>
-      <c r="Q57" s="210" t="str">
+      <c r="Q57" s="209" t="str">
         <f>Characteristics_overview!P11</f>
         <v>Yellow-brown, femora partly black</v>
       </c>
-      <c r="R57" s="210" t="str">
+      <c r="R57" s="209" t="str">
         <f>Characteristics_overview!Q11</f>
         <v>Black, knees and tarsi brown</v>
       </c>
-      <c r="S57" s="210" t="str">
+      <c r="S57" s="209" t="str">
         <f>Characteristics_overview!R11</f>
         <v>Black, brown or bicolour</v>
       </c>
-      <c r="T57" s="210" t="str">
+      <c r="T57" s="209" t="str">
         <f>Characteristics_overview!S11</f>
         <v>Yellow-brown</v>
       </c>
@@ -54272,307 +54559,307 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="64" spans="1:76" s="210" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="210" t="s">
+    <row r="64" spans="1:76" s="209" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B64" s="210" t="str">
+      <c r="B64" s="209" t="str">
         <f>Characteristics_overview!A12</f>
         <v>Habitat</v>
       </c>
-      <c r="C64" s="210" t="str">
+      <c r="C64" s="209" t="str">
         <f>Characteristics_overview!B12</f>
         <v>Grassland, meadow</v>
       </c>
-      <c r="D64" s="210" t="str">
+      <c r="D64" s="209" t="str">
         <f>Characteristics_overview!C12</f>
         <v xml:space="preserve">Deciduous trees and hedgerows </v>
       </c>
-      <c r="E64" s="210" t="str">
+      <c r="E64" s="209" t="str">
         <f>Characteristics_overview!D12</f>
         <v>Conifer woodlands</v>
       </c>
-      <c r="F64" s="210" t="str">
+      <c r="F64" s="209" t="str">
         <f>Characteristics_overview!E12</f>
         <v>Deciduous trees</v>
       </c>
-      <c r="G64" s="210" t="str">
+      <c r="G64" s="209" t="str">
         <f>Characteristics_overview!F12</f>
         <v xml:space="preserve">Deciduous trees and hedgerows </v>
       </c>
-      <c r="H64" s="210" t="str">
+      <c r="H64" s="209" t="str">
         <f>Characteristics_overview!G12</f>
         <v>Deciduous woodland</v>
       </c>
-      <c r="I64" s="210" t="str">
+      <c r="I64" s="209" t="str">
         <f>Characteristics_overview!H12</f>
         <v xml:space="preserve">Grassland, meadows </v>
       </c>
-      <c r="J64" s="210" t="str">
+      <c r="J64" s="209" t="str">
         <f>Characteristics_overview!I12</f>
         <v>Heather heathland</v>
       </c>
-      <c r="K64" s="210" t="str">
+      <c r="K64" s="209" t="str">
         <f>Characteristics_overview!J12</f>
         <v>Heather heathland, conifer scrub</v>
       </c>
-      <c r="L64" s="210" t="str">
+      <c r="L64" s="209" t="str">
         <f>Characteristics_overview!K12</f>
         <v>Hedgerows and deciduous trees</v>
       </c>
-      <c r="M64" s="210" t="str">
+      <c r="M64" s="209" t="str">
         <f>Characteristics_overview!L12</f>
         <v>Herbage and shrub layers on well drained soils</v>
       </c>
-      <c r="N64" s="210" t="str">
+      <c r="N64" s="209" t="str">
         <f>Characteristics_overview!M12</f>
         <v>Low herbage</v>
       </c>
-      <c r="O64" s="210" t="str">
+      <c r="O64" s="209" t="str">
         <f>Characteristics_overview!N12</f>
         <v>Low vegetation</v>
       </c>
-      <c r="P64" s="210" t="str">
+      <c r="P64" s="209" t="str">
         <f>Characteristics_overview!O12</f>
         <v>Mature Scots pine</v>
       </c>
-      <c r="Q64" s="210" t="str">
+      <c r="Q64" s="209" t="str">
         <f>Characteristics_overview!P12</f>
         <v>Needled conifers</v>
       </c>
-      <c r="R64" s="210" t="str">
+      <c r="R64" s="209" t="str">
         <f>Characteristics_overview!Q12</f>
         <v>Reed-beds and wetlands</v>
       </c>
-      <c r="S64" s="210" t="str">
+      <c r="S64" s="209" t="str">
         <f>Characteristics_overview!R12</f>
         <v>Scots pine woodland</v>
       </c>
-      <c r="T64" s="210" t="str">
+      <c r="T64" s="209" t="str">
         <f>Characteristics_overview!S12</f>
         <v>Trees</v>
       </c>
-      <c r="U64" s="210" t="str">
+      <c r="U64" s="209" t="str">
         <f>Characteristics_overview!T12</f>
         <v>Unstable river shingle</v>
       </c>
-      <c r="V64" s="210" t="str">
+      <c r="V64" s="209" t="str">
         <f>Characteristics_overview!U12</f>
         <v>Varied</v>
       </c>
-      <c r="W64" s="210" t="str">
+      <c r="W64" s="209" t="str">
         <f>Characteristics_overview!V12</f>
         <v>Varied but close to ant nests</v>
       </c>
-      <c r="X64" s="210" t="str">
+      <c r="X64" s="209" t="str">
         <f>Characteristics_overview!W12</f>
         <v>Varied, but often low herbage</v>
       </c>
-      <c r="Y64" s="210" t="str">
+      <c r="Y64" s="209" t="str">
         <f>Characteristics_overview!X12</f>
         <v>Varied, but particularly dune systems</v>
       </c>
-      <c r="Z64" s="210" t="str">
+      <c r="Z64" s="209" t="str">
         <f>Characteristics_overview!Y12</f>
         <v>Various heathers</v>
       </c>
-      <c r="AA64" s="210" t="str">
+      <c r="AA64" s="209" t="str">
         <f>Characteristics_overview!Z12</f>
         <v>Very varied</v>
       </c>
-      <c r="AB64" s="210" t="str">
+      <c r="AB64" s="209" t="str">
         <f>Characteristics_overview!AA12</f>
         <v>Wetlands</v>
       </c>
-      <c r="AC64" s="210" t="str">
+      <c r="AC64" s="209" t="str">
         <f>Characteristics_overview!AB12</f>
         <v>Coniferous trees</v>
       </c>
-      <c r="AD64" s="210" t="str">
+      <c r="AD64" s="209" t="str">
         <f>Characteristics_overview!AC12</f>
         <v>Mixed woodlands</v>
       </c>
-      <c r="AE64" s="210" t="str">
+      <c r="AE64" s="209" t="str">
         <f>Characteristics_overview!AD12</f>
         <v>Peat bogs</v>
       </c>
-      <c r="AF64" s="210" t="str">
+      <c r="AF64" s="209" t="str">
         <f>Characteristics_overview!AE12</f>
         <v>Gardens</v>
       </c>
-      <c r="AG64" s="210" t="str">
+      <c r="AG64" s="209" t="str">
         <f>Characteristics_overview!AF12</f>
         <v>Wet and shaded stands on herbs</v>
       </c>
-      <c r="AH64" s="210" t="str">
+      <c r="AH64" s="209" t="str">
         <f>Characteristics_overview!AG12</f>
         <v>Lowland steppes</v>
       </c>
-      <c r="AI64" s="210" t="str">
+      <c r="AI64" s="209" t="str">
         <f>Characteristics_overview!AH12</f>
         <v>Herbs</v>
       </c>
-      <c r="AJ64" s="210" t="str">
+      <c r="AJ64" s="209" t="str">
         <f>Characteristics_overview!AI12</f>
         <v>Wet woodlands</v>
       </c>
-      <c r="AK64" s="210" t="str">
+      <c r="AK64" s="209" t="str">
         <f>Characteristics_overview!AJ12</f>
         <v>Steppes</v>
       </c>
-      <c r="AL64" s="210" t="str">
+      <c r="AL64" s="209" t="str">
         <f>Characteristics_overview!AK12</f>
         <v>Meadows</v>
       </c>
-      <c r="AM64" s="210" t="str">
+      <c r="AM64" s="209" t="str">
         <f>Characteristics_overview!AL12</f>
         <v>Fields</v>
       </c>
-      <c r="AN64" s="210" t="str">
+      <c r="AN64" s="209" t="str">
         <f>Characteristics_overview!AM12</f>
         <v>Grassland</v>
       </c>
-      <c r="AO64" s="210" t="str">
+      <c r="AO64" s="209" t="str">
         <f>Characteristics_overview!AN12</f>
         <v>Heather</v>
       </c>
-      <c r="AP64" s="210" t="str">
+      <c r="AP64" s="209" t="str">
         <f>Characteristics_overview!AO12</f>
         <v>Allotments</v>
       </c>
-      <c r="AQ64" s="210" t="str">
+      <c r="AQ64" s="209" t="str">
         <f>Characteristics_overview!AP12</f>
         <v>Marshes</v>
       </c>
-      <c r="AR64" s="210" t="str">
+      <c r="AR64" s="209" t="str">
         <f>Characteristics_overview!AQ12</f>
         <v>Mountains</v>
       </c>
-      <c r="AS64" s="210" t="str">
+      <c r="AS64" s="209" t="str">
         <f>Characteristics_overview!AR12</f>
         <v>Shrubs</v>
       </c>
-      <c r="AT64" s="210" t="str">
+      <c r="AT64" s="209" t="str">
         <f>Characteristics_overview!AS12</f>
         <v>Forest margins</v>
       </c>
-      <c r="AU64" s="210" t="str">
+      <c r="AU64" s="209" t="str">
         <f>Characteristics_overview!AT12</f>
         <v>Dry stands</v>
       </c>
-      <c r="AV64" s="210" t="str">
+      <c r="AV64" s="209" t="str">
         <f>Characteristics_overview!AU12</f>
         <v>Herbs</v>
       </c>
-      <c r="AW64" s="210" t="str">
+      <c r="AW64" s="209" t="str">
         <f>Characteristics_overview!AV12</f>
         <v>Bushes</v>
       </c>
-      <c r="AX64" s="210" t="str">
+      <c r="AX64" s="209" t="str">
         <f>Characteristics_overview!AW12</f>
         <v>Alpine meadows</v>
       </c>
-      <c r="AY64" s="210" t="str">
+      <c r="AY64" s="209" t="str">
         <f>Characteristics_overview!AX12</f>
         <v>Vegetation among rocks</v>
       </c>
-      <c r="AZ64" s="210" t="str">
+      <c r="AZ64" s="209" t="str">
         <f>Characteristics_overview!AY12</f>
         <v>Coniferous forests in highlands and mountains</v>
       </c>
-      <c r="BA64" s="210" t="str">
+      <c r="BA64" s="209" t="str">
         <f>Characteristics_overview!AZ12</f>
         <v>Grassland</v>
       </c>
-      <c r="BB64" s="210" t="str">
+      <c r="BB64" s="209" t="str">
         <f>Characteristics_overview!BA12</f>
         <v>Wet deciduous woodlands</v>
       </c>
-      <c r="BC64" s="210" t="str">
+      <c r="BC64" s="209" t="str">
         <f>Characteristics_overview!BB12</f>
         <v>Fields</v>
       </c>
-      <c r="BD64" s="210" t="str">
+      <c r="BD64" s="209" t="str">
         <f>Characteristics_overview!BC12</f>
         <v>Warmer and drier sites</v>
       </c>
-      <c r="BE64" s="210" t="str">
+      <c r="BE64" s="209" t="str">
         <f>Characteristics_overview!BD12</f>
         <v>Canopy</v>
       </c>
-      <c r="BF64" s="210" t="str">
+      <c r="BF64" s="209" t="str">
         <f>Characteristics_overview!BE12</f>
         <v>Low herbage</v>
       </c>
-      <c r="BG64" s="210" t="str">
+      <c r="BG64" s="209" t="str">
         <f>Characteristics_overview!BF12</f>
         <v>Mixed trees</v>
       </c>
-      <c r="BH64" s="210" t="str">
+      <c r="BH64" s="209" t="str">
         <f>Characteristics_overview!BG12</f>
         <v>Forests</v>
       </c>
-      <c r="BI64" s="210" t="str">
+      <c r="BI64" s="209" t="str">
         <f>Characteristics_overview!BH12</f>
         <v>Pine forests</v>
       </c>
-      <c r="BJ64" s="210" t="str">
+      <c r="BJ64" s="209" t="str">
         <f>Characteristics_overview!BI12</f>
         <v>Wet deciduous forests</v>
       </c>
-      <c r="BK64" s="210" t="str">
+      <c r="BK64" s="209" t="str">
         <f>Characteristics_overview!BJ12</f>
         <v>Rocks</v>
       </c>
-      <c r="BL64" s="210" t="str">
+      <c r="BL64" s="209" t="str">
         <f>Characteristics_overview!BK12</f>
         <v>Fields</v>
       </c>
-      <c r="BM64" s="210" t="str">
+      <c r="BM64" s="209" t="str">
         <f>Characteristics_overview!BL12</f>
         <v>Canopy</v>
       </c>
-      <c r="BN64" s="206" t="str">
+      <c r="BN64" s="205" t="str">
         <f>Characteristics_overview!B13</f>
         <v>Marine</v>
       </c>
-      <c r="BO64" s="206" t="str">
+      <c r="BO64" s="205" t="str">
         <f>Characteristics_overview!C13</f>
         <v>Coast</v>
       </c>
-      <c r="BP64" s="206" t="str">
+      <c r="BP64" s="205" t="str">
         <f>Characteristics_overview!D13</f>
         <v>Inland waters</v>
       </c>
-      <c r="BQ64" s="206" t="str">
+      <c r="BQ64" s="205" t="str">
         <f>Characteristics_overview!E13</f>
         <v>Bogs and fens</v>
       </c>
-      <c r="BR64" s="206" t="str">
+      <c r="BR64" s="205" t="str">
         <f>Characteristics_overview!F13</f>
         <v>Grasslands</v>
       </c>
-      <c r="BS64" s="206" t="str">
+      <c r="BS64" s="205" t="str">
         <f>Characteristics_overview!G13</f>
         <v>Heathland, scrub, hedgerow</v>
       </c>
-      <c r="BT64" s="206" t="str">
+      <c r="BT64" s="205" t="str">
         <f>Characteristics_overview!H13</f>
         <v>Woodland</v>
       </c>
-      <c r="BU64" s="206" t="str">
+      <c r="BU64" s="205" t="str">
         <f>Characteristics_overview!I13</f>
         <v>Unvegetated or sparsely vegetated habitats</v>
       </c>
-      <c r="BV64" s="206" t="str">
+      <c r="BV64" s="205" t="str">
         <f>Characteristics_overview!J13</f>
         <v>Arable land, garden or park</v>
       </c>
-      <c r="BW64" s="206" t="str">
+      <c r="BW64" s="205" t="str">
         <f>Characteristics_overview!K13</f>
         <v>Industrial and Urban</v>
       </c>
-      <c r="BX64" s="206" t="str">
+      <c r="BX64" s="205" t="str">
         <f>Characteristics_overview!L13</f>
         <v>Mixed habitats</v>
       </c>
@@ -54773,38 +55060,38 @@
       <c r="BM65" s="51" t="s">
         <v>2096</v>
       </c>
-      <c r="BN65" s="205">
-        <v>105</v>
-      </c>
-      <c r="BO65" s="205">
-        <v>106</v>
-      </c>
-      <c r="BP65" s="205">
-        <v>107</v>
-      </c>
-      <c r="BQ65" s="205">
-        <v>108</v>
-      </c>
-      <c r="BR65" s="205">
-        <v>109</v>
-      </c>
-      <c r="BS65" s="205">
-        <v>110</v>
-      </c>
-      <c r="BT65" s="205">
-        <v>111</v>
-      </c>
-      <c r="BU65" s="205">
-        <v>112</v>
-      </c>
-      <c r="BV65" s="205">
-        <v>113</v>
-      </c>
-      <c r="BW65" s="205">
-        <v>114</v>
-      </c>
-      <c r="BX65" s="205">
-        <v>115</v>
+      <c r="BN65" s="211" t="s">
+        <v>4068</v>
+      </c>
+      <c r="BO65" s="211" t="s">
+        <v>4069</v>
+      </c>
+      <c r="BP65" s="211" t="s">
+        <v>4070</v>
+      </c>
+      <c r="BQ65" s="211" t="s">
+        <v>4071</v>
+      </c>
+      <c r="BR65" s="211" t="s">
+        <v>4072</v>
+      </c>
+      <c r="BS65" s="211" t="s">
+        <v>4073</v>
+      </c>
+      <c r="BT65" s="211" t="s">
+        <v>2362</v>
+      </c>
+      <c r="BU65" s="211" t="s">
+        <v>4074</v>
+      </c>
+      <c r="BV65" s="211" t="s">
+        <v>4075</v>
+      </c>
+      <c r="BW65" s="211" t="s">
+        <v>4076</v>
+      </c>
+      <c r="BX65" s="211" t="s">
+        <v>4077</v>
       </c>
     </row>
     <row r="66" spans="1:76" ht="51" x14ac:dyDescent="0.2">
@@ -55003,38 +55290,38 @@
       <c r="BM66" s="51" t="s">
         <v>2144</v>
       </c>
-      <c r="BN66" s="205">
-        <v>105</v>
-      </c>
-      <c r="BO66" s="205">
-        <v>106</v>
-      </c>
-      <c r="BP66" s="205">
-        <v>107</v>
-      </c>
-      <c r="BQ66" s="205">
-        <v>108</v>
-      </c>
-      <c r="BR66" s="205">
-        <v>109</v>
-      </c>
-      <c r="BS66" s="205">
-        <v>110</v>
-      </c>
-      <c r="BT66" s="205">
-        <v>111</v>
-      </c>
-      <c r="BU66" s="205">
-        <v>112</v>
-      </c>
-      <c r="BV66" s="205">
-        <v>113</v>
-      </c>
-      <c r="BW66" s="205">
-        <v>114</v>
-      </c>
-      <c r="BX66" s="205">
-        <v>115</v>
+      <c r="BN66" s="211" t="s">
+        <v>4065</v>
+      </c>
+      <c r="BO66" s="211" t="s">
+        <v>4067</v>
+      </c>
+      <c r="BP66" s="211" t="s">
+        <v>4062</v>
+      </c>
+      <c r="BQ66" s="211" t="s">
+        <v>4063</v>
+      </c>
+      <c r="BR66" s="211" t="s">
+        <v>4080</v>
+      </c>
+      <c r="BS66" s="211" t="s">
+        <v>4091</v>
+      </c>
+      <c r="BT66" s="211" t="s">
+        <v>2362</v>
+      </c>
+      <c r="BU66" s="211" t="s">
+        <v>4078</v>
+      </c>
+      <c r="BV66" s="211" t="s">
+        <v>4064</v>
+      </c>
+      <c r="BW66" s="211" t="s">
+        <v>4079</v>
+      </c>
+      <c r="BX66" s="211" t="s">
+        <v>4066</v>
       </c>
     </row>
     <row r="67" spans="1:76" ht="51" x14ac:dyDescent="0.2">
@@ -55233,37 +55520,37 @@
       <c r="BM67" s="51" t="s">
         <v>2196</v>
       </c>
-      <c r="BN67" s="212" t="s">
+      <c r="BN67" s="211" t="s">
         <v>4019</v>
       </c>
-      <c r="BO67" s="219" t="s">
-        <v>4044</v>
-      </c>
-      <c r="BP67" s="212" t="s">
+      <c r="BO67" s="211" t="s">
+        <v>4043</v>
+      </c>
+      <c r="BP67" s="211" t="s">
         <v>4020</v>
       </c>
-      <c r="BQ67" s="212" t="s">
+      <c r="BQ67" s="211" t="s">
         <v>4021</v>
       </c>
-      <c r="BR67" s="219" t="s">
+      <c r="BR67" s="211" t="s">
         <v>2183</v>
       </c>
-      <c r="BS67" s="212" t="s">
+      <c r="BS67" s="211" t="s">
         <v>4022</v>
       </c>
-      <c r="BT67" s="212" t="s">
+      <c r="BT67" s="211" t="s">
         <v>4023</v>
       </c>
-      <c r="BU67" s="212" t="s">
+      <c r="BU67" s="211" t="s">
         <v>4024</v>
       </c>
-      <c r="BV67" s="212" t="s">
+      <c r="BV67" s="211" t="s">
         <v>4025</v>
       </c>
-      <c r="BW67" s="212" t="s">
+      <c r="BW67" s="211" t="s">
         <v>4026</v>
       </c>
-      <c r="BX67" s="212" t="s">
+      <c r="BX67" s="211" t="s">
         <v>4027</v>
       </c>
     </row>
@@ -55427,8 +55714,8 @@
       <c r="BA68" s="51" t="s">
         <v>2210</v>
       </c>
-      <c r="BB68" s="51" t="s">
-        <v>2245</v>
+      <c r="BB68" s="217" t="s">
+        <v>4092</v>
       </c>
       <c r="BC68" s="51" t="s">
         <v>2234</v>
@@ -55463,38 +55750,38 @@
       <c r="BM68" s="51" t="s">
         <v>2247</v>
       </c>
-      <c r="BN68" s="205">
-        <v>105</v>
-      </c>
-      <c r="BO68" s="205">
-        <v>106</v>
-      </c>
-      <c r="BP68" s="205">
-        <v>107</v>
-      </c>
-      <c r="BQ68" s="205">
-        <v>108</v>
-      </c>
-      <c r="BR68" s="205">
-        <v>109</v>
-      </c>
-      <c r="BS68" s="205">
-        <v>110</v>
-      </c>
-      <c r="BT68" s="205">
-        <v>111</v>
-      </c>
-      <c r="BU68" s="205">
-        <v>112</v>
-      </c>
-      <c r="BV68" s="205">
-        <v>113</v>
-      </c>
-      <c r="BW68" s="205">
-        <v>114</v>
-      </c>
-      <c r="BX68" s="205">
-        <v>115</v>
+      <c r="BN68" s="215" t="s">
+        <v>4081</v>
+      </c>
+      <c r="BO68" s="215" t="s">
+        <v>4082</v>
+      </c>
+      <c r="BP68" s="215" t="s">
+        <v>4083</v>
+      </c>
+      <c r="BQ68" s="215" t="s">
+        <v>4084</v>
+      </c>
+      <c r="BR68" s="215" t="s">
+        <v>2210</v>
+      </c>
+      <c r="BS68" s="215" t="s">
+        <v>4085</v>
+      </c>
+      <c r="BT68" s="215" t="s">
+        <v>4086</v>
+      </c>
+      <c r="BU68" s="215" t="s">
+        <v>4087</v>
+      </c>
+      <c r="BV68" s="215" t="s">
+        <v>4088</v>
+      </c>
+      <c r="BW68" s="215" t="s">
+        <v>4089</v>
+      </c>
+      <c r="BX68" s="215" t="s">
+        <v>4090</v>
       </c>
     </row>
     <row r="69" spans="1:76" s="178" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -55693,38 +55980,38 @@
       <c r="BM69" s="178" t="s">
         <v>2302</v>
       </c>
-      <c r="BN69" s="205">
-        <v>105</v>
-      </c>
-      <c r="BO69" s="205">
-        <v>106</v>
-      </c>
-      <c r="BP69" s="205">
-        <v>107</v>
-      </c>
-      <c r="BQ69" s="205">
-        <v>108</v>
-      </c>
-      <c r="BR69" s="205">
-        <v>109</v>
-      </c>
-      <c r="BS69" s="205">
-        <v>110</v>
-      </c>
-      <c r="BT69" s="205">
-        <v>111</v>
-      </c>
-      <c r="BU69" s="205">
-        <v>112</v>
-      </c>
-      <c r="BV69" s="205">
-        <v>113</v>
-      </c>
-      <c r="BW69" s="205">
-        <v>114</v>
-      </c>
-      <c r="BX69" s="205">
-        <v>115</v>
+      <c r="BN69" s="211" t="s">
+        <v>4044</v>
+      </c>
+      <c r="BO69" s="211" t="s">
+        <v>4045</v>
+      </c>
+      <c r="BP69" s="211" t="s">
+        <v>4046</v>
+      </c>
+      <c r="BQ69" s="211" t="s">
+        <v>4052</v>
+      </c>
+      <c r="BR69" s="215" t="s">
+        <v>2288</v>
+      </c>
+      <c r="BS69" s="211" t="s">
+        <v>4050</v>
+      </c>
+      <c r="BT69" s="211" t="s">
+        <v>2304</v>
+      </c>
+      <c r="BU69" s="211" t="s">
+        <v>4049</v>
+      </c>
+      <c r="BV69" s="211" t="s">
+        <v>4048</v>
+      </c>
+      <c r="BW69" s="211" t="s">
+        <v>4051</v>
+      </c>
+      <c r="BX69" s="211" t="s">
+        <v>4047</v>
       </c>
     </row>
     <row r="70" spans="1:76" s="178" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -55923,85 +56210,85 @@
       <c r="BM70" s="178" t="s">
         <v>2350</v>
       </c>
-      <c r="BN70" s="205">
-        <v>105</v>
-      </c>
-      <c r="BO70" s="205">
-        <v>106</v>
-      </c>
-      <c r="BP70" s="205">
-        <v>107</v>
-      </c>
-      <c r="BQ70" s="205">
-        <v>108</v>
-      </c>
-      <c r="BR70" s="205">
-        <v>109</v>
-      </c>
-      <c r="BS70" s="205">
-        <v>110</v>
-      </c>
-      <c r="BT70" s="205">
-        <v>111</v>
-      </c>
-      <c r="BU70" s="205">
-        <v>112</v>
-      </c>
-      <c r="BV70" s="205">
-        <v>113</v>
-      </c>
-      <c r="BW70" s="205">
-        <v>114</v>
-      </c>
-      <c r="BX70" s="205">
-        <v>115</v>
+      <c r="BN70" s="211" t="s">
+        <v>4055</v>
+      </c>
+      <c r="BO70" s="211" t="s">
+        <v>4054</v>
+      </c>
+      <c r="BP70" s="211" t="s">
+        <v>4060</v>
+      </c>
+      <c r="BQ70" s="211" t="s">
+        <v>4053</v>
+      </c>
+      <c r="BR70" s="215" t="s">
+        <v>2312</v>
+      </c>
+      <c r="BS70" s="211" t="s">
+        <v>4061</v>
+      </c>
+      <c r="BT70" s="211" t="s">
+        <v>2352</v>
+      </c>
+      <c r="BU70" s="211" t="s">
+        <v>4058</v>
+      </c>
+      <c r="BV70" s="211" t="s">
+        <v>4057</v>
+      </c>
+      <c r="BW70" s="211" t="s">
+        <v>4059</v>
+      </c>
+      <c r="BX70" s="211" t="s">
+        <v>4056</v>
       </c>
     </row>
-    <row r="71" spans="1:76" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="210" t="s">
+    <row r="71" spans="1:76" s="209" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B71" s="210" t="str">
+      <c r="B71" s="209" t="str">
         <f>Characteristics_overview!A15</f>
         <v>Habitat for selecting</v>
       </c>
-      <c r="C71" s="210" t="str">
+      <c r="C71" s="209" t="str">
         <f>Characteristics_overview!B15</f>
         <v>Sand dunes</v>
       </c>
-      <c r="D71" s="210" t="str">
+      <c r="D71" s="209" t="str">
         <f>Characteristics_overview!C15</f>
         <v>River shingle</v>
       </c>
-      <c r="E71" s="210" t="str">
+      <c r="E71" s="209" t="str">
         <f>Characteristics_overview!D15</f>
         <v>Wet habitats</v>
       </c>
-      <c r="F71" s="210" t="str">
+      <c r="F71" s="209" t="str">
         <f>Characteristics_overview!E15</f>
         <v>Agricultural areas</v>
       </c>
-      <c r="G71" s="210" t="str">
+      <c r="G71" s="209" t="str">
         <f>Characteristics_overview!F15</f>
         <v>Grasslands</v>
       </c>
-      <c r="H71" s="210" t="str">
+      <c r="H71" s="209" t="str">
         <f>Characteristics_overview!G15</f>
         <v>Heathland</v>
       </c>
-      <c r="I71" s="210" t="str">
+      <c r="I71" s="209" t="str">
         <f>Characteristics_overview!H15</f>
         <v>Gardens, allotments and parklands</v>
       </c>
-      <c r="J71" s="210" t="str">
+      <c r="J71" s="209" t="str">
         <f>Characteristics_overview!I15</f>
         <v>Urban, artificial habitats</v>
       </c>
-      <c r="K71" s="210" t="str">
+      <c r="K71" s="209" t="str">
         <f>Characteristics_overview!J15</f>
         <v>Forests and woodlands</v>
       </c>
-      <c r="L71" s="210" t="str">
+      <c r="L71" s="209" t="str">
         <f>Characteristics_overview!K15</f>
         <v>Meadows</v>
       </c>
@@ -56262,211 +56549,211 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="78" spans="1:76" s="210" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="210" t="s">
+    <row r="78" spans="1:76" s="209" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B78" s="210" t="str">
+      <c r="B78" s="209" t="str">
         <f>Characteristics_overview!A16</f>
         <v>Host plant</v>
       </c>
-      <c r="C78" s="210" t="str">
+      <c r="C78" s="209" t="str">
         <f>Characteristics_overview!B16</f>
         <v>Various grasses and low plants</v>
       </c>
-      <c r="D78" s="210" t="str">
+      <c r="D78" s="209" t="str">
         <f>Characteristics_overview!C16</f>
         <v xml:space="preserve">Various trees </v>
       </c>
-      <c r="E78" s="210" t="str">
+      <c r="E78" s="209" t="str">
         <f>Characteristics_overview!D16</f>
         <v>Deciduous trees, particularly sycamore and ash</v>
       </c>
-      <c r="F78" s="210" t="str">
+      <c r="F78" s="209" t="str">
         <f>Characteristics_overview!E16</f>
         <v>Larch, firs, pines, etc</v>
       </c>
-      <c r="G78" s="210" t="str">
+      <c r="G78" s="209" t="str">
         <f>Characteristics_overview!F16</f>
         <v>Litter under heather</v>
       </c>
-      <c r="H78" s="210" t="str">
+      <c r="H78" s="209" t="str">
         <f>Characteristics_overview!G16</f>
         <v>Needled conifers</v>
       </c>
-      <c r="I78" s="210" t="str">
+      <c r="I78" s="209" t="str">
         <f>Characteristics_overview!H16</f>
         <v>Various conifers</v>
       </c>
-      <c r="J78" s="210" t="str">
+      <c r="J78" s="209" t="str">
         <f>Characteristics_overview!I16</f>
         <v>Needled conifers, particularly pines</v>
       </c>
-      <c r="K78" s="210" t="str">
+      <c r="K78" s="209" t="str">
         <f>Characteristics_overview!J16</f>
         <v>Needled conifers, sallows and willows</v>
       </c>
-      <c r="L78" s="210" t="str">
+      <c r="L78" s="209" t="str">
         <f>Characteristics_overview!K16</f>
         <v>Reeds</v>
       </c>
-      <c r="M78" s="210" t="str">
+      <c r="M78" s="209" t="str">
         <f>Characteristics_overview!L16</f>
         <v>Reeds and rushes</v>
       </c>
-      <c r="N78" s="210" t="str">
+      <c r="N78" s="209" t="str">
         <f>Characteristics_overview!M16</f>
         <v>Scots pine</v>
       </c>
-      <c r="O78" s="210" t="str">
+      <c r="O78" s="209" t="str">
         <f>Characteristics_overview!N16</f>
         <v>Various</v>
       </c>
-      <c r="P78" s="210" t="str">
+      <c r="P78" s="209" t="str">
         <f>Characteristics_overview!O16</f>
         <v>Various deciduous trees and shrubs</v>
       </c>
-      <c r="Q78" s="210" t="str">
+      <c r="Q78" s="209" t="str">
         <f>Characteristics_overview!P16</f>
         <v>Various deciduous trees, particularly sallows and ash</v>
       </c>
-      <c r="R78" s="210" t="str">
+      <c r="R78" s="209" t="str">
         <f>Characteristics_overview!Q16</f>
         <v xml:space="preserve">Various grasses and low growing plants </v>
       </c>
-      <c r="S78" s="210" t="str">
+      <c r="S78" s="209" t="str">
         <f>Characteristics_overview!R16</f>
         <v>Various heathers</v>
       </c>
-      <c r="T78" s="210" t="str">
+      <c r="T78" s="209" t="str">
         <f>Characteristics_overview!S16</f>
         <v>Various heathers, occasionally trees esp. Leylandii</v>
       </c>
-      <c r="U78" s="210" t="str">
+      <c r="U78" s="209" t="str">
         <f>Characteristics_overview!T16</f>
         <v>Various bushes</v>
       </c>
-      <c r="V78" s="210" t="str">
+      <c r="V78" s="209" t="str">
         <f>Characteristics_overview!U16</f>
         <v>Various, particularly hogweed</v>
       </c>
-      <c r="W78" s="210" t="str">
+      <c r="W78" s="209" t="str">
         <f>Characteristics_overview!V16</f>
         <v>Various, particularly lime and sycamore</v>
       </c>
-      <c r="X78" s="210" t="str">
+      <c r="X78" s="209" t="str">
         <f>Characteristics_overview!W16</f>
         <v>Very varied</v>
       </c>
-      <c r="Y78" s="210" t="str">
+      <c r="Y78" s="209" t="str">
         <f>Characteristics_overview!X16</f>
         <v>White bryony</v>
       </c>
-      <c r="Z78" s="210" t="str">
+      <c r="Z78" s="209" t="str">
         <f>Characteristics_overview!Y16</f>
         <v>Spruce</v>
       </c>
-      <c r="AA78" s="210" t="str">
+      <c r="AA78" s="209" t="str">
         <f>Characteristics_overview!Z16</f>
         <v>Scots Pine</v>
       </c>
-      <c r="AB78" s="210" t="str">
+      <c r="AB78" s="209" t="str">
         <f>Characteristics_overview!AA16</f>
         <v>Firs</v>
       </c>
-      <c r="AC78" s="210" t="str">
+      <c r="AC78" s="209" t="str">
         <f>Characteristics_overview!AB16</f>
         <v>Oak</v>
       </c>
-      <c r="AD78" s="210" t="str">
+      <c r="AD78" s="209" t="str">
         <f>Characteristics_overview!AC16</f>
         <v>Juniper</v>
       </c>
-      <c r="AE78" s="210" t="str">
+      <c r="AE78" s="209" t="str">
         <f>Characteristics_overview!AD16</f>
         <v>family Chenopodiaceae</v>
       </c>
-      <c r="AF78" s="210" t="str">
+      <c r="AF78" s="209" t="str">
         <f>Characteristics_overview!AE16</f>
         <v>Linden</v>
       </c>
-      <c r="AG78" s="210" t="str">
+      <c r="AG78" s="209" t="str">
         <f>Characteristics_overview!AF16</f>
         <v>Elm</v>
       </c>
-      <c r="AH78" s="210" t="str">
+      <c r="AH78" s="209" t="str">
         <f>Characteristics_overview!AG16</f>
         <v>Alder</v>
       </c>
-      <c r="AI78" s="210" t="str">
+      <c r="AI78" s="209" t="str">
         <f>Characteristics_overview!AH16</f>
         <v>Willow</v>
       </c>
-      <c r="AJ78" s="210" t="str">
+      <c r="AJ78" s="209" t="str">
         <f>Characteristics_overview!AI16</f>
         <v>Nettle</v>
       </c>
-      <c r="AK78" s="210" t="str">
+      <c r="AK78" s="209" t="str">
         <f>Characteristics_overview!AJ16</f>
         <v>Thistle</v>
       </c>
-      <c r="AL78" s="210" t="str">
+      <c r="AL78" s="209" t="str">
         <f>Characteristics_overview!AK16</f>
         <v>family Asteraceae</v>
       </c>
-      <c r="AM78" s="210" t="str">
+      <c r="AM78" s="209" t="str">
         <f>Characteristics_overview!AL16</f>
         <v>Broad-leaved grasses (family Poaceae)</v>
       </c>
-      <c r="AN78" s="210" t="str">
+      <c r="AN78" s="209" t="str">
         <f>Characteristics_overview!AM16</f>
         <v>Plants of the family Cucurbitaceae</v>
       </c>
-      <c r="AO78" s="210" t="str">
+      <c r="AO78" s="209" t="str">
         <f>Characteristics_overview!AN16</f>
         <v>Squirting cucumber</v>
       </c>
-      <c r="AP78" s="210" t="str">
+      <c r="AP78" s="209" t="str">
         <f>Characteristics_overview!AO16</f>
         <v>Poplar</v>
       </c>
-      <c r="AQ78" s="210" t="str">
+      <c r="AQ78" s="209" t="str">
         <f>Characteristics_overview!AP16</f>
         <v>Sycamore</v>
       </c>
-      <c r="AR78" s="210" t="str">
+      <c r="AR78" s="209" t="str">
         <f>Characteristics_overview!AQ16</f>
         <v>Hornbeam</v>
       </c>
-      <c r="AS78" s="210" t="str">
+      <c r="AS78" s="209" t="str">
         <f>Characteristics_overview!AR16</f>
         <v>Herbs</v>
       </c>
-      <c r="AT78" s="210" t="str">
+      <c r="AT78" s="209" t="str">
         <f>Characteristics_overview!AS16</f>
         <v>Shrubs</v>
       </c>
-      <c r="AU78" s="210" t="str">
+      <c r="AU78" s="209" t="str">
         <f>Characteristics_overview!AT16</f>
         <v>Goosefoot</v>
       </c>
-      <c r="AV78" s="210" t="str">
+      <c r="AV78" s="209" t="str">
         <f>Characteristics_overview!AU16</f>
         <v>Sugar beet</v>
       </c>
-      <c r="AW78" s="210" t="str">
+      <c r="AW78" s="209" t="str">
         <f>Characteristics_overview!AV16</f>
         <v>Deciduous trees</v>
       </c>
-      <c r="AX78" s="210" t="str">
+      <c r="AX78" s="209" t="str">
         <f>Characteristics_overview!AW16</f>
         <v>Tamarisk</v>
       </c>
-      <c r="AY78" s="210" t="str">
+      <c r="AY78" s="209" t="str">
         <f>Characteristics_overview!AX16</f>
         <v>Unknown</v>
       </c>
-      <c r="AZ78" s="217" t="str">
+      <c r="AZ78" s="214" t="str">
         <f>Characteristics_overview!AY16</f>
         <v>Spindle</v>
       </c>
@@ -56625,7 +56912,7 @@
       <c r="AY79" s="69" t="s">
         <v>2442</v>
       </c>
-      <c r="AZ79" s="212"/>
+      <c r="AZ79" s="211"/>
     </row>
     <row r="80" spans="1:76" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A80" s="174" t="s">
@@ -56781,7 +57068,7 @@
       <c r="AY80" s="51" t="s">
         <v>2484</v>
       </c>
-      <c r="AZ80" s="212"/>
+      <c r="AZ80" s="211"/>
     </row>
     <row r="81" spans="1:52" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="174" t="s">
@@ -56853,8 +57140,8 @@
       <c r="W81" s="51" t="s">
         <v>2504</v>
       </c>
-      <c r="X81" s="212" t="s">
-        <v>4037</v>
+      <c r="X81" s="211" t="s">
+        <v>4036</v>
       </c>
       <c r="Y81" s="51" t="s">
         <v>2505</v>
@@ -56937,8 +57224,8 @@
       <c r="AY81" s="51" t="s">
         <v>2528</v>
       </c>
-      <c r="AZ81" s="212" t="s">
-        <v>4040</v>
+      <c r="AZ81" s="211" t="s">
+        <v>4039</v>
       </c>
     </row>
     <row r="82" spans="1:52" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -57095,7 +57382,7 @@
       <c r="AY82" s="69" t="s">
         <v>2571</v>
       </c>
-      <c r="AZ82" s="212"/>
+      <c r="AZ82" s="211"/>
     </row>
     <row r="83" spans="1:52" s="178" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A83" s="177" t="s">
@@ -57251,7 +57538,7 @@
       <c r="AY83" s="178" t="s">
         <v>2611</v>
       </c>
-      <c r="AZ83" s="218"/>
+      <c r="AZ83" s="215"/>
     </row>
     <row r="84" spans="1:52" s="178" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A84" s="177" t="s">
@@ -57407,149 +57694,149 @@
       <c r="AY84" s="178" t="s">
         <v>2651</v>
       </c>
-      <c r="AZ84" s="218"/>
+      <c r="AZ84" s="215"/>
     </row>
-    <row r="85" spans="1:52" s="210" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A85" s="210" t="s">
+    <row r="85" spans="1:52" s="209" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A85" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B85" s="210" t="str">
+      <c r="B85" s="209" t="str">
         <f>Characteristics_overview!A17</f>
         <v>Overwintering</v>
       </c>
-      <c r="C85" s="210" t="str">
+      <c r="C85" s="209" t="str">
         <f>Characteristics_overview!B17</f>
         <v>Low herbage, in gorse, in plant litter, on fence posts and stone walls, often in large aggregations</v>
       </c>
-      <c r="D85" s="210" t="str">
+      <c r="D85" s="209" t="str">
         <f>Characteristics_overview!C17</f>
         <v xml:space="preserve">Leaf litter, beech nuts </v>
       </c>
-      <c r="E85" s="210" t="str">
+      <c r="E85" s="209" t="str">
         <f>Characteristics_overview!D17</f>
         <v>Bark crevices of conifers</v>
       </c>
-      <c r="F85" s="210" t="str">
+      <c r="F85" s="209" t="str">
         <f>Characteristics_overview!E17</f>
         <v>Between leaves and in stems of reeds, grass tussocks</v>
       </c>
-      <c r="G85" s="210" t="str">
+      <c r="G85" s="209" t="str">
         <f>Characteristics_overview!F17</f>
         <v>Gorse, under shingle stones, in leaf litter</v>
       </c>
-      <c r="H85" s="210" t="str">
+      <c r="H85" s="209" t="str">
         <f>Characteristics_overview!G17</f>
         <v>High on Scots pine</v>
       </c>
-      <c r="I85" s="210" t="str">
+      <c r="I85" s="209" t="str">
         <f>Characteristics_overview!H17</f>
         <v>In houses, on bark</v>
       </c>
-      <c r="J85" s="210" t="str">
+      <c r="J85" s="209" t="str">
         <f>Characteristics_overview!I17</f>
         <v>In houses, on rocky surfaces</v>
       </c>
-      <c r="K85" s="210" t="str">
+      <c r="K85" s="209" t="str">
         <f>Characteristics_overview!J17</f>
         <v>In leaf litter or on low plants</v>
       </c>
-      <c r="L85" s="210" t="str">
+      <c r="L85" s="209" t="str">
         <f>Characteristics_overview!K17</f>
         <v>In leaf litter, foliage and bark crevices of evergreen trees and shrubs</v>
       </c>
-      <c r="M85" s="210" t="str">
+      <c r="M85" s="209" t="str">
         <f>Characteristics_overview!L17</f>
         <v>In litter or in bark crevices</v>
       </c>
-      <c r="N85" s="210" t="str">
+      <c r="N85" s="209" t="str">
         <f>Characteristics_overview!M17</f>
         <v>In low herbage</v>
       </c>
-      <c r="O85" s="210" t="str">
+      <c r="O85" s="209" t="str">
         <f>Characteristics_overview!N17</f>
         <v>In low herbage, in conifer foliage</v>
       </c>
-      <c r="P85" s="210" t="str">
+      <c r="P85" s="209" t="str">
         <f>Characteristics_overview!O17</f>
         <v>In sheltered positions on deciduous trees, usually near base</v>
       </c>
-      <c r="Q85" s="210" t="str">
+      <c r="Q85" s="209" t="str">
         <f>Characteristics_overview!P17</f>
         <v>In soil or leaf litter</v>
       </c>
-      <c r="R85" s="210" t="str">
+      <c r="R85" s="209" t="str">
         <f>Characteristics_overview!Q17</f>
         <v>Leaf litter or in sheltered positions on trees</v>
       </c>
-      <c r="S85" s="210" t="str">
+      <c r="S85" s="209" t="str">
         <f>Characteristics_overview!R17</f>
         <v xml:space="preserve">Leaf litter, beech nuts </v>
       </c>
-      <c r="T85" s="210" t="str">
+      <c r="T85" s="209" t="str">
         <f>Characteristics_overview!S17</f>
         <v>Litter under heather</v>
       </c>
-      <c r="U85" s="210" t="str">
+      <c r="U85" s="209" t="str">
         <f>Characteristics_overview!T17</f>
         <v xml:space="preserve">Low herbage  </v>
       </c>
-      <c r="V85" s="210" t="str">
+      <c r="V85" s="209" t="str">
         <f>Characteristics_overview!U17</f>
         <v xml:space="preserve">Low herbage, grass tussocks </v>
       </c>
-      <c r="W85" s="210" t="str">
+      <c r="W85" s="209" t="str">
         <f>Characteristics_overview!V17</f>
         <v>On conifers</v>
       </c>
-      <c r="X85" s="210" t="str">
+      <c r="X85" s="209" t="str">
         <f>Characteristics_overview!W17</f>
         <v>Plant litter</v>
       </c>
-      <c r="Y85" s="210" t="str">
+      <c r="Y85" s="209" t="str">
         <f>Characteristics_overview!X17</f>
         <v>Plant litter, bark crevices, beech nuts</v>
       </c>
-      <c r="Z85" s="210" t="str">
+      <c r="Z85" s="209" t="str">
         <f>Characteristics_overview!Y17</f>
         <v>Unknown</v>
       </c>
-      <c r="AA85" s="210" t="str">
+      <c r="AA85" s="209" t="str">
         <f>Characteristics_overview!Z17</f>
         <v>Various, but close to ant nests</v>
       </c>
-      <c r="AB85" s="210" t="str">
+      <c r="AB85" s="209" t="str">
         <f>Characteristics_overview!AA17</f>
         <v>Various, usually low down</v>
       </c>
-      <c r="AC85" s="210" t="str">
+      <c r="AC85" s="209" t="str">
         <f>Characteristics_overview!AB17</f>
         <v>Litter</v>
       </c>
-      <c r="AD85" s="210" t="str">
+      <c r="AD85" s="209" t="str">
         <f>Characteristics_overview!AC17</f>
         <v>Rock crevices</v>
       </c>
-      <c r="AE85" s="210" t="str">
+      <c r="AE85" s="209" t="str">
         <f>Characteristics_overview!AD17</f>
         <v>Grass tussocks</v>
       </c>
-      <c r="AF85" s="210" t="str">
+      <c r="AF85" s="209" t="str">
         <f>Characteristics_overview!AE17</f>
         <v>Often in large groups</v>
       </c>
-      <c r="AG85" s="210" t="str">
+      <c r="AG85" s="209" t="str">
         <f>Characteristics_overview!AF17</f>
         <v>In Soil (during winter and summer)</v>
       </c>
-      <c r="AH85" s="210" t="str">
+      <c r="AH85" s="209" t="str">
         <f>Characteristics_overview!AG17</f>
         <v>On the ground in dry plants</v>
       </c>
-      <c r="AI85" s="210" t="str">
+      <c r="AI85" s="209" t="str">
         <f>Characteristics_overview!AH17</f>
         <v>Leaf litter</v>
       </c>
-      <c r="AJ85" s="210" t="str">
+      <c r="AJ85" s="209" t="str">
         <f>Characteristics_overview!AI17</f>
         <v>Under the bark of solitary tree</v>
       </c>
@@ -58217,111 +58504,111 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="92" spans="1:52" s="210" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="210" t="s">
+    <row r="92" spans="1:52" s="209" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B92" s="210" t="str">
+      <c r="B92" s="209" t="str">
         <f>Characteristics_overview!A18</f>
         <v>Food</v>
       </c>
-      <c r="C92" s="210" t="str">
+      <c r="C92" s="209" t="str">
         <f>Characteristics_overview!B18</f>
         <v>Pollen, nectar, fungi</v>
       </c>
-      <c r="D92" s="210" t="str">
+      <c r="D92" s="209" t="str">
         <f>Characteristics_overview!C18</f>
         <v xml:space="preserve">Aphids </v>
       </c>
-      <c r="E92" s="210" t="str">
+      <c r="E92" s="209" t="str">
         <f>Characteristics_overview!D18</f>
         <v>Adelgids, coccids</v>
       </c>
-      <c r="F92" s="210" t="str">
+      <c r="F92" s="209" t="str">
         <f>Characteristics_overview!E18</f>
         <v>Aphids and psyllids</v>
       </c>
-      <c r="G92" s="210" t="str">
+      <c r="G92" s="209" t="str">
         <f>Characteristics_overview!F18</f>
         <v>Aphids, coccids, adelgids, coccinellids, fruit</v>
       </c>
-      <c r="H92" s="210" t="str">
+      <c r="H92" s="209" t="str">
         <f>Characteristics_overview!G18</f>
         <v>Coccids</v>
       </c>
-      <c r="I92" s="210" t="str">
+      <c r="I92" s="209" t="str">
         <f>Characteristics_overview!H18</f>
         <v>Larvae of heather leaf beetle</v>
       </c>
-      <c r="J92" s="210" t="str">
+      <c r="J92" s="209" t="str">
         <f>Characteristics_overview!I18</f>
         <v xml:space="preserve">Leaves </v>
       </c>
-      <c r="K92" s="210" t="str">
+      <c r="K92" s="209" t="str">
         <f>Characteristics_overview!J18</f>
         <v>Leaves of white bryony and other cucurbits</v>
       </c>
-      <c r="L92" s="210" t="str">
+      <c r="L92" s="209" t="str">
         <f>Characteristics_overview!K18</f>
         <v>Mildews</v>
       </c>
-      <c r="M92" s="210" t="str">
+      <c r="M92" s="209" t="str">
         <f>Characteristics_overview!L18</f>
         <v>Vary greatly in abundance from year to year due to prey availability</v>
       </c>
-      <c r="N92" s="210" t="str">
+      <c r="N92" s="209" t="str">
         <f>Characteristics_overview!M18</f>
         <v>Adelgids</v>
       </c>
-      <c r="O92" s="210" t="str">
+      <c r="O92" s="209" t="str">
         <f>Characteristics_overview!N18</f>
         <v>Pollen</v>
       </c>
-      <c r="P92" s="210" t="str">
+      <c r="P92" s="209" t="str">
         <f>Characteristics_overview!O18</f>
         <v>Psyllids</v>
       </c>
-      <c r="Q92" s="210" t="str">
+      <c r="Q92" s="209" t="str">
         <f>Characteristics_overview!P18</f>
         <v>Chrysomelid larvae</v>
       </c>
-      <c r="R92" s="210" t="str">
+      <c r="R92" s="209" t="str">
         <f>Characteristics_overview!Q18</f>
         <v>Leaf beetle larvae</v>
       </c>
-      <c r="S92" s="210" t="str">
+      <c r="S92" s="209" t="str">
         <f>Characteristics_overview!R18</f>
         <v>Plant material</v>
       </c>
-      <c r="T92" s="210" t="str">
+      <c r="T92" s="209" t="str">
         <f>Characteristics_overview!S18</f>
         <v>Pollen of family Chenopodiaceae</v>
       </c>
-      <c r="U92" s="210" t="str">
+      <c r="U92" s="209" t="str">
         <f>Characteristics_overview!T18</f>
         <v>Immature stages of chrysomelids and psocopterans</v>
       </c>
-      <c r="V92" s="210" t="str">
+      <c r="V92" s="209" t="str">
         <f>Characteristics_overview!U18</f>
         <v>Probably leaf beetle larvae</v>
       </c>
-      <c r="W92" s="210" t="str">
+      <c r="W92" s="209" t="str">
         <f>Characteristics_overview!V18</f>
         <v>Phytophagous on grasses</v>
       </c>
-      <c r="X92" s="210" t="str">
+      <c r="X92" s="209" t="str">
         <f>Characteristics_overview!W18</f>
         <v>Larvae mainly aphidophagous</v>
       </c>
-      <c r="Y92" s="210" t="str">
+      <c r="Y92" s="209" t="str">
         <f>Characteristics_overview!X18</f>
         <v>Plant leaves</v>
       </c>
-      <c r="Z92" s="210" t="str">
+      <c r="Z92" s="209" t="str">
         <f>Characteristics_overview!Y18</f>
         <v>Unknown</v>
       </c>
-      <c r="AA92" s="210" t="str">
+      <c r="AA92" s="209" t="str">
         <f>Characteristics_overview!Z18</f>
         <v>Pollen</v>
       </c>
@@ -58526,8 +58813,8 @@
       <c r="K95" s="51" t="s">
         <v>2895</v>
       </c>
-      <c r="L95" s="212" t="s">
-        <v>4038</v>
+      <c r="L95" s="211" t="s">
+        <v>4037</v>
       </c>
       <c r="M95" s="51" t="s">
         <v>2896</v>
@@ -58837,19 +59124,19 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="99" spans="1:58" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="210" t="s">
+    <row r="99" spans="1:58" s="209" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B99" s="210" t="str">
+      <c r="B99" s="209" t="str">
         <f>Characteristics_overview!A19</f>
         <v>True or False</v>
       </c>
-      <c r="C99" s="210" t="str">
+      <c r="C99" s="209" t="str">
         <f>Characteristics_overview!B19</f>
         <v>YES</v>
       </c>
-      <c r="D99" s="210" t="str">
+      <c r="D99" s="209" t="str">
         <f>Characteristics_overview!C19</f>
         <v>NO</v>
       </c>
@@ -58889,10 +59176,10 @@
       <c r="B102" s="51" t="s">
         <v>2978</v>
       </c>
-      <c r="C102" s="219" t="s">
-        <v>4041</v>
-      </c>
-      <c r="D102" s="219" t="s">
+      <c r="C102" s="216" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D102" s="216" t="s">
         <v>160</v>
       </c>
     </row>
@@ -58938,29 +59225,29 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="106" spans="1:58" s="210" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="210" t="s">
+    <row r="106" spans="1:58" s="209" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B106" s="210" t="s">
+      <c r="B106" s="209" t="s">
         <v>2984</v>
       </c>
-      <c r="C106" s="210" t="s">
+      <c r="C106" s="209" t="s">
         <v>2985</v>
       </c>
-      <c r="D106" s="210" t="s">
+      <c r="D106" s="209" t="s">
         <v>2986</v>
       </c>
-      <c r="E106" s="210" t="s">
+      <c r="E106" s="209" t="s">
         <v>2987</v>
       </c>
-      <c r="F106" s="210" t="s">
+      <c r="F106" s="209" t="s">
         <v>2988</v>
       </c>
-      <c r="G106" s="210" t="s">
+      <c r="G106" s="209" t="s">
         <v>2989</v>
       </c>
-      <c r="H106" s="210" t="s">
+      <c r="H106" s="209" t="s">
         <v>2990</v>
       </c>
     </row>
@@ -59032,8 +59319,8 @@
       <c r="E109" s="51" t="s">
         <v>3997</v>
       </c>
-      <c r="F109" s="219" t="s">
-        <v>4042</v>
+      <c r="F109" s="216" t="s">
+        <v>4041</v>
       </c>
       <c r="G109" s="51" t="s">
         <v>3006</v>
@@ -59220,50 +59507,50 @@
       <c r="BE112" s="69"/>
       <c r="BF112" s="69"/>
     </row>
-    <row r="113" spans="1:1025" s="210" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="210" t="s">
+    <row r="113" spans="1:1025" s="209" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="209" t="s">
         <v>1071</v>
       </c>
-      <c r="B113" s="210" t="s">
+      <c r="B113" s="209" t="s">
         <v>3028</v>
       </c>
-      <c r="C113" s="210" t="s">
+      <c r="C113" s="209" t="s">
         <v>3029</v>
       </c>
-      <c r="D113" s="210" t="s">
+      <c r="D113" s="209" t="s">
         <v>3030</v>
       </c>
-      <c r="E113" s="210" t="s">
+      <c r="E113" s="209" t="s">
         <v>888</v>
       </c>
-      <c r="F113" s="210" t="s">
+      <c r="F113" s="209" t="s">
         <v>3031</v>
       </c>
-      <c r="G113" s="210" t="s">
+      <c r="G113" s="209" t="s">
         <v>3032</v>
       </c>
-      <c r="H113" s="210" t="s">
+      <c r="H113" s="209" t="s">
         <v>3033</v>
       </c>
-      <c r="I113" s="210" t="s">
+      <c r="I113" s="209" t="s">
         <v>3034</v>
       </c>
-      <c r="J113" s="210" t="s">
+      <c r="J113" s="209" t="s">
         <v>3035</v>
       </c>
-      <c r="K113" s="210" t="s">
+      <c r="K113" s="209" t="s">
         <v>3036</v>
       </c>
-      <c r="L113" s="210" t="s">
+      <c r="L113" s="209" t="s">
         <v>3037</v>
       </c>
-      <c r="M113" s="210" t="s">
+      <c r="M113" s="209" t="s">
         <v>3038</v>
       </c>
-      <c r="N113" s="210" t="s">
+      <c r="N113" s="209" t="s">
         <v>3039</v>
       </c>
-      <c r="O113" s="210" t="s">
+      <c r="O113" s="209" t="s">
         <v>3040</v>
       </c>
     </row>
@@ -59717,8 +60004,8 @@
       <c r="D123" s="51" t="s">
         <v>4005</v>
       </c>
-      <c r="E123" s="219" t="s">
-        <v>4043</v>
+      <c r="E123" s="216" t="s">
+        <v>4042</v>
       </c>
       <c r="F123" s="51" t="s">
         <v>4006</v>
@@ -59898,1361 +60185,1361 @@
       <c r="BE126" s="69"/>
       <c r="BF126" s="69"/>
     </row>
-    <row r="127" spans="1:1025" s="207" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A127" s="206" t="s">
+    <row r="127" spans="1:1025" s="206" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A127" s="205" t="s">
         <v>1071</v>
       </c>
-      <c r="B127" s="207" t="s">
+      <c r="B127" s="206" t="s">
         <v>3153</v>
       </c>
-      <c r="C127" s="207" t="s">
+      <c r="C127" s="206" t="s">
         <v>3154</v>
       </c>
-      <c r="D127" s="207" t="s">
+      <c r="D127" s="206" t="s">
         <v>3155</v>
       </c>
-      <c r="E127" s="207" t="s">
+      <c r="E127" s="206" t="s">
         <v>3156</v>
       </c>
-      <c r="F127" s="207" t="s">
+      <c r="F127" s="206" t="s">
         <v>3157</v>
       </c>
-      <c r="G127" s="207" t="s">
+      <c r="G127" s="206" t="s">
         <v>3158</v>
       </c>
-      <c r="H127" s="207" t="s">
+      <c r="H127" s="206" t="s">
         <v>3159</v>
       </c>
-      <c r="I127" s="207" t="s">
+      <c r="I127" s="206" t="s">
         <v>3160</v>
       </c>
-      <c r="J127" s="207" t="s">
+      <c r="J127" s="206" t="s">
         <v>3161</v>
       </c>
-      <c r="K127" s="207" t="s">
+      <c r="K127" s="206" t="s">
         <v>3162</v>
       </c>
-      <c r="L127" s="207" t="s">
+      <c r="L127" s="206" t="s">
         <v>3163</v>
       </c>
-      <c r="M127" s="207" t="s">
+      <c r="M127" s="206" t="s">
         <v>3164</v>
       </c>
-      <c r="N127" s="207" t="s">
+      <c r="N127" s="206" t="s">
         <v>3165</v>
       </c>
-      <c r="O127" s="207" t="s">
+      <c r="O127" s="206" t="s">
         <v>3166</v>
       </c>
-      <c r="P127" s="207" t="s">
+      <c r="P127" s="206" t="s">
         <v>3167</v>
       </c>
-      <c r="Q127" s="207" t="s">
+      <c r="Q127" s="206" t="s">
         <v>3168</v>
       </c>
-      <c r="R127" s="207" t="s">
+      <c r="R127" s="206" t="s">
         <v>3169</v>
       </c>
-      <c r="S127" s="207" t="s">
+      <c r="S127" s="206" t="s">
         <v>3170</v>
       </c>
-      <c r="T127" s="207" t="s">
+      <c r="T127" s="206" t="s">
         <v>3171</v>
       </c>
-      <c r="U127" s="207" t="s">
+      <c r="U127" s="206" t="s">
         <v>890</v>
       </c>
-      <c r="V127" s="207" t="s">
+      <c r="V127" s="206" t="s">
         <v>895</v>
       </c>
-      <c r="W127" s="207" t="s">
+      <c r="W127" s="206" t="s">
         <v>3172</v>
       </c>
-      <c r="X127" s="207" t="s">
+      <c r="X127" s="206" t="s">
         <v>3173</v>
       </c>
-      <c r="Y127" s="207" t="s">
+      <c r="Y127" s="206" t="s">
         <v>3174</v>
       </c>
-      <c r="Z127" s="207" t="s">
+      <c r="Z127" s="206" t="s">
         <v>3175</v>
       </c>
-      <c r="AA127" s="207" t="s">
+      <c r="AA127" s="206" t="s">
         <v>3176</v>
       </c>
-      <c r="AB127" s="207" t="s">
+      <c r="AB127" s="206" t="s">
         <v>3177</v>
       </c>
-      <c r="AC127" s="207" t="s">
+      <c r="AC127" s="206" t="s">
         <v>3178</v>
       </c>
-      <c r="AD127" s="207" t="s">
+      <c r="AD127" s="206" t="s">
         <v>3179</v>
       </c>
-      <c r="AE127" s="207" t="s">
+      <c r="AE127" s="206" t="s">
         <v>3180</v>
       </c>
-      <c r="AF127" s="207" t="s">
+      <c r="AF127" s="206" t="s">
         <v>3181</v>
       </c>
-      <c r="AG127" s="207" t="s">
+      <c r="AG127" s="206" t="s">
         <v>3164</v>
       </c>
-      <c r="AH127" s="207" t="s">
+      <c r="AH127" s="206" t="s">
         <v>3182</v>
       </c>
-      <c r="AI127" s="207" t="s">
+      <c r="AI127" s="206" t="s">
         <v>3183</v>
       </c>
-      <c r="AJ127" s="207" t="s">
+      <c r="AJ127" s="206" t="s">
         <v>3184</v>
       </c>
-      <c r="AK127" s="207" t="s">
+      <c r="AK127" s="206" t="s">
         <v>3185</v>
       </c>
-      <c r="AL127" s="207" t="s">
+      <c r="AL127" s="206" t="s">
         <v>3186</v>
       </c>
-      <c r="AM127" s="207" t="s">
+      <c r="AM127" s="206" t="s">
         <v>3187</v>
       </c>
-      <c r="AN127" s="207" t="s">
+      <c r="AN127" s="206" t="s">
         <v>3188</v>
       </c>
-      <c r="AO127" s="207" t="s">
+      <c r="AO127" s="206" t="s">
         <v>3189</v>
       </c>
-      <c r="AP127" s="207" t="s">
+      <c r="AP127" s="206" t="s">
         <v>3190</v>
       </c>
-      <c r="AQ127" s="207" t="s">
+      <c r="AQ127" s="206" t="s">
         <v>3191</v>
       </c>
-      <c r="AR127" s="207" t="s">
+      <c r="AR127" s="206" t="s">
         <v>3192</v>
       </c>
-      <c r="AS127" s="207" t="s">
+      <c r="AS127" s="206" t="s">
         <v>3193</v>
       </c>
-      <c r="AT127" s="207" t="s">
+      <c r="AT127" s="206" t="s">
         <v>3194</v>
       </c>
-      <c r="AU127" s="207" t="s">
+      <c r="AU127" s="206" t="s">
         <v>3195</v>
       </c>
-      <c r="AV127" s="207" t="s">
+      <c r="AV127" s="206" t="s">
         <v>3196</v>
       </c>
-      <c r="AW127" s="207" t="s">
+      <c r="AW127" s="206" t="s">
         <v>3197</v>
       </c>
-      <c r="AX127" s="207" t="s">
+      <c r="AX127" s="206" t="s">
         <v>3198</v>
       </c>
-      <c r="AY127" s="207" t="s">
+      <c r="AY127" s="206" t="s">
         <v>3199</v>
       </c>
-      <c r="AZ127" s="207" t="s">
+      <c r="AZ127" s="206" t="s">
         <v>3200</v>
       </c>
-      <c r="BA127" s="207" t="s">
+      <c r="BA127" s="206" t="s">
         <v>3185</v>
       </c>
-      <c r="BB127" s="207" t="s">
+      <c r="BB127" s="206" t="s">
         <v>888</v>
       </c>
-      <c r="BC127" s="207" t="s">
+      <c r="BC127" s="206" t="s">
         <v>3201</v>
       </c>
-      <c r="BD127" s="207" t="s">
+      <c r="BD127" s="206" t="s">
         <v>3202</v>
       </c>
-      <c r="BE127" s="207" t="s">
+      <c r="BE127" s="206" t="s">
         <v>3203</v>
       </c>
-      <c r="BF127" s="207" t="s">
+      <c r="BF127" s="206" t="s">
         <v>3204</v>
       </c>
-      <c r="BG127" s="207" t="s">
+      <c r="BG127" s="206" t="s">
         <v>3160</v>
       </c>
-      <c r="BH127" s="207" t="s">
+      <c r="BH127" s="206" t="s">
         <v>3205</v>
       </c>
-      <c r="BI127" s="207" t="s">
+      <c r="BI127" s="206" t="s">
         <v>3197</v>
       </c>
-      <c r="BJ127" s="207" t="s">
+      <c r="BJ127" s="206" t="s">
         <v>3206</v>
       </c>
-      <c r="BK127" s="207" t="s">
+      <c r="BK127" s="206" t="s">
         <v>3207</v>
       </c>
-      <c r="BL127" s="207" t="s">
+      <c r="BL127" s="206" t="s">
         <v>3208</v>
       </c>
-      <c r="BM127" s="207" t="s">
+      <c r="BM127" s="206" t="s">
         <v>3209</v>
       </c>
-      <c r="BN127" s="207" t="s">
+      <c r="BN127" s="206" t="s">
         <v>3210</v>
       </c>
-      <c r="BO127" s="207" t="s">
+      <c r="BO127" s="206" t="s">
         <v>3211</v>
       </c>
-      <c r="BP127" s="207" t="s">
+      <c r="BP127" s="206" t="s">
         <v>3212</v>
       </c>
-      <c r="BQ127" s="207" t="s">
+      <c r="BQ127" s="206" t="s">
         <v>3213</v>
       </c>
-      <c r="BR127" s="207" t="s">
+      <c r="BR127" s="206" t="s">
         <v>3214</v>
       </c>
-      <c r="BS127" s="207" t="s">
+      <c r="BS127" s="206" t="s">
         <v>3215</v>
       </c>
-      <c r="BT127" s="207" t="s">
+      <c r="BT127" s="206" t="s">
         <v>3216</v>
       </c>
-      <c r="BU127" s="207" t="s">
+      <c r="BU127" s="206" t="s">
         <v>3217</v>
       </c>
-      <c r="BV127" s="207" t="s">
+      <c r="BV127" s="206" t="s">
         <v>3218</v>
       </c>
-      <c r="BW127" s="207" t="s">
+      <c r="BW127" s="206" t="s">
         <v>3219</v>
       </c>
-      <c r="BX127" s="207" t="s">
+      <c r="BX127" s="206" t="s">
         <v>3220</v>
       </c>
-      <c r="BY127" s="208" t="s">
+      <c r="BY127" s="207" t="s">
         <v>3221</v>
       </c>
-      <c r="BZ127" s="207" t="s">
+      <c r="BZ127" s="206" t="s">
         <v>3209</v>
       </c>
-      <c r="CA127" s="207" t="s">
+      <c r="CA127" s="206" t="s">
         <v>3222</v>
       </c>
-      <c r="CB127" s="207" t="s">
+      <c r="CB127" s="206" t="s">
         <v>3223</v>
       </c>
-      <c r="CC127" s="207" t="s">
+      <c r="CC127" s="206" t="s">
         <v>3224</v>
       </c>
-      <c r="CD127" s="207" t="s">
+      <c r="CD127" s="206" t="s">
         <v>3225</v>
       </c>
-      <c r="CE127" s="207" t="s">
+      <c r="CE127" s="206" t="s">
         <v>3226</v>
       </c>
-      <c r="CF127" s="207" t="s">
+      <c r="CF127" s="206" t="s">
         <v>3227</v>
       </c>
-      <c r="CG127" s="207" t="s">
+      <c r="CG127" s="206" t="s">
         <v>3228</v>
       </c>
-      <c r="CH127" s="207" t="s">
+      <c r="CH127" s="206" t="s">
         <v>3229</v>
       </c>
-      <c r="CI127" s="207" t="s">
+      <c r="CI127" s="206" t="s">
         <v>3230</v>
       </c>
-      <c r="CJ127" s="207" t="s">
+      <c r="CJ127" s="206" t="s">
         <v>3231</v>
       </c>
-      <c r="CK127" s="207" t="s">
+      <c r="CK127" s="206" t="s">
         <v>3232</v>
       </c>
-      <c r="CL127" s="207" t="s">
+      <c r="CL127" s="206" t="s">
         <v>3233</v>
       </c>
-      <c r="CM127" s="207" t="s">
+      <c r="CM127" s="206" t="s">
         <v>3234</v>
       </c>
-      <c r="CN127" s="207" t="s">
+      <c r="CN127" s="206" t="s">
         <v>3235</v>
       </c>
-      <c r="CO127" s="207" t="s">
+      <c r="CO127" s="206" t="s">
         <v>3236</v>
       </c>
-      <c r="CP127" s="207" t="s">
+      <c r="CP127" s="206" t="s">
         <v>3237</v>
       </c>
-      <c r="CQ127" s="207" t="s">
+      <c r="CQ127" s="206" t="s">
         <v>3200</v>
       </c>
-      <c r="CR127" s="207" t="s">
+      <c r="CR127" s="206" t="s">
         <v>3238</v>
       </c>
-      <c r="CS127" s="207" t="s">
+      <c r="CS127" s="206" t="s">
         <v>3239</v>
       </c>
-      <c r="CT127" s="207" t="s">
+      <c r="CT127" s="206" t="s">
         <v>3240</v>
       </c>
-      <c r="CU127" s="207" t="s">
+      <c r="CU127" s="206" t="s">
         <v>3241</v>
       </c>
-      <c r="CV127" s="207" t="s">
+      <c r="CV127" s="206" t="s">
         <v>3242</v>
       </c>
-      <c r="CW127" s="207" t="s">
+      <c r="CW127" s="206" t="s">
         <v>3243</v>
       </c>
-      <c r="CX127" s="207" t="s">
+      <c r="CX127" s="206" t="s">
         <v>3244</v>
       </c>
-      <c r="CY127" s="207" t="s">
+      <c r="CY127" s="206" t="s">
         <v>3245</v>
       </c>
-      <c r="CZ127" s="207" t="s">
+      <c r="CZ127" s="206" t="s">
         <v>3246</v>
       </c>
-      <c r="DA127" s="207" t="s">
+      <c r="DA127" s="206" t="s">
         <v>3247</v>
       </c>
-      <c r="DB127" s="207" t="s">
+      <c r="DB127" s="206" t="s">
         <v>3248</v>
       </c>
-      <c r="DC127" s="207" t="s">
+      <c r="DC127" s="206" t="s">
         <v>3249</v>
       </c>
-      <c r="DD127" s="207" t="s">
+      <c r="DD127" s="206" t="s">
         <v>3250</v>
       </c>
-      <c r="DE127" s="207" t="s">
+      <c r="DE127" s="206" t="s">
         <v>3251</v>
       </c>
-      <c r="DF127" s="207" t="s">
+      <c r="DF127" s="206" t="s">
         <v>3252</v>
       </c>
-      <c r="DG127" s="207" t="s">
+      <c r="DG127" s="206" t="s">
         <v>3253</v>
       </c>
-      <c r="DH127" s="207" t="s">
+      <c r="DH127" s="206" t="s">
         <v>3254</v>
       </c>
-      <c r="DI127" s="207" t="s">
+      <c r="DI127" s="206" t="s">
         <v>3255</v>
       </c>
-      <c r="DJ127" s="208" t="s">
+      <c r="DJ127" s="207" t="s">
         <v>3256</v>
       </c>
-      <c r="DK127" s="207" t="s">
+      <c r="DK127" s="206" t="s">
         <v>3257</v>
       </c>
-      <c r="DL127" s="207" t="s">
+      <c r="DL127" s="206" t="s">
         <v>3258</v>
       </c>
-      <c r="DM127" s="207" t="s">
+      <c r="DM127" s="206" t="s">
         <v>3259</v>
       </c>
-      <c r="DN127" s="207" t="s">
+      <c r="DN127" s="206" t="s">
         <v>3260</v>
       </c>
-      <c r="DO127" s="207" t="s">
+      <c r="DO127" s="206" t="s">
         <v>3261</v>
       </c>
-      <c r="DP127" s="207" t="s">
+      <c r="DP127" s="206" t="s">
         <v>3262</v>
       </c>
-      <c r="DQ127" s="207" t="s">
+      <c r="DQ127" s="206" t="s">
         <v>3263</v>
       </c>
-      <c r="DR127" s="207" t="s">
+      <c r="DR127" s="206" t="s">
         <v>3264</v>
       </c>
-      <c r="DS127" s="207" t="s">
+      <c r="DS127" s="206" t="s">
         <v>3265</v>
       </c>
-      <c r="DT127" s="207" t="s">
+      <c r="DT127" s="206" t="s">
         <v>3266</v>
       </c>
-      <c r="DU127" s="207" t="s">
+      <c r="DU127" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="DV127" s="207" t="s">
+      <c r="DV127" s="206" t="s">
         <v>3267</v>
       </c>
-      <c r="DW127" s="207" t="s">
+      <c r="DW127" s="206" t="s">
         <v>3268</v>
       </c>
-      <c r="DX127" s="207" t="s">
+      <c r="DX127" s="206" t="s">
         <v>3269</v>
       </c>
-      <c r="DY127" s="207" t="s">
+      <c r="DY127" s="206" t="s">
         <v>3270</v>
       </c>
-      <c r="DZ127" s="207" t="s">
+      <c r="DZ127" s="206" t="s">
         <v>3271</v>
       </c>
-      <c r="EA127" s="207" t="s">
+      <c r="EA127" s="206" t="s">
         <v>1031</v>
       </c>
-      <c r="EB127" s="207" t="s">
+      <c r="EB127" s="206" t="s">
         <v>3272</v>
       </c>
-      <c r="EC127" s="207" t="s">
+      <c r="EC127" s="206" t="s">
         <v>3273</v>
       </c>
-      <c r="ED127" s="207" t="s">
+      <c r="ED127" s="206" t="s">
         <v>3274</v>
       </c>
-      <c r="EE127" s="207" t="s">
+      <c r="EE127" s="206" t="s">
         <v>3275</v>
       </c>
-      <c r="EF127" s="207" t="s">
+      <c r="EF127" s="206" t="s">
         <v>2987</v>
       </c>
-      <c r="EG127" s="206" t="s">
+      <c r="EG127" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="EH127" s="206" t="s">
+      <c r="EH127" s="205" t="s">
         <v>111</v>
       </c>
-      <c r="EI127" s="206" t="s">
+      <c r="EI127" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="EJ127" s="209" t="s">
+      <c r="EJ127" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="EK127" s="209" t="s">
+      <c r="EK127" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="EL127" s="206" t="s">
+      <c r="EL127" s="205" t="s">
         <v>237</v>
       </c>
-      <c r="EM127" s="206" t="s">
+      <c r="EM127" s="205" t="s">
         <v>255</v>
       </c>
-      <c r="EN127" s="206" t="s">
+      <c r="EN127" s="205" t="s">
         <v>257</v>
       </c>
-      <c r="EO127" s="206" t="s">
+      <c r="EO127" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="EP127" s="206" t="s">
+      <c r="EP127" s="205" t="s">
         <v>385</v>
       </c>
-      <c r="EQ127" s="206" t="s">
+      <c r="EQ127" s="205" t="s">
         <v>406</v>
       </c>
-      <c r="ER127" s="206" t="s">
+      <c r="ER127" s="205" t="s">
         <v>422</v>
       </c>
-      <c r="ES127" s="206" t="s">
+      <c r="ES127" s="205" t="s">
         <v>423</v>
       </c>
-      <c r="ET127" s="206" t="s">
+      <c r="ET127" s="205" t="s">
         <v>427</v>
       </c>
-      <c r="EU127" s="206" t="s">
+      <c r="EU127" s="205" t="s">
         <v>428</v>
       </c>
-      <c r="EV127" s="206" t="s">
+      <c r="EV127" s="205" t="s">
         <v>237</v>
       </c>
-      <c r="EW127" s="206" t="s">
+      <c r="EW127" s="205" t="s">
         <v>459</v>
       </c>
-      <c r="EX127" s="206" t="s">
+      <c r="EX127" s="205" t="s">
         <v>488</v>
       </c>
-      <c r="EY127" s="206" t="s">
+      <c r="EY127" s="205" t="s">
         <v>490</v>
       </c>
-      <c r="EZ127" s="206" t="s">
+      <c r="EZ127" s="205" t="s">
         <v>492</v>
       </c>
-      <c r="FA127" s="206" t="s">
+      <c r="FA127" s="205" t="s">
         <v>551</v>
       </c>
-      <c r="FB127" s="206" t="s">
+      <c r="FB127" s="205" t="s">
         <v>567</v>
       </c>
-      <c r="FC127" s="206" t="s">
+      <c r="FC127" s="205" t="s">
         <v>3974</v>
       </c>
-      <c r="FD127" s="206" t="s">
+      <c r="FD127" s="205" t="s">
         <v>3975</v>
       </c>
-      <c r="FE127" s="206" t="s">
+      <c r="FE127" s="205" t="s">
         <v>3976</v>
       </c>
-      <c r="FF127" s="206" t="s">
+      <c r="FF127" s="205" t="s">
         <v>3977</v>
       </c>
-      <c r="FG127" s="206" t="s">
+      <c r="FG127" s="205" t="s">
         <v>2253</v>
       </c>
-      <c r="FH127" s="206" t="s">
+      <c r="FH127" s="205" t="s">
         <v>3973</v>
       </c>
-      <c r="FI127" s="206" t="s">
+      <c r="FI127" s="205" t="s">
         <v>3979</v>
       </c>
-      <c r="FJ127" s="206" t="s">
+      <c r="FJ127" s="205" t="s">
         <v>3980</v>
       </c>
-      <c r="FK127" s="206" t="s">
+      <c r="FK127" s="205" t="s">
         <v>3978</v>
       </c>
-      <c r="FL127" s="206" t="s">
+      <c r="FL127" s="205" t="s">
         <v>3981</v>
       </c>
-      <c r="FM127" s="206" t="s">
+      <c r="FM127" s="205" t="s">
         <v>3982</v>
       </c>
-      <c r="FN127" s="211"/>
-      <c r="FO127" s="211"/>
-      <c r="FP127" s="211"/>
-      <c r="FQ127" s="211"/>
-      <c r="FR127" s="211"/>
-      <c r="FS127" s="211"/>
-      <c r="FT127" s="211"/>
-      <c r="FU127" s="211"/>
-      <c r="FV127" s="211"/>
-      <c r="FW127" s="211"/>
-      <c r="FX127" s="206"/>
-      <c r="FY127" s="206"/>
-      <c r="FZ127" s="206"/>
-      <c r="GA127" s="206"/>
-      <c r="GB127" s="206"/>
-      <c r="GC127" s="206"/>
-      <c r="GD127" s="206"/>
-      <c r="GE127" s="206"/>
-      <c r="GF127" s="206"/>
-      <c r="GG127" s="206"/>
-      <c r="GH127" s="206"/>
-      <c r="GI127" s="206"/>
-      <c r="GJ127" s="206"/>
-      <c r="GK127" s="206"/>
-      <c r="GL127" s="206"/>
-      <c r="GM127" s="206"/>
-      <c r="GN127" s="206"/>
-      <c r="GO127" s="206"/>
-      <c r="GP127" s="206"/>
-      <c r="GQ127" s="206"/>
-      <c r="GR127" s="206"/>
-      <c r="GS127" s="206"/>
-      <c r="GT127" s="206"/>
-      <c r="GU127" s="206"/>
-      <c r="GV127" s="206"/>
-      <c r="GW127" s="206"/>
-      <c r="GX127" s="206"/>
-      <c r="GY127" s="206"/>
-      <c r="GZ127" s="206"/>
-      <c r="HA127" s="206"/>
-      <c r="HB127" s="206"/>
-      <c r="HC127" s="206"/>
-      <c r="HD127" s="206"/>
-      <c r="HE127" s="206"/>
-      <c r="HF127" s="206"/>
-      <c r="HG127" s="206"/>
-      <c r="HH127" s="206"/>
-      <c r="HI127" s="206"/>
-      <c r="HJ127" s="206"/>
-      <c r="HK127" s="206"/>
-      <c r="HL127" s="206"/>
-      <c r="HM127" s="206"/>
-      <c r="HN127" s="206"/>
-      <c r="HO127" s="206"/>
-      <c r="HP127" s="206"/>
-      <c r="HQ127" s="206"/>
-      <c r="HR127" s="206"/>
-      <c r="HS127" s="206"/>
-      <c r="HT127" s="206"/>
-      <c r="HU127" s="206"/>
-      <c r="HV127" s="206"/>
-      <c r="HW127" s="206"/>
-      <c r="HX127" s="206"/>
-      <c r="HY127" s="206"/>
-      <c r="HZ127" s="206"/>
-      <c r="IA127" s="206"/>
-      <c r="IB127" s="206"/>
-      <c r="IC127" s="206"/>
-      <c r="ID127" s="206"/>
-      <c r="IE127" s="206"/>
-      <c r="IF127" s="206"/>
-      <c r="IG127" s="206"/>
-      <c r="IH127" s="206"/>
-      <c r="II127" s="206"/>
-      <c r="IJ127" s="206"/>
-      <c r="IK127" s="206"/>
-      <c r="IL127" s="206"/>
-      <c r="IM127" s="206"/>
-      <c r="IN127" s="206"/>
-      <c r="IO127" s="206"/>
-      <c r="IP127" s="206"/>
-      <c r="IQ127" s="206"/>
-      <c r="IR127" s="206"/>
-      <c r="IS127" s="206"/>
-      <c r="IT127" s="206"/>
-      <c r="IU127" s="206"/>
-      <c r="IV127" s="206"/>
-      <c r="IW127" s="206"/>
-      <c r="IX127" s="206"/>
-      <c r="IY127" s="206"/>
-      <c r="IZ127" s="206"/>
-      <c r="JA127" s="206"/>
-      <c r="JB127" s="206"/>
-      <c r="JC127" s="206"/>
-      <c r="JD127" s="206"/>
-      <c r="JE127" s="206"/>
-      <c r="JF127" s="206"/>
-      <c r="JG127" s="206"/>
-      <c r="JH127" s="206"/>
-      <c r="JI127" s="206"/>
-      <c r="JJ127" s="206"/>
-      <c r="JK127" s="206"/>
-      <c r="JL127" s="206"/>
-      <c r="JM127" s="206"/>
-      <c r="JN127" s="206"/>
-      <c r="JO127" s="206"/>
-      <c r="JP127" s="206"/>
-      <c r="JQ127" s="206"/>
-      <c r="JR127" s="206"/>
-      <c r="JS127" s="206"/>
-      <c r="JT127" s="206"/>
-      <c r="JU127" s="206"/>
-      <c r="JV127" s="206"/>
-      <c r="JW127" s="206"/>
-      <c r="JX127" s="206"/>
-      <c r="JY127" s="206"/>
-      <c r="JZ127" s="206"/>
-      <c r="KA127" s="206"/>
-      <c r="KB127" s="206"/>
-      <c r="KC127" s="206"/>
-      <c r="KD127" s="206"/>
-      <c r="KE127" s="206"/>
-      <c r="KF127" s="206"/>
-      <c r="KG127" s="206"/>
-      <c r="KH127" s="206"/>
-      <c r="KI127" s="206"/>
-      <c r="KJ127" s="206"/>
-      <c r="KK127" s="206"/>
-      <c r="KL127" s="206"/>
-      <c r="KM127" s="206"/>
-      <c r="KN127" s="206"/>
-      <c r="KO127" s="206"/>
-      <c r="KP127" s="206"/>
-      <c r="KQ127" s="206"/>
-      <c r="KR127" s="206"/>
-      <c r="KS127" s="206"/>
-      <c r="KT127" s="206"/>
-      <c r="KU127" s="206"/>
-      <c r="KV127" s="206"/>
-      <c r="KW127" s="206"/>
-      <c r="KX127" s="206"/>
-      <c r="KY127" s="206"/>
-      <c r="KZ127" s="206"/>
-      <c r="LA127" s="206"/>
-      <c r="LB127" s="206"/>
-      <c r="LC127" s="206"/>
-      <c r="LD127" s="206"/>
-      <c r="LE127" s="206"/>
-      <c r="LF127" s="206"/>
-      <c r="LG127" s="206"/>
-      <c r="LH127" s="206"/>
-      <c r="LI127" s="206"/>
-      <c r="LJ127" s="206"/>
-      <c r="LK127" s="206"/>
-      <c r="LL127" s="206"/>
-      <c r="LM127" s="206"/>
-      <c r="LN127" s="206"/>
-      <c r="LO127" s="206"/>
-      <c r="LP127" s="206"/>
-      <c r="LQ127" s="206"/>
-      <c r="LR127" s="206"/>
-      <c r="LS127" s="206"/>
-      <c r="LT127" s="206"/>
-      <c r="LU127" s="206"/>
-      <c r="LV127" s="206"/>
-      <c r="LW127" s="206"/>
-      <c r="LX127" s="206"/>
-      <c r="LY127" s="206"/>
-      <c r="LZ127" s="206"/>
-      <c r="MA127" s="206"/>
-      <c r="MB127" s="206"/>
-      <c r="MC127" s="206"/>
-      <c r="MD127" s="206"/>
-      <c r="ME127" s="206"/>
-      <c r="MF127" s="206"/>
-      <c r="MG127" s="206"/>
-      <c r="MH127" s="206"/>
-      <c r="MI127" s="206"/>
-      <c r="MJ127" s="206"/>
-      <c r="MK127" s="206"/>
-      <c r="ML127" s="206"/>
-      <c r="MM127" s="206"/>
-      <c r="MN127" s="206"/>
-      <c r="MO127" s="206"/>
-      <c r="MP127" s="206"/>
-      <c r="MQ127" s="206"/>
-      <c r="MR127" s="206"/>
-      <c r="MS127" s="206"/>
-      <c r="MT127" s="206"/>
-      <c r="MU127" s="206"/>
-      <c r="MV127" s="206"/>
-      <c r="MW127" s="206"/>
-      <c r="MX127" s="206"/>
-      <c r="MY127" s="206"/>
-      <c r="MZ127" s="206"/>
-      <c r="NA127" s="206"/>
-      <c r="NB127" s="206"/>
-      <c r="NC127" s="206"/>
-      <c r="ND127" s="206"/>
-      <c r="NE127" s="206"/>
-      <c r="NF127" s="206"/>
-      <c r="NG127" s="206"/>
-      <c r="NH127" s="206"/>
-      <c r="NI127" s="206"/>
-      <c r="NJ127" s="206"/>
-      <c r="NK127" s="206"/>
-      <c r="NL127" s="206"/>
-      <c r="NM127" s="206"/>
-      <c r="NN127" s="206"/>
-      <c r="NO127" s="206"/>
-      <c r="NP127" s="206"/>
-      <c r="NQ127" s="206"/>
-      <c r="NR127" s="206"/>
-      <c r="NS127" s="206"/>
-      <c r="NT127" s="206"/>
-      <c r="NU127" s="206"/>
-      <c r="NV127" s="206"/>
-      <c r="NW127" s="206"/>
-      <c r="NX127" s="206"/>
-      <c r="NY127" s="206"/>
-      <c r="NZ127" s="206"/>
-      <c r="OA127" s="206"/>
-      <c r="OB127" s="206"/>
-      <c r="OC127" s="206"/>
-      <c r="OD127" s="206"/>
-      <c r="OE127" s="206"/>
-      <c r="OF127" s="206"/>
-      <c r="OG127" s="206"/>
-      <c r="OH127" s="206"/>
-      <c r="OI127" s="206"/>
-      <c r="OJ127" s="206"/>
-      <c r="OK127" s="206"/>
-      <c r="OL127" s="206"/>
-      <c r="OM127" s="206"/>
-      <c r="ON127" s="206"/>
-      <c r="OO127" s="206"/>
-      <c r="OP127" s="206"/>
-      <c r="OQ127" s="206"/>
-      <c r="OR127" s="206"/>
-      <c r="OS127" s="206"/>
-      <c r="OT127" s="206"/>
-      <c r="OU127" s="206"/>
-      <c r="OV127" s="206"/>
-      <c r="OW127" s="206"/>
-      <c r="OX127" s="206"/>
-      <c r="OY127" s="206"/>
-      <c r="OZ127" s="206"/>
-      <c r="PA127" s="206"/>
-      <c r="PB127" s="206"/>
-      <c r="PC127" s="206"/>
-      <c r="PD127" s="206"/>
-      <c r="PE127" s="206"/>
-      <c r="PF127" s="206"/>
-      <c r="PG127" s="206"/>
-      <c r="PH127" s="206"/>
-      <c r="PI127" s="206"/>
-      <c r="PJ127" s="206"/>
-      <c r="PK127" s="206"/>
-      <c r="PL127" s="206"/>
-      <c r="PM127" s="206"/>
-      <c r="PN127" s="206"/>
-      <c r="PO127" s="206"/>
-      <c r="PP127" s="206"/>
-      <c r="PQ127" s="206"/>
-      <c r="PR127" s="206"/>
-      <c r="PS127" s="206"/>
-      <c r="PT127" s="206"/>
-      <c r="PU127" s="206"/>
-      <c r="PV127" s="206"/>
-      <c r="PW127" s="206"/>
-      <c r="PX127" s="206"/>
-      <c r="PY127" s="206"/>
-      <c r="PZ127" s="206"/>
-      <c r="QA127" s="206"/>
-      <c r="QB127" s="206"/>
-      <c r="QC127" s="206"/>
-      <c r="QD127" s="206"/>
-      <c r="QE127" s="206"/>
-      <c r="QF127" s="206"/>
-      <c r="QG127" s="206"/>
-      <c r="QH127" s="206"/>
-      <c r="QI127" s="206"/>
-      <c r="QJ127" s="206"/>
-      <c r="QK127" s="206"/>
-      <c r="QL127" s="206"/>
-      <c r="QM127" s="206"/>
-      <c r="QN127" s="206"/>
-      <c r="QO127" s="206"/>
-      <c r="QP127" s="206"/>
-      <c r="QQ127" s="206"/>
-      <c r="QR127" s="206"/>
-      <c r="QS127" s="206"/>
-      <c r="QT127" s="206"/>
-      <c r="QU127" s="206"/>
-      <c r="QV127" s="206"/>
-      <c r="QW127" s="206"/>
-      <c r="QX127" s="206"/>
-      <c r="QY127" s="206"/>
-      <c r="QZ127" s="206"/>
-      <c r="RA127" s="206"/>
-      <c r="RB127" s="206"/>
-      <c r="RC127" s="206"/>
-      <c r="RD127" s="206"/>
-      <c r="RE127" s="206"/>
-      <c r="RF127" s="206"/>
-      <c r="RG127" s="206"/>
-      <c r="RH127" s="206"/>
-      <c r="RI127" s="206"/>
-      <c r="RJ127" s="206"/>
-      <c r="RK127" s="206"/>
-      <c r="RL127" s="206"/>
-      <c r="RM127" s="206"/>
-      <c r="RN127" s="206"/>
-      <c r="RO127" s="206"/>
-      <c r="RP127" s="206"/>
-      <c r="RQ127" s="206"/>
-      <c r="RR127" s="206"/>
-      <c r="RS127" s="206"/>
-      <c r="RT127" s="206"/>
-      <c r="RU127" s="206"/>
-      <c r="RV127" s="206"/>
-      <c r="RW127" s="206"/>
-      <c r="RX127" s="206"/>
-      <c r="RY127" s="206"/>
-      <c r="RZ127" s="206"/>
-      <c r="SA127" s="206"/>
-      <c r="SB127" s="206"/>
-      <c r="SC127" s="206"/>
-      <c r="SD127" s="206"/>
-      <c r="SE127" s="206"/>
-      <c r="SF127" s="206"/>
-      <c r="SG127" s="206"/>
-      <c r="SH127" s="206"/>
-      <c r="SI127" s="206"/>
-      <c r="SJ127" s="206"/>
-      <c r="SK127" s="206"/>
-      <c r="SL127" s="206"/>
-      <c r="SM127" s="206"/>
-      <c r="SN127" s="206"/>
-      <c r="SO127" s="206"/>
-      <c r="SP127" s="206"/>
-      <c r="SQ127" s="206"/>
-      <c r="SR127" s="206"/>
-      <c r="SS127" s="206"/>
-      <c r="ST127" s="206"/>
-      <c r="SU127" s="206"/>
-      <c r="SV127" s="206"/>
-      <c r="SW127" s="206"/>
-      <c r="SX127" s="206"/>
-      <c r="SY127" s="206"/>
-      <c r="SZ127" s="206"/>
-      <c r="TA127" s="206"/>
-      <c r="TB127" s="206"/>
-      <c r="TC127" s="206"/>
-      <c r="TD127" s="206"/>
-      <c r="TE127" s="206"/>
-      <c r="TF127" s="206"/>
-      <c r="TG127" s="206"/>
-      <c r="TH127" s="206"/>
-      <c r="TI127" s="206"/>
-      <c r="TJ127" s="206"/>
-      <c r="TK127" s="206"/>
-      <c r="TL127" s="206"/>
-      <c r="TM127" s="206"/>
-      <c r="TN127" s="206"/>
-      <c r="TO127" s="206"/>
-      <c r="TP127" s="206"/>
-      <c r="TQ127" s="206"/>
-      <c r="TR127" s="206"/>
-      <c r="TS127" s="206"/>
-      <c r="TT127" s="206"/>
-      <c r="TU127" s="206"/>
-      <c r="TV127" s="206"/>
-      <c r="TW127" s="206"/>
-      <c r="TX127" s="206"/>
-      <c r="TY127" s="206"/>
-      <c r="TZ127" s="206"/>
-      <c r="UA127" s="206"/>
-      <c r="UB127" s="206"/>
-      <c r="UC127" s="206"/>
-      <c r="UD127" s="206"/>
-      <c r="UE127" s="206"/>
-      <c r="UF127" s="206"/>
-      <c r="UG127" s="206"/>
-      <c r="UH127" s="206"/>
-      <c r="UI127" s="206"/>
-      <c r="UJ127" s="206"/>
-      <c r="UK127" s="206"/>
-      <c r="UL127" s="206"/>
-      <c r="UM127" s="206"/>
-      <c r="UN127" s="206"/>
-      <c r="UO127" s="206"/>
-      <c r="UP127" s="206"/>
-      <c r="UQ127" s="206"/>
-      <c r="UR127" s="206"/>
-      <c r="US127" s="206"/>
-      <c r="UT127" s="206"/>
-      <c r="UU127" s="206"/>
-      <c r="UV127" s="206"/>
-      <c r="UW127" s="206"/>
-      <c r="UX127" s="206"/>
-      <c r="UY127" s="206"/>
-      <c r="UZ127" s="206"/>
-      <c r="VA127" s="206"/>
-      <c r="VB127" s="206"/>
-      <c r="VC127" s="206"/>
-      <c r="VD127" s="206"/>
-      <c r="VE127" s="206"/>
-      <c r="VF127" s="206"/>
-      <c r="VG127" s="206"/>
-      <c r="VH127" s="206"/>
-      <c r="VI127" s="206"/>
-      <c r="VJ127" s="206"/>
-      <c r="VK127" s="206"/>
-      <c r="VL127" s="206"/>
-      <c r="VM127" s="206"/>
-      <c r="VN127" s="206"/>
-      <c r="VO127" s="206"/>
-      <c r="VP127" s="206"/>
-      <c r="VQ127" s="206"/>
-      <c r="VR127" s="206"/>
-      <c r="VS127" s="206"/>
-      <c r="VT127" s="206"/>
-      <c r="VU127" s="206"/>
-      <c r="VV127" s="206"/>
-      <c r="VW127" s="206"/>
-      <c r="VX127" s="206"/>
-      <c r="VY127" s="206"/>
-      <c r="VZ127" s="206"/>
-      <c r="WA127" s="206"/>
-      <c r="WB127" s="206"/>
-      <c r="WC127" s="206"/>
-      <c r="WD127" s="206"/>
-      <c r="WE127" s="206"/>
-      <c r="WF127" s="206"/>
-      <c r="WG127" s="206"/>
-      <c r="WH127" s="206"/>
-      <c r="WI127" s="206"/>
-      <c r="WJ127" s="206"/>
-      <c r="WK127" s="206"/>
-      <c r="WL127" s="206"/>
-      <c r="WM127" s="206"/>
-      <c r="WN127" s="206"/>
-      <c r="WO127" s="206"/>
-      <c r="WP127" s="206"/>
-      <c r="WQ127" s="206"/>
-      <c r="WR127" s="206"/>
-      <c r="WS127" s="206"/>
-      <c r="WT127" s="206"/>
-      <c r="WU127" s="206"/>
-      <c r="WV127" s="206"/>
-      <c r="WW127" s="206"/>
-      <c r="WX127" s="206"/>
-      <c r="WY127" s="206"/>
-      <c r="WZ127" s="206"/>
-      <c r="XA127" s="206"/>
-      <c r="XB127" s="206"/>
-      <c r="XC127" s="206"/>
-      <c r="XD127" s="206"/>
-      <c r="XE127" s="206"/>
-      <c r="XF127" s="206"/>
-      <c r="XG127" s="206"/>
-      <c r="XH127" s="206"/>
-      <c r="XI127" s="206"/>
-      <c r="XJ127" s="206"/>
-      <c r="XK127" s="206"/>
-      <c r="XL127" s="206"/>
-      <c r="XM127" s="206"/>
-      <c r="XN127" s="206"/>
-      <c r="XO127" s="206"/>
-      <c r="XP127" s="206"/>
-      <c r="XQ127" s="206"/>
-      <c r="XR127" s="206"/>
-      <c r="XS127" s="206"/>
-      <c r="XT127" s="206"/>
-      <c r="XU127" s="206"/>
-      <c r="XV127" s="206"/>
-      <c r="XW127" s="206"/>
-      <c r="XX127" s="206"/>
-      <c r="XY127" s="206"/>
-      <c r="XZ127" s="206"/>
-      <c r="YA127" s="206"/>
-      <c r="YB127" s="206"/>
-      <c r="YC127" s="206"/>
-      <c r="YD127" s="206"/>
-      <c r="YE127" s="206"/>
-      <c r="YF127" s="206"/>
-      <c r="YG127" s="206"/>
-      <c r="YH127" s="206"/>
-      <c r="YI127" s="206"/>
-      <c r="YJ127" s="206"/>
-      <c r="YK127" s="206"/>
-      <c r="YL127" s="206"/>
-      <c r="YM127" s="206"/>
-      <c r="YN127" s="206"/>
-      <c r="YO127" s="206"/>
-      <c r="YP127" s="206"/>
-      <c r="YQ127" s="206"/>
-      <c r="YR127" s="206"/>
-      <c r="YS127" s="206"/>
-      <c r="YT127" s="206"/>
-      <c r="YU127" s="206"/>
-      <c r="YV127" s="206"/>
-      <c r="YW127" s="206"/>
-      <c r="YX127" s="206"/>
-      <c r="YY127" s="206"/>
-      <c r="YZ127" s="206"/>
-      <c r="ZA127" s="206"/>
-      <c r="ZB127" s="206"/>
-      <c r="ZC127" s="206"/>
-      <c r="ZD127" s="206"/>
-      <c r="ZE127" s="206"/>
-      <c r="ZF127" s="206"/>
-      <c r="ZG127" s="206"/>
-      <c r="ZH127" s="206"/>
-      <c r="ZI127" s="206"/>
-      <c r="ZJ127" s="206"/>
-      <c r="ZK127" s="206"/>
-      <c r="ZL127" s="206"/>
-      <c r="ZM127" s="206"/>
-      <c r="ZN127" s="206"/>
-      <c r="ZO127" s="206"/>
-      <c r="ZP127" s="206"/>
-      <c r="ZQ127" s="206"/>
-      <c r="ZR127" s="206"/>
-      <c r="ZS127" s="206"/>
-      <c r="ZT127" s="206"/>
-      <c r="ZU127" s="206"/>
-      <c r="ZV127" s="206"/>
-      <c r="ZW127" s="206"/>
-      <c r="ZX127" s="206"/>
-      <c r="ZY127" s="206"/>
-      <c r="ZZ127" s="206"/>
-      <c r="AAA127" s="206"/>
-      <c r="AAB127" s="206"/>
-      <c r="AAC127" s="206"/>
-      <c r="AAD127" s="206"/>
-      <c r="AAE127" s="206"/>
-      <c r="AAF127" s="206"/>
-      <c r="AAG127" s="206"/>
-      <c r="AAH127" s="206"/>
-      <c r="AAI127" s="206"/>
-      <c r="AAJ127" s="206"/>
-      <c r="AAK127" s="206"/>
-      <c r="AAL127" s="206"/>
-      <c r="AAM127" s="206"/>
-      <c r="AAN127" s="206"/>
-      <c r="AAO127" s="206"/>
-      <c r="AAP127" s="206"/>
-      <c r="AAQ127" s="206"/>
-      <c r="AAR127" s="206"/>
-      <c r="AAS127" s="206"/>
-      <c r="AAT127" s="206"/>
-      <c r="AAU127" s="206"/>
-      <c r="AAV127" s="206"/>
-      <c r="AAW127" s="206"/>
-      <c r="AAX127" s="206"/>
-      <c r="AAY127" s="206"/>
-      <c r="AAZ127" s="206"/>
-      <c r="ABA127" s="206"/>
-      <c r="ABB127" s="206"/>
-      <c r="ABC127" s="206"/>
-      <c r="ABD127" s="206"/>
-      <c r="ABE127" s="206"/>
-      <c r="ABF127" s="206"/>
-      <c r="ABG127" s="206"/>
-      <c r="ABH127" s="206"/>
-      <c r="ABI127" s="206"/>
-      <c r="ABJ127" s="206"/>
-      <c r="ABK127" s="206"/>
-      <c r="ABL127" s="206"/>
-      <c r="ABM127" s="206"/>
-      <c r="ABN127" s="206"/>
-      <c r="ABO127" s="206"/>
-      <c r="ABP127" s="206"/>
-      <c r="ABQ127" s="206"/>
-      <c r="ABR127" s="206"/>
-      <c r="ABS127" s="206"/>
-      <c r="ABT127" s="206"/>
-      <c r="ABU127" s="206"/>
-      <c r="ABV127" s="206"/>
-      <c r="ABW127" s="206"/>
-      <c r="ABX127" s="206"/>
-      <c r="ABY127" s="206"/>
-      <c r="ABZ127" s="206"/>
-      <c r="ACA127" s="206"/>
-      <c r="ACB127" s="206"/>
-      <c r="ACC127" s="206"/>
-      <c r="ACD127" s="206"/>
-      <c r="ACE127" s="206"/>
-      <c r="ACF127" s="206"/>
-      <c r="ACG127" s="206"/>
-      <c r="ACH127" s="206"/>
-      <c r="ACI127" s="206"/>
-      <c r="ACJ127" s="206"/>
-      <c r="ACK127" s="206"/>
-      <c r="ACL127" s="206"/>
-      <c r="ACM127" s="206"/>
-      <c r="ACN127" s="206"/>
-      <c r="ACO127" s="206"/>
-      <c r="ACP127" s="206"/>
-      <c r="ACQ127" s="206"/>
-      <c r="ACR127" s="206"/>
-      <c r="ACS127" s="206"/>
-      <c r="ACT127" s="206"/>
-      <c r="ACU127" s="206"/>
-      <c r="ACV127" s="206"/>
-      <c r="ACW127" s="206"/>
-      <c r="ACX127" s="206"/>
-      <c r="ACY127" s="206"/>
-      <c r="ACZ127" s="206"/>
-      <c r="ADA127" s="206"/>
-      <c r="ADB127" s="206"/>
-      <c r="ADC127" s="206"/>
-      <c r="ADD127" s="206"/>
-      <c r="ADE127" s="206"/>
-      <c r="ADF127" s="206"/>
-      <c r="ADG127" s="206"/>
-      <c r="ADH127" s="206"/>
-      <c r="ADI127" s="206"/>
-      <c r="ADJ127" s="206"/>
-      <c r="ADK127" s="206"/>
-      <c r="ADL127" s="206"/>
-      <c r="ADM127" s="206"/>
-      <c r="ADN127" s="206"/>
-      <c r="ADO127" s="206"/>
-      <c r="ADP127" s="206"/>
-      <c r="ADQ127" s="206"/>
-      <c r="ADR127" s="206"/>
-      <c r="ADS127" s="206"/>
-      <c r="ADT127" s="206"/>
-      <c r="ADU127" s="206"/>
-      <c r="ADV127" s="206"/>
-      <c r="ADW127" s="206"/>
-      <c r="ADX127" s="206"/>
-      <c r="ADY127" s="206"/>
-      <c r="ADZ127" s="206"/>
-      <c r="AEA127" s="206"/>
-      <c r="AEB127" s="206"/>
-      <c r="AEC127" s="206"/>
-      <c r="AED127" s="206"/>
-      <c r="AEE127" s="206"/>
-      <c r="AEF127" s="206"/>
-      <c r="AEG127" s="206"/>
-      <c r="AEH127" s="206"/>
-      <c r="AEI127" s="206"/>
-      <c r="AEJ127" s="206"/>
-      <c r="AEK127" s="206"/>
-      <c r="AEL127" s="206"/>
-      <c r="AEM127" s="206"/>
-      <c r="AEN127" s="206"/>
-      <c r="AEO127" s="206"/>
-      <c r="AEP127" s="206"/>
-      <c r="AEQ127" s="206"/>
-      <c r="AER127" s="206"/>
-      <c r="AES127" s="206"/>
-      <c r="AET127" s="206"/>
-      <c r="AEU127" s="206"/>
-      <c r="AEV127" s="206"/>
-      <c r="AEW127" s="206"/>
-      <c r="AEX127" s="206"/>
-      <c r="AEY127" s="206"/>
-      <c r="AEZ127" s="206"/>
-      <c r="AFA127" s="206"/>
-      <c r="AFB127" s="206"/>
-      <c r="AFC127" s="206"/>
-      <c r="AFD127" s="206"/>
-      <c r="AFE127" s="206"/>
-      <c r="AFF127" s="206"/>
-      <c r="AFG127" s="206"/>
-      <c r="AFH127" s="206"/>
-      <c r="AFI127" s="206"/>
-      <c r="AFJ127" s="206"/>
-      <c r="AFK127" s="206"/>
-      <c r="AFL127" s="206"/>
-      <c r="AFM127" s="206"/>
-      <c r="AFN127" s="206"/>
-      <c r="AFO127" s="206"/>
-      <c r="AFP127" s="206"/>
-      <c r="AFQ127" s="206"/>
-      <c r="AFR127" s="206"/>
-      <c r="AFS127" s="206"/>
-      <c r="AFT127" s="206"/>
-      <c r="AFU127" s="206"/>
-      <c r="AFV127" s="206"/>
-      <c r="AFW127" s="206"/>
-      <c r="AFX127" s="206"/>
-      <c r="AFY127" s="206"/>
-      <c r="AFZ127" s="206"/>
-      <c r="AGA127" s="206"/>
-      <c r="AGB127" s="206"/>
-      <c r="AGC127" s="206"/>
-      <c r="AGD127" s="206"/>
-      <c r="AGE127" s="206"/>
-      <c r="AGF127" s="206"/>
-      <c r="AGG127" s="206"/>
-      <c r="AGH127" s="206"/>
-      <c r="AGI127" s="206"/>
-      <c r="AGJ127" s="206"/>
-      <c r="AGK127" s="206"/>
-      <c r="AGL127" s="206"/>
-      <c r="AGM127" s="206"/>
-      <c r="AGN127" s="206"/>
-      <c r="AGO127" s="206"/>
-      <c r="AGP127" s="206"/>
-      <c r="AGQ127" s="206"/>
-      <c r="AGR127" s="206"/>
-      <c r="AGS127" s="206"/>
-      <c r="AGT127" s="206"/>
-      <c r="AGU127" s="206"/>
-      <c r="AGV127" s="206"/>
-      <c r="AGW127" s="206"/>
-      <c r="AGX127" s="206"/>
-      <c r="AGY127" s="206"/>
-      <c r="AGZ127" s="206"/>
-      <c r="AHA127" s="206"/>
-      <c r="AHB127" s="206"/>
-      <c r="AHC127" s="206"/>
-      <c r="AHD127" s="206"/>
-      <c r="AHE127" s="206"/>
-      <c r="AHF127" s="206"/>
-      <c r="AHG127" s="206"/>
-      <c r="AHH127" s="206"/>
-      <c r="AHI127" s="206"/>
-      <c r="AHJ127" s="206"/>
-      <c r="AHK127" s="206"/>
-      <c r="AHL127" s="206"/>
-      <c r="AHM127" s="206"/>
-      <c r="AHN127" s="206"/>
-      <c r="AHO127" s="206"/>
-      <c r="AHP127" s="206"/>
-      <c r="AHQ127" s="206"/>
-      <c r="AHR127" s="206"/>
-      <c r="AHS127" s="206"/>
-      <c r="AHT127" s="206"/>
-      <c r="AHU127" s="206"/>
-      <c r="AHV127" s="206"/>
-      <c r="AHW127" s="206"/>
-      <c r="AHX127" s="206"/>
-      <c r="AHY127" s="206"/>
-      <c r="AHZ127" s="206"/>
-      <c r="AIA127" s="206"/>
-      <c r="AIB127" s="206"/>
-      <c r="AIC127" s="206"/>
-      <c r="AID127" s="206"/>
-      <c r="AIE127" s="206"/>
-      <c r="AIF127" s="206"/>
-      <c r="AIG127" s="206"/>
-      <c r="AIH127" s="206"/>
-      <c r="AII127" s="206"/>
-      <c r="AIJ127" s="206"/>
-      <c r="AIK127" s="206"/>
-      <c r="AIL127" s="206"/>
-      <c r="AIM127" s="206"/>
-      <c r="AIN127" s="206"/>
-      <c r="AIO127" s="206"/>
-      <c r="AIP127" s="206"/>
-      <c r="AIQ127" s="206"/>
-      <c r="AIR127" s="206"/>
-      <c r="AIS127" s="206"/>
-      <c r="AIT127" s="206"/>
-      <c r="AIU127" s="206"/>
-      <c r="AIV127" s="206"/>
-      <c r="AIW127" s="206"/>
-      <c r="AIX127" s="206"/>
-      <c r="AIY127" s="206"/>
-      <c r="AIZ127" s="206"/>
-      <c r="AJA127" s="206"/>
-      <c r="AJB127" s="206"/>
-      <c r="AJC127" s="206"/>
-      <c r="AJD127" s="206"/>
-      <c r="AJE127" s="206"/>
-      <c r="AJF127" s="206"/>
-      <c r="AJG127" s="206"/>
-      <c r="AJH127" s="206"/>
-      <c r="AJI127" s="206"/>
-      <c r="AJJ127" s="206"/>
-      <c r="AJK127" s="206"/>
-      <c r="AJL127" s="206"/>
-      <c r="AJM127" s="206"/>
-      <c r="AJN127" s="206"/>
-      <c r="AJO127" s="206"/>
-      <c r="AJP127" s="206"/>
-      <c r="AJQ127" s="206"/>
-      <c r="AJR127" s="206"/>
-      <c r="AJS127" s="206"/>
-      <c r="AJT127" s="206"/>
-      <c r="AJU127" s="206"/>
-      <c r="AJV127" s="206"/>
-      <c r="AJW127" s="206"/>
-      <c r="AJX127" s="206"/>
-      <c r="AJY127" s="206"/>
-      <c r="AJZ127" s="206"/>
-      <c r="AKA127" s="206"/>
-      <c r="AKB127" s="206"/>
-      <c r="AKC127" s="206"/>
-      <c r="AKD127" s="206"/>
-      <c r="AKE127" s="206"/>
-      <c r="AKF127" s="206"/>
-      <c r="AKG127" s="206"/>
-      <c r="AKH127" s="206"/>
-      <c r="AKI127" s="206"/>
-      <c r="AKJ127" s="206"/>
-      <c r="AKK127" s="206"/>
-      <c r="AKL127" s="206"/>
-      <c r="AKM127" s="206"/>
-      <c r="AKN127" s="206"/>
-      <c r="AKO127" s="206"/>
-      <c r="AKP127" s="206"/>
-      <c r="AKQ127" s="206"/>
-      <c r="AKR127" s="206"/>
-      <c r="AKS127" s="206"/>
-      <c r="AKT127" s="206"/>
-      <c r="AKU127" s="206"/>
-      <c r="AKV127" s="206"/>
-      <c r="AKW127" s="206"/>
-      <c r="AKX127" s="206"/>
-      <c r="AKY127" s="206"/>
-      <c r="AKZ127" s="206"/>
-      <c r="ALA127" s="206"/>
-      <c r="ALB127" s="206"/>
-      <c r="ALC127" s="206"/>
-      <c r="ALD127" s="206"/>
-      <c r="ALE127" s="206"/>
-      <c r="ALF127" s="206"/>
-      <c r="ALG127" s="206"/>
-      <c r="ALH127" s="206"/>
-      <c r="ALI127" s="206"/>
-      <c r="ALJ127" s="206"/>
-      <c r="ALK127" s="206"/>
-      <c r="ALL127" s="206"/>
-      <c r="ALM127" s="206"/>
-      <c r="ALN127" s="206"/>
-      <c r="ALO127" s="206"/>
-      <c r="ALP127" s="206"/>
-      <c r="ALQ127" s="206"/>
-      <c r="ALR127" s="206"/>
-      <c r="ALS127" s="206"/>
-      <c r="ALT127" s="206"/>
-      <c r="ALU127" s="206"/>
-      <c r="ALV127" s="206"/>
-      <c r="ALW127" s="206"/>
-      <c r="ALX127" s="206"/>
-      <c r="ALY127" s="206"/>
-      <c r="ALZ127" s="206"/>
+      <c r="FN127" s="210"/>
+      <c r="FO127" s="210"/>
+      <c r="FP127" s="210"/>
+      <c r="FQ127" s="210"/>
+      <c r="FR127" s="210"/>
+      <c r="FS127" s="210"/>
+      <c r="FT127" s="210"/>
+      <c r="FU127" s="210"/>
+      <c r="FV127" s="210"/>
+      <c r="FW127" s="210"/>
+      <c r="FX127" s="205"/>
+      <c r="FY127" s="205"/>
+      <c r="FZ127" s="205"/>
+      <c r="GA127" s="205"/>
+      <c r="GB127" s="205"/>
+      <c r="GC127" s="205"/>
+      <c r="GD127" s="205"/>
+      <c r="GE127" s="205"/>
+      <c r="GF127" s="205"/>
+      <c r="GG127" s="205"/>
+      <c r="GH127" s="205"/>
+      <c r="GI127" s="205"/>
+      <c r="GJ127" s="205"/>
+      <c r="GK127" s="205"/>
+      <c r="GL127" s="205"/>
+      <c r="GM127" s="205"/>
+      <c r="GN127" s="205"/>
+      <c r="GO127" s="205"/>
+      <c r="GP127" s="205"/>
+      <c r="GQ127" s="205"/>
+      <c r="GR127" s="205"/>
+      <c r="GS127" s="205"/>
+      <c r="GT127" s="205"/>
+      <c r="GU127" s="205"/>
+      <c r="GV127" s="205"/>
+      <c r="GW127" s="205"/>
+      <c r="GX127" s="205"/>
+      <c r="GY127" s="205"/>
+      <c r="GZ127" s="205"/>
+      <c r="HA127" s="205"/>
+      <c r="HB127" s="205"/>
+      <c r="HC127" s="205"/>
+      <c r="HD127" s="205"/>
+      <c r="HE127" s="205"/>
+      <c r="HF127" s="205"/>
+      <c r="HG127" s="205"/>
+      <c r="HH127" s="205"/>
+      <c r="HI127" s="205"/>
+      <c r="HJ127" s="205"/>
+      <c r="HK127" s="205"/>
+      <c r="HL127" s="205"/>
+      <c r="HM127" s="205"/>
+      <c r="HN127" s="205"/>
+      <c r="HO127" s="205"/>
+      <c r="HP127" s="205"/>
+      <c r="HQ127" s="205"/>
+      <c r="HR127" s="205"/>
+      <c r="HS127" s="205"/>
+      <c r="HT127" s="205"/>
+      <c r="HU127" s="205"/>
+      <c r="HV127" s="205"/>
+      <c r="HW127" s="205"/>
+      <c r="HX127" s="205"/>
+      <c r="HY127" s="205"/>
+      <c r="HZ127" s="205"/>
+      <c r="IA127" s="205"/>
+      <c r="IB127" s="205"/>
+      <c r="IC127" s="205"/>
+      <c r="ID127" s="205"/>
+      <c r="IE127" s="205"/>
+      <c r="IF127" s="205"/>
+      <c r="IG127" s="205"/>
+      <c r="IH127" s="205"/>
+      <c r="II127" s="205"/>
+      <c r="IJ127" s="205"/>
+      <c r="IK127" s="205"/>
+      <c r="IL127" s="205"/>
+      <c r="IM127" s="205"/>
+      <c r="IN127" s="205"/>
+      <c r="IO127" s="205"/>
+      <c r="IP127" s="205"/>
+      <c r="IQ127" s="205"/>
+      <c r="IR127" s="205"/>
+      <c r="IS127" s="205"/>
+      <c r="IT127" s="205"/>
+      <c r="IU127" s="205"/>
+      <c r="IV127" s="205"/>
+      <c r="IW127" s="205"/>
+      <c r="IX127" s="205"/>
+      <c r="IY127" s="205"/>
+      <c r="IZ127" s="205"/>
+      <c r="JA127" s="205"/>
+      <c r="JB127" s="205"/>
+      <c r="JC127" s="205"/>
+      <c r="JD127" s="205"/>
+      <c r="JE127" s="205"/>
+      <c r="JF127" s="205"/>
+      <c r="JG127" s="205"/>
+      <c r="JH127" s="205"/>
+      <c r="JI127" s="205"/>
+      <c r="JJ127" s="205"/>
+      <c r="JK127" s="205"/>
+      <c r="JL127" s="205"/>
+      <c r="JM127" s="205"/>
+      <c r="JN127" s="205"/>
+      <c r="JO127" s="205"/>
+      <c r="JP127" s="205"/>
+      <c r="JQ127" s="205"/>
+      <c r="JR127" s="205"/>
+      <c r="JS127" s="205"/>
+      <c r="JT127" s="205"/>
+      <c r="JU127" s="205"/>
+      <c r="JV127" s="205"/>
+      <c r="JW127" s="205"/>
+      <c r="JX127" s="205"/>
+      <c r="JY127" s="205"/>
+      <c r="JZ127" s="205"/>
+      <c r="KA127" s="205"/>
+      <c r="KB127" s="205"/>
+      <c r="KC127" s="205"/>
+      <c r="KD127" s="205"/>
+      <c r="KE127" s="205"/>
+      <c r="KF127" s="205"/>
+      <c r="KG127" s="205"/>
+      <c r="KH127" s="205"/>
+      <c r="KI127" s="205"/>
+      <c r="KJ127" s="205"/>
+      <c r="KK127" s="205"/>
+      <c r="KL127" s="205"/>
+      <c r="KM127" s="205"/>
+      <c r="KN127" s="205"/>
+      <c r="KO127" s="205"/>
+      <c r="KP127" s="205"/>
+      <c r="KQ127" s="205"/>
+      <c r="KR127" s="205"/>
+      <c r="KS127" s="205"/>
+      <c r="KT127" s="205"/>
+      <c r="KU127" s="205"/>
+      <c r="KV127" s="205"/>
+      <c r="KW127" s="205"/>
+      <c r="KX127" s="205"/>
+      <c r="KY127" s="205"/>
+      <c r="KZ127" s="205"/>
+      <c r="LA127" s="205"/>
+      <c r="LB127" s="205"/>
+      <c r="LC127" s="205"/>
+      <c r="LD127" s="205"/>
+      <c r="LE127" s="205"/>
+      <c r="LF127" s="205"/>
+      <c r="LG127" s="205"/>
+      <c r="LH127" s="205"/>
+      <c r="LI127" s="205"/>
+      <c r="LJ127" s="205"/>
+      <c r="LK127" s="205"/>
+      <c r="LL127" s="205"/>
+      <c r="LM127" s="205"/>
+      <c r="LN127" s="205"/>
+      <c r="LO127" s="205"/>
+      <c r="LP127" s="205"/>
+      <c r="LQ127" s="205"/>
+      <c r="LR127" s="205"/>
+      <c r="LS127" s="205"/>
+      <c r="LT127" s="205"/>
+      <c r="LU127" s="205"/>
+      <c r="LV127" s="205"/>
+      <c r="LW127" s="205"/>
+      <c r="LX127" s="205"/>
+      <c r="LY127" s="205"/>
+      <c r="LZ127" s="205"/>
+      <c r="MA127" s="205"/>
+      <c r="MB127" s="205"/>
+      <c r="MC127" s="205"/>
+      <c r="MD127" s="205"/>
+      <c r="ME127" s="205"/>
+      <c r="MF127" s="205"/>
+      <c r="MG127" s="205"/>
+      <c r="MH127" s="205"/>
+      <c r="MI127" s="205"/>
+      <c r="MJ127" s="205"/>
+      <c r="MK127" s="205"/>
+      <c r="ML127" s="205"/>
+      <c r="MM127" s="205"/>
+      <c r="MN127" s="205"/>
+      <c r="MO127" s="205"/>
+      <c r="MP127" s="205"/>
+      <c r="MQ127" s="205"/>
+      <c r="MR127" s="205"/>
+      <c r="MS127" s="205"/>
+      <c r="MT127" s="205"/>
+      <c r="MU127" s="205"/>
+      <c r="MV127" s="205"/>
+      <c r="MW127" s="205"/>
+      <c r="MX127" s="205"/>
+      <c r="MY127" s="205"/>
+      <c r="MZ127" s="205"/>
+      <c r="NA127" s="205"/>
+      <c r="NB127" s="205"/>
+      <c r="NC127" s="205"/>
+      <c r="ND127" s="205"/>
+      <c r="NE127" s="205"/>
+      <c r="NF127" s="205"/>
+      <c r="NG127" s="205"/>
+      <c r="NH127" s="205"/>
+      <c r="NI127" s="205"/>
+      <c r="NJ127" s="205"/>
+      <c r="NK127" s="205"/>
+      <c r="NL127" s="205"/>
+      <c r="NM127" s="205"/>
+      <c r="NN127" s="205"/>
+      <c r="NO127" s="205"/>
+      <c r="NP127" s="205"/>
+      <c r="NQ127" s="205"/>
+      <c r="NR127" s="205"/>
+      <c r="NS127" s="205"/>
+      <c r="NT127" s="205"/>
+      <c r="NU127" s="205"/>
+      <c r="NV127" s="205"/>
+      <c r="NW127" s="205"/>
+      <c r="NX127" s="205"/>
+      <c r="NY127" s="205"/>
+      <c r="NZ127" s="205"/>
+      <c r="OA127" s="205"/>
+      <c r="OB127" s="205"/>
+      <c r="OC127" s="205"/>
+      <c r="OD127" s="205"/>
+      <c r="OE127" s="205"/>
+      <c r="OF127" s="205"/>
+      <c r="OG127" s="205"/>
+      <c r="OH127" s="205"/>
+      <c r="OI127" s="205"/>
+      <c r="OJ127" s="205"/>
+      <c r="OK127" s="205"/>
+      <c r="OL127" s="205"/>
+      <c r="OM127" s="205"/>
+      <c r="ON127" s="205"/>
+      <c r="OO127" s="205"/>
+      <c r="OP127" s="205"/>
+      <c r="OQ127" s="205"/>
+      <c r="OR127" s="205"/>
+      <c r="OS127" s="205"/>
+      <c r="OT127" s="205"/>
+      <c r="OU127" s="205"/>
+      <c r="OV127" s="205"/>
+      <c r="OW127" s="205"/>
+      <c r="OX127" s="205"/>
+      <c r="OY127" s="205"/>
+      <c r="OZ127" s="205"/>
+      <c r="PA127" s="205"/>
+      <c r="PB127" s="205"/>
+      <c r="PC127" s="205"/>
+      <c r="PD127" s="205"/>
+      <c r="PE127" s="205"/>
+      <c r="PF127" s="205"/>
+      <c r="PG127" s="205"/>
+      <c r="PH127" s="205"/>
+      <c r="PI127" s="205"/>
+      <c r="PJ127" s="205"/>
+      <c r="PK127" s="205"/>
+      <c r="PL127" s="205"/>
+      <c r="PM127" s="205"/>
+      <c r="PN127" s="205"/>
+      <c r="PO127" s="205"/>
+      <c r="PP127" s="205"/>
+      <c r="PQ127" s="205"/>
+      <c r="PR127" s="205"/>
+      <c r="PS127" s="205"/>
+      <c r="PT127" s="205"/>
+      <c r="PU127" s="205"/>
+      <c r="PV127" s="205"/>
+      <c r="PW127" s="205"/>
+      <c r="PX127" s="205"/>
+      <c r="PY127" s="205"/>
+      <c r="PZ127" s="205"/>
+      <c r="QA127" s="205"/>
+      <c r="QB127" s="205"/>
+      <c r="QC127" s="205"/>
+      <c r="QD127" s="205"/>
+      <c r="QE127" s="205"/>
+      <c r="QF127" s="205"/>
+      <c r="QG127" s="205"/>
+      <c r="QH127" s="205"/>
+      <c r="QI127" s="205"/>
+      <c r="QJ127" s="205"/>
+      <c r="QK127" s="205"/>
+      <c r="QL127" s="205"/>
+      <c r="QM127" s="205"/>
+      <c r="QN127" s="205"/>
+      <c r="QO127" s="205"/>
+      <c r="QP127" s="205"/>
+      <c r="QQ127" s="205"/>
+      <c r="QR127" s="205"/>
+      <c r="QS127" s="205"/>
+      <c r="QT127" s="205"/>
+      <c r="QU127" s="205"/>
+      <c r="QV127" s="205"/>
+      <c r="QW127" s="205"/>
+      <c r="QX127" s="205"/>
+      <c r="QY127" s="205"/>
+      <c r="QZ127" s="205"/>
+      <c r="RA127" s="205"/>
+      <c r="RB127" s="205"/>
+      <c r="RC127" s="205"/>
+      <c r="RD127" s="205"/>
+      <c r="RE127" s="205"/>
+      <c r="RF127" s="205"/>
+      <c r="RG127" s="205"/>
+      <c r="RH127" s="205"/>
+      <c r="RI127" s="205"/>
+      <c r="RJ127" s="205"/>
+      <c r="RK127" s="205"/>
+      <c r="RL127" s="205"/>
+      <c r="RM127" s="205"/>
+      <c r="RN127" s="205"/>
+      <c r="RO127" s="205"/>
+      <c r="RP127" s="205"/>
+      <c r="RQ127" s="205"/>
+      <c r="RR127" s="205"/>
+      <c r="RS127" s="205"/>
+      <c r="RT127" s="205"/>
+      <c r="RU127" s="205"/>
+      <c r="RV127" s="205"/>
+      <c r="RW127" s="205"/>
+      <c r="RX127" s="205"/>
+      <c r="RY127" s="205"/>
+      <c r="RZ127" s="205"/>
+      <c r="SA127" s="205"/>
+      <c r="SB127" s="205"/>
+      <c r="SC127" s="205"/>
+      <c r="SD127" s="205"/>
+      <c r="SE127" s="205"/>
+      <c r="SF127" s="205"/>
+      <c r="SG127" s="205"/>
+      <c r="SH127" s="205"/>
+      <c r="SI127" s="205"/>
+      <c r="SJ127" s="205"/>
+      <c r="SK127" s="205"/>
+      <c r="SL127" s="205"/>
+      <c r="SM127" s="205"/>
+      <c r="SN127" s="205"/>
+      <c r="SO127" s="205"/>
+      <c r="SP127" s="205"/>
+      <c r="SQ127" s="205"/>
+      <c r="SR127" s="205"/>
+      <c r="SS127" s="205"/>
+      <c r="ST127" s="205"/>
+      <c r="SU127" s="205"/>
+      <c r="SV127" s="205"/>
+      <c r="SW127" s="205"/>
+      <c r="SX127" s="205"/>
+      <c r="SY127" s="205"/>
+      <c r="SZ127" s="205"/>
+      <c r="TA127" s="205"/>
+      <c r="TB127" s="205"/>
+      <c r="TC127" s="205"/>
+      <c r="TD127" s="205"/>
+      <c r="TE127" s="205"/>
+      <c r="TF127" s="205"/>
+      <c r="TG127" s="205"/>
+      <c r="TH127" s="205"/>
+      <c r="TI127" s="205"/>
+      <c r="TJ127" s="205"/>
+      <c r="TK127" s="205"/>
+      <c r="TL127" s="205"/>
+      <c r="TM127" s="205"/>
+      <c r="TN127" s="205"/>
+      <c r="TO127" s="205"/>
+      <c r="TP127" s="205"/>
+      <c r="TQ127" s="205"/>
+      <c r="TR127" s="205"/>
+      <c r="TS127" s="205"/>
+      <c r="TT127" s="205"/>
+      <c r="TU127" s="205"/>
+      <c r="TV127" s="205"/>
+      <c r="TW127" s="205"/>
+      <c r="TX127" s="205"/>
+      <c r="TY127" s="205"/>
+      <c r="TZ127" s="205"/>
+      <c r="UA127" s="205"/>
+      <c r="UB127" s="205"/>
+      <c r="UC127" s="205"/>
+      <c r="UD127" s="205"/>
+      <c r="UE127" s="205"/>
+      <c r="UF127" s="205"/>
+      <c r="UG127" s="205"/>
+      <c r="UH127" s="205"/>
+      <c r="UI127" s="205"/>
+      <c r="UJ127" s="205"/>
+      <c r="UK127" s="205"/>
+      <c r="UL127" s="205"/>
+      <c r="UM127" s="205"/>
+      <c r="UN127" s="205"/>
+      <c r="UO127" s="205"/>
+      <c r="UP127" s="205"/>
+      <c r="UQ127" s="205"/>
+      <c r="UR127" s="205"/>
+      <c r="US127" s="205"/>
+      <c r="UT127" s="205"/>
+      <c r="UU127" s="205"/>
+      <c r="UV127" s="205"/>
+      <c r="UW127" s="205"/>
+      <c r="UX127" s="205"/>
+      <c r="UY127" s="205"/>
+      <c r="UZ127" s="205"/>
+      <c r="VA127" s="205"/>
+      <c r="VB127" s="205"/>
+      <c r="VC127" s="205"/>
+      <c r="VD127" s="205"/>
+      <c r="VE127" s="205"/>
+      <c r="VF127" s="205"/>
+      <c r="VG127" s="205"/>
+      <c r="VH127" s="205"/>
+      <c r="VI127" s="205"/>
+      <c r="VJ127" s="205"/>
+      <c r="VK127" s="205"/>
+      <c r="VL127" s="205"/>
+      <c r="VM127" s="205"/>
+      <c r="VN127" s="205"/>
+      <c r="VO127" s="205"/>
+      <c r="VP127" s="205"/>
+      <c r="VQ127" s="205"/>
+      <c r="VR127" s="205"/>
+      <c r="VS127" s="205"/>
+      <c r="VT127" s="205"/>
+      <c r="VU127" s="205"/>
+      <c r="VV127" s="205"/>
+      <c r="VW127" s="205"/>
+      <c r="VX127" s="205"/>
+      <c r="VY127" s="205"/>
+      <c r="VZ127" s="205"/>
+      <c r="WA127" s="205"/>
+      <c r="WB127" s="205"/>
+      <c r="WC127" s="205"/>
+      <c r="WD127" s="205"/>
+      <c r="WE127" s="205"/>
+      <c r="WF127" s="205"/>
+      <c r="WG127" s="205"/>
+      <c r="WH127" s="205"/>
+      <c r="WI127" s="205"/>
+      <c r="WJ127" s="205"/>
+      <c r="WK127" s="205"/>
+      <c r="WL127" s="205"/>
+      <c r="WM127" s="205"/>
+      <c r="WN127" s="205"/>
+      <c r="WO127" s="205"/>
+      <c r="WP127" s="205"/>
+      <c r="WQ127" s="205"/>
+      <c r="WR127" s="205"/>
+      <c r="WS127" s="205"/>
+      <c r="WT127" s="205"/>
+      <c r="WU127" s="205"/>
+      <c r="WV127" s="205"/>
+      <c r="WW127" s="205"/>
+      <c r="WX127" s="205"/>
+      <c r="WY127" s="205"/>
+      <c r="WZ127" s="205"/>
+      <c r="XA127" s="205"/>
+      <c r="XB127" s="205"/>
+      <c r="XC127" s="205"/>
+      <c r="XD127" s="205"/>
+      <c r="XE127" s="205"/>
+      <c r="XF127" s="205"/>
+      <c r="XG127" s="205"/>
+      <c r="XH127" s="205"/>
+      <c r="XI127" s="205"/>
+      <c r="XJ127" s="205"/>
+      <c r="XK127" s="205"/>
+      <c r="XL127" s="205"/>
+      <c r="XM127" s="205"/>
+      <c r="XN127" s="205"/>
+      <c r="XO127" s="205"/>
+      <c r="XP127" s="205"/>
+      <c r="XQ127" s="205"/>
+      <c r="XR127" s="205"/>
+      <c r="XS127" s="205"/>
+      <c r="XT127" s="205"/>
+      <c r="XU127" s="205"/>
+      <c r="XV127" s="205"/>
+      <c r="XW127" s="205"/>
+      <c r="XX127" s="205"/>
+      <c r="XY127" s="205"/>
+      <c r="XZ127" s="205"/>
+      <c r="YA127" s="205"/>
+      <c r="YB127" s="205"/>
+      <c r="YC127" s="205"/>
+      <c r="YD127" s="205"/>
+      <c r="YE127" s="205"/>
+      <c r="YF127" s="205"/>
+      <c r="YG127" s="205"/>
+      <c r="YH127" s="205"/>
+      <c r="YI127" s="205"/>
+      <c r="YJ127" s="205"/>
+      <c r="YK127" s="205"/>
+      <c r="YL127" s="205"/>
+      <c r="YM127" s="205"/>
+      <c r="YN127" s="205"/>
+      <c r="YO127" s="205"/>
+      <c r="YP127" s="205"/>
+      <c r="YQ127" s="205"/>
+      <c r="YR127" s="205"/>
+      <c r="YS127" s="205"/>
+      <c r="YT127" s="205"/>
+      <c r="YU127" s="205"/>
+      <c r="YV127" s="205"/>
+      <c r="YW127" s="205"/>
+      <c r="YX127" s="205"/>
+      <c r="YY127" s="205"/>
+      <c r="YZ127" s="205"/>
+      <c r="ZA127" s="205"/>
+      <c r="ZB127" s="205"/>
+      <c r="ZC127" s="205"/>
+      <c r="ZD127" s="205"/>
+      <c r="ZE127" s="205"/>
+      <c r="ZF127" s="205"/>
+      <c r="ZG127" s="205"/>
+      <c r="ZH127" s="205"/>
+      <c r="ZI127" s="205"/>
+      <c r="ZJ127" s="205"/>
+      <c r="ZK127" s="205"/>
+      <c r="ZL127" s="205"/>
+      <c r="ZM127" s="205"/>
+      <c r="ZN127" s="205"/>
+      <c r="ZO127" s="205"/>
+      <c r="ZP127" s="205"/>
+      <c r="ZQ127" s="205"/>
+      <c r="ZR127" s="205"/>
+      <c r="ZS127" s="205"/>
+      <c r="ZT127" s="205"/>
+      <c r="ZU127" s="205"/>
+      <c r="ZV127" s="205"/>
+      <c r="ZW127" s="205"/>
+      <c r="ZX127" s="205"/>
+      <c r="ZY127" s="205"/>
+      <c r="ZZ127" s="205"/>
+      <c r="AAA127" s="205"/>
+      <c r="AAB127" s="205"/>
+      <c r="AAC127" s="205"/>
+      <c r="AAD127" s="205"/>
+      <c r="AAE127" s="205"/>
+      <c r="AAF127" s="205"/>
+      <c r="AAG127" s="205"/>
+      <c r="AAH127" s="205"/>
+      <c r="AAI127" s="205"/>
+      <c r="AAJ127" s="205"/>
+      <c r="AAK127" s="205"/>
+      <c r="AAL127" s="205"/>
+      <c r="AAM127" s="205"/>
+      <c r="AAN127" s="205"/>
+      <c r="AAO127" s="205"/>
+      <c r="AAP127" s="205"/>
+      <c r="AAQ127" s="205"/>
+      <c r="AAR127" s="205"/>
+      <c r="AAS127" s="205"/>
+      <c r="AAT127" s="205"/>
+      <c r="AAU127" s="205"/>
+      <c r="AAV127" s="205"/>
+      <c r="AAW127" s="205"/>
+      <c r="AAX127" s="205"/>
+      <c r="AAY127" s="205"/>
+      <c r="AAZ127" s="205"/>
+      <c r="ABA127" s="205"/>
+      <c r="ABB127" s="205"/>
+      <c r="ABC127" s="205"/>
+      <c r="ABD127" s="205"/>
+      <c r="ABE127" s="205"/>
+      <c r="ABF127" s="205"/>
+      <c r="ABG127" s="205"/>
+      <c r="ABH127" s="205"/>
+      <c r="ABI127" s="205"/>
+      <c r="ABJ127" s="205"/>
+      <c r="ABK127" s="205"/>
+      <c r="ABL127" s="205"/>
+      <c r="ABM127" s="205"/>
+      <c r="ABN127" s="205"/>
+      <c r="ABO127" s="205"/>
+      <c r="ABP127" s="205"/>
+      <c r="ABQ127" s="205"/>
+      <c r="ABR127" s="205"/>
+      <c r="ABS127" s="205"/>
+      <c r="ABT127" s="205"/>
+      <c r="ABU127" s="205"/>
+      <c r="ABV127" s="205"/>
+      <c r="ABW127" s="205"/>
+      <c r="ABX127" s="205"/>
+      <c r="ABY127" s="205"/>
+      <c r="ABZ127" s="205"/>
+      <c r="ACA127" s="205"/>
+      <c r="ACB127" s="205"/>
+      <c r="ACC127" s="205"/>
+      <c r="ACD127" s="205"/>
+      <c r="ACE127" s="205"/>
+      <c r="ACF127" s="205"/>
+      <c r="ACG127" s="205"/>
+      <c r="ACH127" s="205"/>
+      <c r="ACI127" s="205"/>
+      <c r="ACJ127" s="205"/>
+      <c r="ACK127" s="205"/>
+      <c r="ACL127" s="205"/>
+      <c r="ACM127" s="205"/>
+      <c r="ACN127" s="205"/>
+      <c r="ACO127" s="205"/>
+      <c r="ACP127" s="205"/>
+      <c r="ACQ127" s="205"/>
+      <c r="ACR127" s="205"/>
+      <c r="ACS127" s="205"/>
+      <c r="ACT127" s="205"/>
+      <c r="ACU127" s="205"/>
+      <c r="ACV127" s="205"/>
+      <c r="ACW127" s="205"/>
+      <c r="ACX127" s="205"/>
+      <c r="ACY127" s="205"/>
+      <c r="ACZ127" s="205"/>
+      <c r="ADA127" s="205"/>
+      <c r="ADB127" s="205"/>
+      <c r="ADC127" s="205"/>
+      <c r="ADD127" s="205"/>
+      <c r="ADE127" s="205"/>
+      <c r="ADF127" s="205"/>
+      <c r="ADG127" s="205"/>
+      <c r="ADH127" s="205"/>
+      <c r="ADI127" s="205"/>
+      <c r="ADJ127" s="205"/>
+      <c r="ADK127" s="205"/>
+      <c r="ADL127" s="205"/>
+      <c r="ADM127" s="205"/>
+      <c r="ADN127" s="205"/>
+      <c r="ADO127" s="205"/>
+      <c r="ADP127" s="205"/>
+      <c r="ADQ127" s="205"/>
+      <c r="ADR127" s="205"/>
+      <c r="ADS127" s="205"/>
+      <c r="ADT127" s="205"/>
+      <c r="ADU127" s="205"/>
+      <c r="ADV127" s="205"/>
+      <c r="ADW127" s="205"/>
+      <c r="ADX127" s="205"/>
+      <c r="ADY127" s="205"/>
+      <c r="ADZ127" s="205"/>
+      <c r="AEA127" s="205"/>
+      <c r="AEB127" s="205"/>
+      <c r="AEC127" s="205"/>
+      <c r="AED127" s="205"/>
+      <c r="AEE127" s="205"/>
+      <c r="AEF127" s="205"/>
+      <c r="AEG127" s="205"/>
+      <c r="AEH127" s="205"/>
+      <c r="AEI127" s="205"/>
+      <c r="AEJ127" s="205"/>
+      <c r="AEK127" s="205"/>
+      <c r="AEL127" s="205"/>
+      <c r="AEM127" s="205"/>
+      <c r="AEN127" s="205"/>
+      <c r="AEO127" s="205"/>
+      <c r="AEP127" s="205"/>
+      <c r="AEQ127" s="205"/>
+      <c r="AER127" s="205"/>
+      <c r="AES127" s="205"/>
+      <c r="AET127" s="205"/>
+      <c r="AEU127" s="205"/>
+      <c r="AEV127" s="205"/>
+      <c r="AEW127" s="205"/>
+      <c r="AEX127" s="205"/>
+      <c r="AEY127" s="205"/>
+      <c r="AEZ127" s="205"/>
+      <c r="AFA127" s="205"/>
+      <c r="AFB127" s="205"/>
+      <c r="AFC127" s="205"/>
+      <c r="AFD127" s="205"/>
+      <c r="AFE127" s="205"/>
+      <c r="AFF127" s="205"/>
+      <c r="AFG127" s="205"/>
+      <c r="AFH127" s="205"/>
+      <c r="AFI127" s="205"/>
+      <c r="AFJ127" s="205"/>
+      <c r="AFK127" s="205"/>
+      <c r="AFL127" s="205"/>
+      <c r="AFM127" s="205"/>
+      <c r="AFN127" s="205"/>
+      <c r="AFO127" s="205"/>
+      <c r="AFP127" s="205"/>
+      <c r="AFQ127" s="205"/>
+      <c r="AFR127" s="205"/>
+      <c r="AFS127" s="205"/>
+      <c r="AFT127" s="205"/>
+      <c r="AFU127" s="205"/>
+      <c r="AFV127" s="205"/>
+      <c r="AFW127" s="205"/>
+      <c r="AFX127" s="205"/>
+      <c r="AFY127" s="205"/>
+      <c r="AFZ127" s="205"/>
+      <c r="AGA127" s="205"/>
+      <c r="AGB127" s="205"/>
+      <c r="AGC127" s="205"/>
+      <c r="AGD127" s="205"/>
+      <c r="AGE127" s="205"/>
+      <c r="AGF127" s="205"/>
+      <c r="AGG127" s="205"/>
+      <c r="AGH127" s="205"/>
+      <c r="AGI127" s="205"/>
+      <c r="AGJ127" s="205"/>
+      <c r="AGK127" s="205"/>
+      <c r="AGL127" s="205"/>
+      <c r="AGM127" s="205"/>
+      <c r="AGN127" s="205"/>
+      <c r="AGO127" s="205"/>
+      <c r="AGP127" s="205"/>
+      <c r="AGQ127" s="205"/>
+      <c r="AGR127" s="205"/>
+      <c r="AGS127" s="205"/>
+      <c r="AGT127" s="205"/>
+      <c r="AGU127" s="205"/>
+      <c r="AGV127" s="205"/>
+      <c r="AGW127" s="205"/>
+      <c r="AGX127" s="205"/>
+      <c r="AGY127" s="205"/>
+      <c r="AGZ127" s="205"/>
+      <c r="AHA127" s="205"/>
+      <c r="AHB127" s="205"/>
+      <c r="AHC127" s="205"/>
+      <c r="AHD127" s="205"/>
+      <c r="AHE127" s="205"/>
+      <c r="AHF127" s="205"/>
+      <c r="AHG127" s="205"/>
+      <c r="AHH127" s="205"/>
+      <c r="AHI127" s="205"/>
+      <c r="AHJ127" s="205"/>
+      <c r="AHK127" s="205"/>
+      <c r="AHL127" s="205"/>
+      <c r="AHM127" s="205"/>
+      <c r="AHN127" s="205"/>
+      <c r="AHO127" s="205"/>
+      <c r="AHP127" s="205"/>
+      <c r="AHQ127" s="205"/>
+      <c r="AHR127" s="205"/>
+      <c r="AHS127" s="205"/>
+      <c r="AHT127" s="205"/>
+      <c r="AHU127" s="205"/>
+      <c r="AHV127" s="205"/>
+      <c r="AHW127" s="205"/>
+      <c r="AHX127" s="205"/>
+      <c r="AHY127" s="205"/>
+      <c r="AHZ127" s="205"/>
+      <c r="AIA127" s="205"/>
+      <c r="AIB127" s="205"/>
+      <c r="AIC127" s="205"/>
+      <c r="AID127" s="205"/>
+      <c r="AIE127" s="205"/>
+      <c r="AIF127" s="205"/>
+      <c r="AIG127" s="205"/>
+      <c r="AIH127" s="205"/>
+      <c r="AII127" s="205"/>
+      <c r="AIJ127" s="205"/>
+      <c r="AIK127" s="205"/>
+      <c r="AIL127" s="205"/>
+      <c r="AIM127" s="205"/>
+      <c r="AIN127" s="205"/>
+      <c r="AIO127" s="205"/>
+      <c r="AIP127" s="205"/>
+      <c r="AIQ127" s="205"/>
+      <c r="AIR127" s="205"/>
+      <c r="AIS127" s="205"/>
+      <c r="AIT127" s="205"/>
+      <c r="AIU127" s="205"/>
+      <c r="AIV127" s="205"/>
+      <c r="AIW127" s="205"/>
+      <c r="AIX127" s="205"/>
+      <c r="AIY127" s="205"/>
+      <c r="AIZ127" s="205"/>
+      <c r="AJA127" s="205"/>
+      <c r="AJB127" s="205"/>
+      <c r="AJC127" s="205"/>
+      <c r="AJD127" s="205"/>
+      <c r="AJE127" s="205"/>
+      <c r="AJF127" s="205"/>
+      <c r="AJG127" s="205"/>
+      <c r="AJH127" s="205"/>
+      <c r="AJI127" s="205"/>
+      <c r="AJJ127" s="205"/>
+      <c r="AJK127" s="205"/>
+      <c r="AJL127" s="205"/>
+      <c r="AJM127" s="205"/>
+      <c r="AJN127" s="205"/>
+      <c r="AJO127" s="205"/>
+      <c r="AJP127" s="205"/>
+      <c r="AJQ127" s="205"/>
+      <c r="AJR127" s="205"/>
+      <c r="AJS127" s="205"/>
+      <c r="AJT127" s="205"/>
+      <c r="AJU127" s="205"/>
+      <c r="AJV127" s="205"/>
+      <c r="AJW127" s="205"/>
+      <c r="AJX127" s="205"/>
+      <c r="AJY127" s="205"/>
+      <c r="AJZ127" s="205"/>
+      <c r="AKA127" s="205"/>
+      <c r="AKB127" s="205"/>
+      <c r="AKC127" s="205"/>
+      <c r="AKD127" s="205"/>
+      <c r="AKE127" s="205"/>
+      <c r="AKF127" s="205"/>
+      <c r="AKG127" s="205"/>
+      <c r="AKH127" s="205"/>
+      <c r="AKI127" s="205"/>
+      <c r="AKJ127" s="205"/>
+      <c r="AKK127" s="205"/>
+      <c r="AKL127" s="205"/>
+      <c r="AKM127" s="205"/>
+      <c r="AKN127" s="205"/>
+      <c r="AKO127" s="205"/>
+      <c r="AKP127" s="205"/>
+      <c r="AKQ127" s="205"/>
+      <c r="AKR127" s="205"/>
+      <c r="AKS127" s="205"/>
+      <c r="AKT127" s="205"/>
+      <c r="AKU127" s="205"/>
+      <c r="AKV127" s="205"/>
+      <c r="AKW127" s="205"/>
+      <c r="AKX127" s="205"/>
+      <c r="AKY127" s="205"/>
+      <c r="AKZ127" s="205"/>
+      <c r="ALA127" s="205"/>
+      <c r="ALB127" s="205"/>
+      <c r="ALC127" s="205"/>
+      <c r="ALD127" s="205"/>
+      <c r="ALE127" s="205"/>
+      <c r="ALF127" s="205"/>
+      <c r="ALG127" s="205"/>
+      <c r="ALH127" s="205"/>
+      <c r="ALI127" s="205"/>
+      <c r="ALJ127" s="205"/>
+      <c r="ALK127" s="205"/>
+      <c r="ALL127" s="205"/>
+      <c r="ALM127" s="205"/>
+      <c r="ALN127" s="205"/>
+      <c r="ALO127" s="205"/>
+      <c r="ALP127" s="205"/>
+      <c r="ALQ127" s="205"/>
+      <c r="ALR127" s="205"/>
+      <c r="ALS127" s="205"/>
+      <c r="ALT127" s="205"/>
+      <c r="ALU127" s="205"/>
+      <c r="ALV127" s="205"/>
+      <c r="ALW127" s="205"/>
+      <c r="ALX127" s="205"/>
+      <c r="ALY127" s="205"/>
+      <c r="ALZ127" s="205"/>
     </row>
-    <row r="128" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1025" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A128" s="174" t="s">
         <v>1072</v>
       </c>
@@ -61727,38 +62014,38 @@
       <c r="FB128" s="69" t="s">
         <v>3393</v>
       </c>
-      <c r="FC128" s="205">
-        <v>101</v>
-      </c>
-      <c r="FD128" s="205">
-        <v>102</v>
-      </c>
-      <c r="FE128" s="205">
-        <v>103</v>
-      </c>
-      <c r="FF128" s="205">
-        <v>104</v>
-      </c>
-      <c r="FG128" s="205">
-        <v>105</v>
-      </c>
-      <c r="FH128" s="205">
-        <v>106</v>
-      </c>
-      <c r="FI128" s="205">
-        <v>107</v>
-      </c>
-      <c r="FJ128" s="205">
-        <v>108</v>
-      </c>
-      <c r="FK128" s="205">
-        <v>109</v>
-      </c>
-      <c r="FL128" s="205">
-        <v>110</v>
-      </c>
-      <c r="FM128" s="205">
-        <v>111</v>
+      <c r="FC128" s="218" t="s">
+        <v>4093</v>
+      </c>
+      <c r="FD128" s="218" t="s">
+        <v>4094</v>
+      </c>
+      <c r="FE128" s="218" t="s">
+        <v>4095</v>
+      </c>
+      <c r="FF128" s="218" t="s">
+        <v>4096</v>
+      </c>
+      <c r="FG128" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="FH128" s="218" t="s">
+        <v>3973</v>
+      </c>
+      <c r="FI128" s="218" t="s">
+        <v>4097</v>
+      </c>
+      <c r="FJ128" s="218" t="s">
+        <v>4098</v>
+      </c>
+      <c r="FK128" s="218" t="s">
+        <v>4099</v>
+      </c>
+      <c r="FL128" s="218" t="s">
+        <v>4100</v>
+      </c>
+      <c r="FM128" s="218" t="s">
+        <v>4101</v>
       </c>
       <c r="AMA128"/>
       <c r="AMB128"/>
@@ -61772,7 +62059,7 @@
       <c r="AMJ128"/>
       <c r="AMK128"/>
     </row>
-    <row r="129" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A129" s="174" t="s">
         <v>1082</v>
       </c>
@@ -62247,38 +62534,38 @@
       <c r="FB129" s="69" t="s">
         <v>3487</v>
       </c>
-      <c r="FC129" s="205">
-        <v>101</v>
-      </c>
-      <c r="FD129" s="205">
-        <v>102</v>
-      </c>
-      <c r="FE129" s="205">
-        <v>103</v>
-      </c>
-      <c r="FF129" s="205">
-        <v>104</v>
-      </c>
-      <c r="FG129" s="205">
-        <v>105</v>
-      </c>
-      <c r="FH129" s="205">
-        <v>106</v>
-      </c>
-      <c r="FI129" s="205">
-        <v>107</v>
-      </c>
-      <c r="FJ129" s="205">
-        <v>108</v>
-      </c>
-      <c r="FK129" s="205">
-        <v>109</v>
-      </c>
-      <c r="FL129" s="205">
-        <v>110</v>
-      </c>
-      <c r="FM129" s="205">
-        <v>111</v>
+      <c r="FC129" s="218" t="s">
+        <v>4102</v>
+      </c>
+      <c r="FD129" s="218" t="s">
+        <v>4103</v>
+      </c>
+      <c r="FE129" s="218" t="s">
+        <v>4104</v>
+      </c>
+      <c r="FF129" s="218" t="s">
+        <v>4096</v>
+      </c>
+      <c r="FG129" s="218" t="s">
+        <v>2102</v>
+      </c>
+      <c r="FH129" s="218" t="s">
+        <v>3973</v>
+      </c>
+      <c r="FI129" s="218" t="s">
+        <v>4105</v>
+      </c>
+      <c r="FJ129" s="218" t="s">
+        <v>4106</v>
+      </c>
+      <c r="FK129" s="218" t="s">
+        <v>4107</v>
+      </c>
+      <c r="FL129" s="218" t="s">
+        <v>4108</v>
+      </c>
+      <c r="FM129" s="218" t="s">
+        <v>4109</v>
       </c>
       <c r="AMA129"/>
       <c r="AMB129"/>
@@ -62292,7 +62579,7 @@
       <c r="AMJ129"/>
       <c r="AMK129"/>
     </row>
-    <row r="130" spans="1:1025" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A130" s="174" t="s">
         <v>1090</v>
       </c>
@@ -62521,7 +62808,7 @@
       <c r="BX130" s="188" t="s">
         <v>3535</v>
       </c>
-      <c r="BY130" s="213" t="s">
+      <c r="BY130" s="212" t="s">
         <v>4028</v>
       </c>
       <c r="BZ130" s="188" t="s">
@@ -62767,38 +63054,38 @@
       <c r="FB130" s="69" t="s">
         <v>3588</v>
       </c>
-      <c r="FC130" s="215" t="s">
-        <v>4036</v>
-      </c>
-      <c r="FD130" s="220" t="s">
+      <c r="FC130" s="219" t="s">
+        <v>4035</v>
+      </c>
+      <c r="FD130" s="219" t="s">
         <v>3571</v>
       </c>
-      <c r="FE130" s="215" t="s">
+      <c r="FE130" s="219" t="s">
         <v>4029</v>
       </c>
-      <c r="FF130" s="215" t="s">
+      <c r="FF130" s="219" t="s">
         <v>4030</v>
       </c>
-      <c r="FG130" s="215" t="s">
+      <c r="FG130" s="219" t="s">
         <v>2253</v>
       </c>
-      <c r="FH130" s="215" t="s">
+      <c r="FH130" s="219" t="s">
         <v>3973</v>
       </c>
-      <c r="FI130" s="215" t="s">
+      <c r="FI130" s="219" t="s">
         <v>4031</v>
       </c>
-      <c r="FJ130" s="215" t="s">
+      <c r="FJ130" s="219" t="s">
+        <v>4110</v>
+      </c>
+      <c r="FK130" s="219" t="s">
         <v>4032</v>
       </c>
-      <c r="FK130" s="215" t="s">
+      <c r="FL130" s="219" t="s">
         <v>4033</v>
       </c>
-      <c r="FL130" s="215" t="s">
+      <c r="FM130" s="219" t="s">
         <v>4034</v>
-      </c>
-      <c r="FM130" s="215" t="s">
-        <v>4035</v>
       </c>
       <c r="AMA130"/>
       <c r="AMB130"/>
@@ -62812,7 +63099,7 @@
       <c r="AMJ130"/>
       <c r="AMK130"/>
     </row>
-    <row r="131" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A131" s="176" t="s">
         <v>1100</v>
       </c>
@@ -63287,38 +63574,38 @@
       <c r="FB131" s="190" t="s">
         <v>3707</v>
       </c>
-      <c r="FC131" s="214">
-        <v>101</v>
-      </c>
-      <c r="FD131" s="214">
-        <v>102</v>
-      </c>
-      <c r="FE131" s="214">
-        <v>103</v>
-      </c>
-      <c r="FF131" s="214">
-        <v>104</v>
-      </c>
-      <c r="FG131" s="214">
-        <v>105</v>
-      </c>
-      <c r="FH131" s="214">
-        <v>106</v>
-      </c>
-      <c r="FI131" s="214">
-        <v>107</v>
-      </c>
-      <c r="FJ131" s="214">
-        <v>108</v>
-      </c>
-      <c r="FK131" s="214">
-        <v>109</v>
-      </c>
-      <c r="FL131" s="214">
-        <v>110</v>
-      </c>
-      <c r="FM131" s="214">
-        <v>111</v>
+      <c r="FC131" s="220" t="s">
+        <v>4111</v>
+      </c>
+      <c r="FD131" s="220" t="s">
+        <v>4112</v>
+      </c>
+      <c r="FE131" s="220" t="s">
+        <v>4113</v>
+      </c>
+      <c r="FF131" s="220" t="s">
+        <v>4114</v>
+      </c>
+      <c r="FG131" s="220" t="s">
+        <v>2253</v>
+      </c>
+      <c r="FH131" s="220" t="s">
+        <v>3973</v>
+      </c>
+      <c r="FI131" s="220" t="s">
+        <v>4115</v>
+      </c>
+      <c r="FJ131" s="220" t="s">
+        <v>4116</v>
+      </c>
+      <c r="FK131" s="220" t="s">
+        <v>4117</v>
+      </c>
+      <c r="FL131" s="220" t="s">
+        <v>4118</v>
+      </c>
+      <c r="FM131" s="220" t="s">
+        <v>4119</v>
       </c>
       <c r="FO131" s="69"/>
       <c r="FP131" s="69"/>
@@ -63334,7 +63621,7 @@
       <c r="AMJ131"/>
       <c r="AMK131"/>
     </row>
-    <row r="132" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1025" ht="102" x14ac:dyDescent="0.2">
       <c r="A132" s="201" t="s">
         <v>1109</v>
       </c>
@@ -63809,38 +64096,38 @@
       <c r="FB132" s="69" t="s">
         <v>3818</v>
       </c>
-      <c r="FC132" s="205">
-        <v>101</v>
-      </c>
-      <c r="FD132" s="205">
-        <v>102</v>
-      </c>
-      <c r="FE132" s="205">
-        <v>103</v>
-      </c>
-      <c r="FF132" s="205">
-        <v>104</v>
-      </c>
-      <c r="FG132" s="205">
-        <v>105</v>
-      </c>
-      <c r="FH132" s="205">
-        <v>106</v>
-      </c>
-      <c r="FI132" s="205">
-        <v>107</v>
-      </c>
-      <c r="FJ132" s="205">
-        <v>108</v>
-      </c>
-      <c r="FK132" s="205">
-        <v>109</v>
-      </c>
-      <c r="FL132" s="205">
-        <v>110</v>
-      </c>
-      <c r="FM132" s="205">
-        <v>111</v>
+      <c r="FC132" s="218" t="s">
+        <v>4120</v>
+      </c>
+      <c r="FD132" s="218" t="s">
+        <v>4121</v>
+      </c>
+      <c r="FE132" s="218" t="s">
+        <v>4122</v>
+      </c>
+      <c r="FF132" s="218" t="s">
+        <v>4123</v>
+      </c>
+      <c r="FG132" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="FH132" s="218" t="s">
+        <v>3973</v>
+      </c>
+      <c r="FI132" s="218" t="s">
+        <v>4124</v>
+      </c>
+      <c r="FJ132" s="218" t="s">
+        <v>4125</v>
+      </c>
+      <c r="FK132" s="218" t="s">
+        <v>4126</v>
+      </c>
+      <c r="FL132" s="218" t="s">
+        <v>4127</v>
+      </c>
+      <c r="FM132" s="218" t="s">
+        <v>4128</v>
       </c>
       <c r="FO132" s="69"/>
       <c r="FP132" s="69"/>
@@ -63856,7 +64143,7 @@
       <c r="AMJ132"/>
       <c r="AMK132"/>
     </row>
-    <row r="133" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A133" s="201" t="s">
         <v>1119</v>
       </c>
@@ -64331,38 +64618,38 @@
       <c r="FB133" s="69" t="s">
         <v>3933</v>
       </c>
-      <c r="FC133" s="205">
-        <v>101</v>
-      </c>
-      <c r="FD133" s="205">
-        <v>102</v>
-      </c>
-      <c r="FE133" s="205">
-        <v>103</v>
-      </c>
-      <c r="FF133" s="205">
-        <v>104</v>
-      </c>
-      <c r="FG133" s="205">
-        <v>105</v>
-      </c>
-      <c r="FH133" s="205">
-        <v>106</v>
-      </c>
-      <c r="FI133" s="205">
-        <v>107</v>
-      </c>
-      <c r="FJ133" s="205">
-        <v>108</v>
-      </c>
-      <c r="FK133" s="205">
-        <v>109</v>
-      </c>
-      <c r="FL133" s="205">
-        <v>110</v>
-      </c>
-      <c r="FM133" s="205">
-        <v>111</v>
+      <c r="FC133" s="218" t="s">
+        <v>4129</v>
+      </c>
+      <c r="FD133" s="218" t="s">
+        <v>4130</v>
+      </c>
+      <c r="FE133" s="218" t="s">
+        <v>4131</v>
+      </c>
+      <c r="FF133" s="218" t="s">
+        <v>4132</v>
+      </c>
+      <c r="FG133" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="FH133" s="218" t="s">
+        <v>3973</v>
+      </c>
+      <c r="FI133" s="218" t="s">
+        <v>4133</v>
+      </c>
+      <c r="FJ133" s="218" t="s">
+        <v>4134</v>
+      </c>
+      <c r="FK133" s="218" t="s">
+        <v>4135</v>
+      </c>
+      <c r="FL133" s="218" t="s">
+        <v>4136</v>
+      </c>
+      <c r="FM133" s="218" t="s">
+        <v>4137</v>
       </c>
       <c r="FO133" s="69"/>
       <c r="FP133" s="69"/>

--- a/src/info/species/data/species.xlsx
+++ b/src/info/species/data/species.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,19 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="28800" windowHeight="14240" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Species" sheetId="2" r:id="rId2"/>
     <sheet name="Charact_default" sheetId="3" r:id="rId3"/>
     <sheet name="Characteristics_overview" sheetId="4" r:id="rId4"/>
-    <sheet name="Photos" sheetId="6" r:id="rId5"/>
-    <sheet name="Photos - additions" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$C$1:$FC$73</definedName>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="1074">
   <si>
     <t>id</t>
   </si>
@@ -3992,123 +3990,6 @@
     <t>Pronotum</t>
   </si>
   <si>
-    <t>width[]</t>
-  </si>
-  <si>
-    <t>height[]</t>
-  </si>
-  <si>
-    <t>author[]</t>
-  </si>
-  <si>
-    <t>Michael Majerus</t>
-  </si>
-  <si>
-    <t>Lindsay Bowes</t>
-  </si>
-  <si>
-    <t>Gilles San Martins</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>David Benham</t>
-  </si>
-  <si>
-    <t>Stephen Barlow</t>
-  </si>
-  <si>
-    <t>Philip Appleyard</t>
-  </si>
-  <si>
-    <t>Peter Brown</t>
-  </si>
-  <si>
-    <t>Maris Midgley</t>
-  </si>
-  <si>
-    <t>Richard Comont</t>
-  </si>
-  <si>
-    <t>Bruce Martin</t>
-  </si>
-  <si>
-    <t>Michael Kilner</t>
-  </si>
-  <si>
-    <t>Ignacio Alonso</t>
-  </si>
-  <si>
-    <t>Helen Roy</t>
-  </si>
-  <si>
-    <t>Roger Wilson</t>
-  </si>
-  <si>
-    <t>Remy Poland</t>
-  </si>
-  <si>
-    <t>Claire Watson</t>
-  </si>
-  <si>
-    <t>Anne Sorbes</t>
-  </si>
-  <si>
-    <t>Handy</t>
-  </si>
-  <si>
-    <t>Koenraad Bracke</t>
-  </si>
-  <si>
-    <t>Ken Dolbear</t>
-  </si>
-  <si>
-    <t>Paul Brothers</t>
-  </si>
-  <si>
-    <t>Miroslav Fiala</t>
-  </si>
-  <si>
-    <t>Stanislav Krejčík</t>
-  </si>
-  <si>
-    <t>Edward Bartoszewicz</t>
-  </si>
-  <si>
-    <t>Toni Watt</t>
-  </si>
-  <si>
-    <t>Alby Oakshott</t>
-  </si>
-  <si>
-    <t>Josef Dvořák</t>
-  </si>
-  <si>
-    <t>Oldřich Nedvěd</t>
-  </si>
-  <si>
-    <t>Jelena Pincta</t>
-  </si>
-  <si>
-    <t>Jiří Skuhrovec</t>
-  </si>
-  <si>
-    <t>Andgelo Mombert</t>
-  </si>
-  <si>
-    <t>H. Bouyon</t>
-  </si>
-  <si>
-    <t>Nicola Bormolini</t>
-  </si>
-  <si>
-    <t>Saulo Bambi</t>
-  </si>
-  <si>
-    <t>ADD PHOTOS</t>
-  </si>
-  <si>
     <t>Arable land, garden or park</t>
   </si>
   <si>
@@ -4151,7 +4032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4535,7 +4416,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5056,11 +4937,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5068,7 +4944,7 @@
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normale 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5476,11 +5352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="DK1" sqref="DK1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
@@ -5781,70 +5657,70 @@
         <v>41</v>
       </c>
       <c r="BY1" s="9" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="BZ1" s="7" t="s">
-        <v>1104</v>
+        <v>1065</v>
       </c>
       <c r="CA1" s="7" t="s">
-        <v>1105</v>
+        <v>1066</v>
       </c>
       <c r="CB1" s="10" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
       <c r="CC1" s="10" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
       <c r="CD1" s="10" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CF1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CI1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CJ1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CK1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CL1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CM1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CN1" s="11" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="CO1" s="10" t="s">
-        <v>1108</v>
+        <v>1069</v>
       </c>
       <c r="CP1" s="10" t="s">
-        <v>1108</v>
+        <v>1069</v>
       </c>
       <c r="CQ1" s="10" t="s">
-        <v>1108</v>
+        <v>1069</v>
       </c>
       <c r="CR1" s="7" t="s">
-        <v>1109</v>
+        <v>1070</v>
       </c>
       <c r="CS1" s="13" t="s">
-        <v>1110</v>
+        <v>1071</v>
       </c>
       <c r="CT1" s="12" t="s">
-        <v>1111</v>
+        <v>1072</v>
       </c>
       <c r="CU1" s="9" t="s">
         <v>42</v>
@@ -11626,7 +11502,7 @@
         <v>16</v>
       </c>
       <c r="AB20" s="51" t="s">
-        <v>1102</v>
+        <v>1063</v>
       </c>
       <c r="AC20" s="34" t="s">
         <v>85</v>
@@ -20782,7 +20658,7 @@
         <v>35</v>
       </c>
       <c r="AB40" s="31" t="s">
-        <v>1112</v>
+        <v>1073</v>
       </c>
       <c r="AC40" s="34" t="s">
         <v>529</v>
@@ -33005,9 +32881,9 @@
       <c r="FC73" s="142"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:FC73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:FC73"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ18 AQ20:AQ44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ18 AQ20:AQ44">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -33017,7 +32893,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="118">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$H$2:$H$11</xm:f>
           </x14:formula1>
@@ -33026,7 +32902,7 @@
           </x14:formula2>
           <xm:sqref>T2 T68:T73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$I$2:$I$9</xm:f>
           </x14:formula1>
@@ -33035,7 +32911,7 @@
           </x14:formula2>
           <xm:sqref>U2:U23 Q24:Q25 U26:U29 Q27:Q28 U30:U45 U48:U50 U52:U57 U59:U61 U64:U73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$21</xm:f>
           </x14:formula1>
@@ -33044,7 +32920,7 @@
           </x14:formula2>
           <xm:sqref>Q2:Q7 Q9:Q23 Q26 Q29:Q42 Q45 Q66:Q69 Q71 Q73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$27</xm:f>
           </x14:formula1>
@@ -33053,7 +32929,7 @@
           </x14:formula2>
           <xm:sqref>AC2:AE2 AR2:AT2 BJ2:BL2 CB2:CD2 DU2:DW2 EZ2 DU3:DU4 AC66:AI73 AR66:AT73 BP66:BP73 CP66:CP67 DL66:DL71 EI66:EI69 EZ66:EZ73 EI71:EI73 DL73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$24</xm:f>
           </x14:formula1>
@@ -33062,7 +32938,7 @@
           </x14:formula2>
           <xm:sqref>AK2:AL2 BA2:BC2 BS2:BU2 CO2:CQ4 DL2:DM6 EH2:EJ4 FA2 BB3:BC14 BT3:BU14 CP5:CQ14 EI5:EJ9 DM7:DM8 DL9:DM9 EJ10 DM11:DM13 EI11:EJ13 DL14:DM14 BC15 BU15 CQ15 DM15 BB16:BC16 BT16:BU16 CP16:CQ16 DL16:DM16 DL17:DL23 EI21:EJ23 DL24:DM36 EI29:EJ36 EI38:EJ38 DL39:DM40 EI41:EJ44 AJ66:AL71 BA66:BC73 BQ66:BS73 CQ66:CQ67 DM66:DM71 EJ66:EJ73 FA66:FA73 EI70:EJ70 AJ72:AL73 DM73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$12</xm:f>
           </x14:formula1>
@@ -33071,7 +32947,7 @@
           </x14:formula2>
           <xm:sqref>W2:Y2 X3:Y9 Y10:Y40 X41:Y44 X46 W50:W53 W55:W56 W58 W60:W65 X65 X66:Y68 W68:Y68 W69 Y69:Y70 X70:Y70 W71:W72 X72:Y73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$27</xm:f>
           </x14:formula1>
@@ -33080,7 +32956,7 @@
           </x14:formula2>
           <xm:sqref>AJ45:AL45 BA45:BC45 BS45:BU45 CO45:CQ45 DM45 EJ45 FA45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$13</xm:f>
           </x14:formula1>
@@ -33089,7 +32965,7 @@
           </x14:formula2>
           <xm:sqref>W45:Y45 W46 Y46:Y48 X47:Y47 Y50:Y64 X51:Y54 X56:Y60 X62:Y63 W70 X71:Y71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$28</xm:f>
           </x14:formula1>
@@ -33098,7 +32974,7 @@
           </x14:formula2>
           <xm:sqref>AJ46:AL46 BA46:BC46 BS46:BU46 CQ46 DM46 EJ46 FA46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$30</xm:f>
           </x14:formula1>
@@ -33107,7 +32983,7 @@
           </x14:formula2>
           <xm:sqref>AT45:AT50 BL45:BL50 AC47:AI48 AR47:AT48 BJ47:BL48 CB47:CD48 DL47:DL48 EI47:EI48 EZ47:EZ48 CP48 CC49:CD50 AC50:AI50 AS50:AT50 BK50:BL50 CY50 EI50 EZ50 AT52:AT54 BL52:BL54 CD52:CD53 CZ52:CZ53 AS54:AT54 BK54:BL54 CD55 CZ55 DV55:DW55 AT56:AT59 BL56:BL59 CC56:CD57 AS57:AT57 BK57:BL57 DV57:DW57 AC58:AI58 DL58 EI58 EZ58 CD59 CZ59 AT61 BL61 CC61:CD62 CY61:CZ61 DU61:DU62 AC62:AI62 AS62:AT63 BK62:BL64 DL62 EI62 EZ62 AS64:AT64 DV64:DW64 AT65 BL65 CD65 CZ65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$29</xm:f>
           </x14:formula1>
@@ -33116,7 +32992,7 @@
           </x14:formula2>
           <xm:sqref>CQ20 EJ20 AM46 CR46 DN46:DO46 EK46:EN46 FB46 AJ47:AL47 BA47:BC47 BT47:BU47 DM47 EJ47 FA47 BU48 BB54 BT54 BB55:BC58 BT55:BU58 CP55:CQ59 AJ56:AL56 BA56:BC56 BS56:BU56 CO56:CQ56 DM56 EJ56 FA56 AJ58:AL58 DM58 EJ58 FA58 BC59 BU59 BB60:BC60 BT60:BU60 EI60:EJ60 BC61 BU61 AJ62:AL62 BA62:BC62 BS62:BU62 CO62:CQ62 DM62 EJ62 FA62 BA63 BS63 CO63 CQ63:CQ64 DK63 BC64 BU64 DM64 EJ64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$40</xm:f>
           </x14:formula1>
@@ -33125,7 +33001,7 @@
           </x14:formula2>
           <xm:sqref>Q47:Q48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$14</xm:f>
           </x14:formula1>
@@ -33134,7 +33010,7 @@
           </x14:formula2>
           <xm:sqref>X55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$47</xm:f>
           </x14:formula1>
@@ -33143,7 +33019,7 @@
           </x14:formula2>
           <xm:sqref>CP47:CQ47 AJ48:AL48 BA48:BB48 BS48:BT48 CQ48 DM48 EJ48 FA48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$31</xm:f>
           </x14:formula1>
@@ -33152,7 +33028,7 @@
           </x14:formula2>
           <xm:sqref>AC49:AI49 AR49 BJ49 CB49:CB50 CX49 EZ49</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$32</xm:f>
           </x14:formula1>
@@ -33161,7 +33037,7 @@
           </x14:formula2>
           <xm:sqref>AJ49:AL49 BA49:BC49 BS49:BU49 CO49:CQ49 EH49:EJ49 FA49 AJ63:AL63 BC63 BU63 CP63 DL63 EJ63 FA63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$16</xm:f>
           </x14:formula1>
@@ -33170,7 +33046,7 @@
           </x14:formula2>
           <xm:sqref>W49:Y49 X64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$34</xm:f>
           </x14:formula1>
@@ -33179,7 +33055,7 @@
           </x14:formula2>
           <xm:sqref>BC48:BD48 AJ50:AL50 BA50:BC50 BS50:BU50 CO50:CQ50 EJ50 FA50 BC52:BC53 BU52:BU54 CQ52 BC54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000013000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$35</xm:f>
           </x14:formula1>
@@ -33188,7 +33064,7 @@
           </x14:formula2>
           <xm:sqref>AJ52:AL52 BB52 BT52 CP52 EJ52 FA52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000014000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$36</xm:f>
           </x14:formula1>
@@ -33197,7 +33073,7 @@
           </x14:formula2>
           <xm:sqref>AJ51:AL51 BA51 BS51 CQ51 DM51 EJ51 FA51 AJ53:AL53 BB53 BT53 CP53 DM53:DM54 EJ53 FA53 AC54:AL54 AR54 BA54 BJ54 BS54 CP54:CQ54 EI54:EJ54 EZ54:FA54 CQ68:CQ69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000015000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$25</xm:f>
           </x14:formula1>
@@ -33206,7 +33082,7 @@
           </x14:formula2>
           <xm:sqref>Q54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000016000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$17</xm:f>
           </x14:formula1>
@@ -33215,7 +33091,7 @@
           </x14:formula2>
           <xm:sqref>W3:W44 X61 W66:W67 W73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000017000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$26</xm:f>
           </x14:formula1>
@@ -33224,7 +33100,7 @@
           </x14:formula2>
           <xm:sqref>Q8 Q55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000018000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$38</xm:f>
           </x14:formula1>
@@ -33233,7 +33109,7 @@
           </x14:formula2>
           <xm:sqref>AC55:AI55 AR55 BJ55 CX55 EI55 EZ55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000019000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$37</xm:f>
           </x14:formula1>
@@ -33242,7 +33118,7 @@
           </x14:formula2>
           <xm:sqref>AJ55:AL55 BA55 BS55 CO55 DM55 EJ55 FA55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$27</xm:f>
           </x14:formula1>
@@ -33251,7 +33127,7 @@
           </x14:formula2>
           <xm:sqref>Q57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$38</xm:f>
           </x14:formula1>
@@ -33260,7 +33136,7 @@
           </x14:formula2>
           <xm:sqref>AJ57:AL57 BA57 BS57 DM57 EJ57 FA57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$28</xm:f>
           </x14:formula1>
@@ -33269,7 +33145,7 @@
           </x14:formula2>
           <xm:sqref>Q58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$29</xm:f>
           </x14:formula1>
@@ -33278,7 +33154,7 @@
           </x14:formula2>
           <xm:sqref>Q59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$41</xm:f>
           </x14:formula1>
@@ -33287,7 +33163,7 @@
           </x14:formula2>
           <xm:sqref>AC59:AI59 AR59 BJ59 CB59 CX59 DL59 EI59 EZ59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$40</xm:f>
           </x14:formula1>
@@ -33296,7 +33172,7 @@
           </x14:formula2>
           <xm:sqref>CO57 AJ59:AL61 BA59:BB59 BS59:BT59 CO59 DM59:DM60 EJ59 FA59:FA61 CQ60 EH60 BA61 BS61 CO61 EJ61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000020000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$30</xm:f>
           </x14:formula1>
@@ -33305,7 +33181,7 @@
           </x14:formula2>
           <xm:sqref>Q60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$43</xm:f>
           </x14:formula1>
@@ -33314,7 +33190,7 @@
           </x14:formula2>
           <xm:sqref>AC60:AI60 AR60:AT60 BJ60:BL60 CB60:CD60 CP60 DL60 DU60 EZ60 CB61:CB64 CX61 CX63:CX64 CC64:CD64 CY64:CZ64 CB66:CB68</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000022000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$31</xm:f>
           </x14:formula1>
@@ -33323,7 +33199,7 @@
           </x14:formula2>
           <xm:sqref>Q61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000023000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$41</xm:f>
           </x14:formula1>
@@ -33332,7 +33208,7 @@
           </x14:formula2>
           <xm:sqref>BB61 BT61 CP61 DK61 AJ64:AL65 FA64:FA65 EJ65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000024000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$32</xm:f>
           </x14:formula1>
@@ -33341,7 +33217,7 @@
           </x14:formula2>
           <xm:sqref>Q62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000025000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$33</xm:f>
           </x14:formula1>
@@ -33350,7 +33226,7 @@
           </x14:formula2>
           <xm:sqref>Q63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000026000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$45</xm:f>
           </x14:formula1>
@@ -33359,7 +33235,7 @@
           </x14:formula2>
           <xm:sqref>AC63:AI63 EI63 EZ63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000027000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$35</xm:f>
           </x14:formula1>
@@ -33368,7 +33244,7 @@
           </x14:formula2>
           <xm:sqref>Q64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000028000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$36</xm:f>
           </x14:formula1>
@@ -33377,7 +33253,7 @@
           </x14:formula2>
           <xm:sqref>Q65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000029000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$43</xm:f>
           </x14:formula1>
@@ -33386,7 +33262,7 @@
           </x14:formula2>
           <xm:sqref>BB65:BC65 BT65:BU65 CP65:CQ65 DM65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$37</xm:f>
           </x14:formula1>
@@ -33395,7 +33271,7 @@
           </x14:formula2>
           <xm:sqref>Q56</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$38</xm:f>
           </x14:formula1>
@@ -33404,7 +33280,7 @@
           </x14:formula2>
           <xm:sqref>Q51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$45</xm:f>
           </x14:formula1>
@@ -33413,7 +33289,7 @@
           </x14:formula2>
           <xm:sqref>DK2:DK6 AK3:AL13 BA3:BA19 BS3:BS19 FA3:FA44 AJ5:AL13 CO5:CO19 EH5:EH8 DK9 EH10:EH19 AJ14:AJ19 AL14:AL15 DK14:DK16 EJ14 EI15:EJ19 AK16:AL19 BB17:BC19 BT17:BU19 CP17:CQ19 AK20 BB20 BT20 AJ21:AL23 BA21:BC23 BS21:BU23 CO21:CQ23 DK21:DK28 EH21:EH23 AK24:AK28 BB24:BB28 BT24:BT28 CP24:CP28 EI24:EI28 AJ29:AL37 BA29:BC37 BS29:BU37 CO29:CQ37 EH29:EH44 DK30:DK37 DL37:DM37 EI37:EJ37 AJ38:AJ44 BA38:BA44 BS38:BS44 CO38:CO44 DM38 AL39 BC39 BU39 CQ39 DK39 EJ39 AK40:AL44 BB40:BC44 BT40:BU44 CP40:CQ44 EI40:EJ40 DK41:DM44 CO47:CO48 DM49:DM50 BB51:BC51 BT51:BU51 CO51:CO53 BA52:BA53 BS52:BS53 DM52 BB63 BT63 CO68:CO71 CP70:CQ73 EH70 DL72:DM72 CO73:CQ73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$H$2:$H$12</xm:f>
           </x14:formula1>
@@ -33422,7 +33298,7 @@
           </x14:formula2>
           <xm:sqref>T3:T45 T48:T57 T59:T67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$39</xm:f>
           </x14:formula1>
@@ -33431,7 +33307,7 @@
           </x14:formula2>
           <xm:sqref>Q46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$19</xm:f>
           </x14:formula1>
@@ -33440,7 +33316,7 @@
           </x14:formula2>
           <xm:sqref>W48:X48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000030000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$42</xm:f>
           </x14:formula1>
@@ -33449,7 +33325,7 @@
           </x14:formula2>
           <xm:sqref>Q49:Q50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000031000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$53</xm:f>
           </x14:formula1>
@@ -33458,7 +33334,7 @@
           </x14:formula2>
           <xm:sqref>AC52:AI52 EI52 EZ52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000032000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$20</xm:f>
           </x14:formula1>
@@ -33467,7 +33343,7 @@
           </x14:formula2>
           <xm:sqref>X50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000033000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$H$2:$H$13</xm:f>
           </x14:formula1>
@@ -33476,7 +33352,7 @@
           </x14:formula2>
           <xm:sqref>T46:T47 T58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000034000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$I$2:$I$10</xm:f>
           </x14:formula1>
@@ -33485,7 +33361,7 @@
           </x14:formula2>
           <xm:sqref>U46:U47 U51 U58 U62:U63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000035000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$43</xm:f>
           </x14:formula1>
@@ -33494,7 +33370,7 @@
           </x14:formula2>
           <xm:sqref>Q52:Q53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000036000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$21</xm:f>
           </x14:formula1>
@@ -33503,7 +33379,7 @@
           </x14:formula2>
           <xm:sqref>W54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000037000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$55</xm:f>
           </x14:formula1>
@@ -33512,7 +33388,7 @@
           </x14:formula2>
           <xm:sqref>AC56:AI56 AR56 BJ56 DL56 EI56 EZ56</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000038000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$22</xm:f>
           </x14:formula1>
@@ -33521,7 +33397,7 @@
           </x14:formula2>
           <xm:sqref>W57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000039000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$23</xm:f>
           </x14:formula1>
@@ -33530,7 +33406,7 @@
           </x14:formula2>
           <xm:sqref>Y65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00003A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$56</xm:f>
           </x14:formula1>
@@ -33539,7 +33415,7 @@
           </x14:formula2>
           <xm:sqref>AC61:AI61 AR61 BJ61 EI61 EZ61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00003B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$57</xm:f>
           </x14:formula1>
@@ -33548,7 +33424,7 @@
           </x14:formula2>
           <xm:sqref>AS45:AS46 BK45:BK46 CC45:CD45 CC46 AS49 BK49 CY49 AS51:AS52 BK51:BK52 CC51:CC52 CY52 AS55:AS56 BK55:BK56 CB55:CB56 CY55 CB57 AS58:AS59 BK58:BK59 CC59 CY59 AS65 BK65 CC65 CY65 DV65:DW65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00003C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$24</xm:f>
           </x14:formula1>
@@ -33557,7 +33433,7 @@
           </x14:formula2>
           <xm:sqref>W59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00003D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$48</xm:f>
           </x14:formula1>
@@ -33566,7 +33442,7 @@
           </x14:formula2>
           <xm:sqref>AJ2:AJ4 AK14 EI14 CO20:CP20 EH20:EI20 BA64:BB64 BS64:BT64 CO64:CP64 DK64:DL64 EH64:EI64 BA65 BS65 CO65 DK65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00003E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$29</xm:f>
           </x14:formula1>
@@ -33575,7 +33451,7 @@
           </x14:formula2>
           <xm:sqref>AC46:AI46 AR46 BJ46 CB46 CP46 DL46 EI46 EZ46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00003F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$34</xm:f>
           </x14:formula1>
@@ -33584,7 +33460,7 @@
           </x14:formula2>
           <xm:sqref>AC53:AI53 AR53 BJ53 CB53 CX53 EI53 EZ53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000040000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$39</xm:f>
           </x14:formula1>
@@ -33593,7 +33469,7 @@
           </x14:formula2>
           <xm:sqref>DU55 AC57:AI57 AR57 BJ57 DL57 DU57 EI57 EZ57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000041000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$50</xm:f>
           </x14:formula1>
@@ -33602,7 +33478,7 @@
           </x14:formula2>
           <xm:sqref>AC3:AE19 AR3:AT15 BJ3:BL15 CB3:CD19 DV3:DW5 EZ3:EZ44 CX6 DU6:DU15 DW6 DV7:DW15 CX14:CZ15 AR16:AR38 AT16 BJ16:BJ38 BL16 CX16 DW16 AS17:AT19 BK17:BL19 DU17:DW19 CX19:CZ19 AC20:AC24 AE20 AT20 BL20 CB20:CB38 CD20:CD22 CX20 CZ20 DU20:DU38 DW20:DW21 AD21:AE44 AS21:AT23 BK21:BL23 CC21:CD28 DV21:DW23 AC25:AE38 AA27:AA28 CD29 CX29:CX44 CC30:CD37 DV32:DW32 DV37:DW37 CY38 AC40:AE44 AR40:AR44 BJ40:BJ44 CB40:CB44 DU40:DU44 AC51:AI51 AR51:AR52 BJ51:BJ52 CB51:CB52 CP51 DL51 EI51 EZ51 CX52 CC66:CC67 CP68:CP69 CB69:CB71 DU70 CB72:CD73 CX72:CZ72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000042000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$51</xm:f>
           </x14:formula1>
@@ -33611,7 +33487,7 @@
           </x14:formula2>
           <xm:sqref>AC45:AI45 AR45 BJ45 CB45 DL45 EI45 EZ45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000043000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$1:$J$1</xm:f>
           </x14:formula1>
@@ -33620,7 +33496,7 @@
           </x14:formula2>
           <xm:sqref>E2:H73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000044000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$48</xm:f>
           </x14:formula1>
@@ -33629,7 +33505,7 @@
           </x14:formula2>
           <xm:sqref>AC64:AI65 AR64:AR65 BJ64:BJ65 DU64:DU65 EZ64:EZ65 CB65 CX65 EI65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000045000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$58</xm:f>
           </x14:formula1>
@@ -33638,7 +33514,7 @@
           </x14:formula2>
           <xm:sqref>AR58 BJ58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000046000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$61</xm:f>
           </x14:formula1>
@@ -33647,7 +33523,7 @@
           </x14:formula2>
           <xm:sqref>AR50 BJ50 CX50 AR62:AR63 BJ62:BJ63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000047000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$15:$I$15</xm:f>
           </x14:formula1>
@@ -33656,7 +33532,7 @@
           </x14:formula2>
           <xm:sqref>AF2:AH9 AU2:AU9 AW2:AZ6 BM2:BM9 BO2:BR6 DC2:DJ6 DZ2:EG4 ET2:EY44 DX5:DX6 EB5:EG6 AV6:AZ6 BN6:BR6 EA6:EG6 AV7:AV8 AX7:AZ9 BN7:BN8 BP7:BR9 DE7:DJ10 EC7:EG8 AW9:AZ10 BO9:BR10 EB9:EG9 AG10:AH10 AV10:AZ10 BN10:BR10 EC10:EG10 AY11:AZ14 BQ11:BR14 DC11:DJ13 EB11:EF13 DE14:DJ15 EB14:EB15 AW15:AZ15 BO15:BR15 AG16:AH16 AU16 AY16:AZ16 BM16 BQ16:BR16 DC16:DJ16 EA16:EG16 AZ17 BR17 DD17:DJ18 EA17:EB17 AW18:AZ19 BO18:BR19 EA18 AH19:AI19 DC19:DJ19 AH20:AH28 AX20:AZ23 BP20:BR23 DD20:DJ23 DC24:DJ28 DZ24:DZ28 AY29:AZ29 BQ29:BR29 DD29:DJ29 AG30:AH31 AV30:AZ31 BN30:BR31 DC30:DJ42 AH32:AH44 AX32:AZ38 BP32:BR38 AW39:AZ40 BO39:BR40 AV41:AZ44 BN41:BR44 DC45:DJ48 DC51:DJ59 DD60:DJ63 DC64:DJ73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000048000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$P$2:$P$3</xm:f>
           </x14:formula1>
@@ -33665,7 +33541,7 @@
           </x14:formula2>
           <xm:sqref>Z2:Z73 AO2:AO73 BG2:BG73 BY2:BY73 CU2:CU73 CW2:CW5 DQ2:DQ73 DS2:DT6 EO2:ES73 CV6:CW6 CW7:CW15 DT7:DT8 DT10:DT14 DS11:DT14 CV16:CW16 DS16:DT31 CW17:CW23 CW29 CV30:CW36 DT32:DT44 DS33:DT36 CW37:CW44 DS38:DT38 CV39:CW39 DS40:DT44 AA43:AA44 CV45:CZ48 DU45:DW45 CD46 DS46:DW48 CW49:CW50 DS49:DT49 DV49:DW49 DU50:DW50 CV51:CZ51 DS51:DW54 CW52:CW53 CB54:CD54 CV54:CZ54 CW55 DS55:DT55 CV56:CZ58 DS56:DW56 DT57 CC58:CD58 DS58:DW59 CW59 CV60:CZ60 DT60:DT65 CW61 DS61:DT65 DV61:DW62 CV62:CZ62 CC63:CD63 CW63:CW65 CY63:CZ63 DU63:DW63 CD66:CD67 CW66:CZ71 DS66:DW69 CC68:CD71 DS70:DT70 DS71:DW73 CW72 CW73:CZ73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000049000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$9:$F$9</xm:f>
           </x14:formula1>
@@ -33674,7 +33550,7 @@
           </x14:formula2>
           <xm:sqref>O2:P7 P8:P73 O9:P51 O53:P54 O57:O59 O61:P73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00004A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$14:$M$14</xm:f>
           </x14:formula1>
@@ -33683,7 +33559,7 @@
           </x14:formula2>
           <xm:sqref>DK45:DK48 DX45:EH48 ET45:EY73 AV46:AZ46 BN46:BR46 CO46 AU47:AZ47 BO47:BR47 AV48:AZ48 BN48:BR48 DZ49:EG49 DX50:EH56 DK51 CO54 DK56:DK58 EA57:EG57 DX58:EH59 CO60 DK60 EA60:EG60 DY61:EG62 DK62 DX63:EH63 EA64:EG64 AU66:AZ73 BJ66:BO73 DK66:DK71 DX66:EH69 DX71:EH73 DK73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00004B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$15:$J$15</xm:f>
           </x14:formula1>
@@ -33692,7 +33568,7 @@
           </x14:formula2>
           <xm:sqref>AI2:AI18 AV2:AV5 BN2:BN5 AW7:AW8 BO7:BO8 AF10:AF44 AU10:AU15 BM10:BM15 AG11:AI15 AV11:AX14 BN11:BP14 DX11:EA14 EG11:EG13 ED14:EG14 AV15 BN15 EC15:EG15 AW16:AX16 BO16:BP16 DX16:DX18 DZ16:DZ18 AG17:AI18 AU17:AX17 BM17:BP17 DY17:DZ18 EC17:EG17 AU18:AV29 BM18:BN29 EB18:EG18 AG19:AG29 DA19:DB19 EA19:EG19 AI20:AI44 AW20:AW29 BO20:BO29 DZ20:EG20 EB21:EG22 AX24:AZ28 BP24:BR28 DX24:DY29 EA24:EG28 AH29:AI29 AX29 BP29 EC29:EG29 AU30:AU46 BM30:BM46 DY30:EG31 AG32:AG44 AV32:AW38 BN32:BO38 EB32:EG32 DX33:EG36 EB37:EG37 EA38:EG38 AV39:AV40 BN39:BN40 DX39:DY40 CE40:CF45 EC40:EG40 DX41:EG44 AV45:AZ45 BN45:BR45 BM47:BN47 AU48:AU52 BM48:BM50 AV49:AZ52 BN49:BR50 CE49:CF50 DX49:DY49 BM51:BR52 CE52 AV53 AX53:AZ53 BN53 BP53:BR53 AU54:AZ54 BM54:BR54 AW55:AZ57 BO55:BR57 AV56:AZ58 BN56:BR58 DX57:DY57 AU58:AZ65 BM58:BR65 DX60:DZ60 DX61:DX62 CE64 DA64 DX64:DZ64 DX70:EG70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00004C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$15:$K$15</xm:f>
           </x14:formula1>
@@ -33701,7 +33577,7 @@
           </x14:formula2>
           <xm:sqref>CE2:CN39 DX2:DY4 DA6:DB6 DZ6:DZ10 DX7:EB8 AV9 BN9 DX9:EA9 DX10:EB10 DA14:DD15 DX15:EA15 AV16 BN16 DA16:DB16 DY16 AY17 BQ17 DX19:DZ19 DA20:DC20 DX20:DY23 DB21:DC23 DZ21:EA22 DZ23:EG23 DA24:DB28 DA30:DB37 DX30:DX32 DY32:DZ32 DX37:EA37 DX38:DZ38 DA39:DB39 CG40:CN45 DB40:DB42 DZ40:EB40 DB43:DJ44 DA45:DB48 CE46:CN48 CG49:CN53 DC49:DJ50 CE51:CN51 DA51:DB51 CF52:CN52 AU53 AW53 BM53 BO53 CE53:CN63 AU55:AV55 BM55:BN55 AU56:AU57 BM56:BM57 DA56:DB58 DZ57 CF64:CN64 DB64 CE65:CN73 DX65:EG65 DA66:DB71 DB72 DA73:DB73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00004D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$9:$G$9</xm:f>
           </x14:formula1>
@@ -33710,7 +33586,7 @@
           </x14:formula2>
           <xm:sqref>O8 O52 O55:O56 O60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00004E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$49</xm:f>
           </x14:formula1>
@@ -33719,7 +33595,7 @@
           </x14:formula2>
           <xm:sqref>DL7:DL8 AK15 BB15 BT15 CP15 DL15 AJ20 AL20 BA20 BC20 BS20 BU20 AJ24:AJ28 AL24:AL28 BA24:BA28 BC24:BC28 BS24:BS28 BU24:BU28 CO24:CO28 CQ24:CQ28 EH24:EH28 EJ24:EJ28 AK38 BB38 BT38 CP38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00004F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$59</xm:f>
           </x14:formula1>
@@ -33728,7 +33604,7 @@
           </x14:formula2>
           <xm:sqref>AS16 BK16 DV16 AD20 AS20 BK20 CC20 CY20 DV20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000050000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$50</xm:f>
           </x14:formula1>
@@ -33737,7 +33613,7 @@
           </x14:formula2>
           <xm:sqref>AL38 BC38 BU38 CQ38 AK39 BB39 BT39 CP39 EI39 CO67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000051000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$60</xm:f>
           </x14:formula1>
@@ -33746,7 +33622,7 @@
           </x14:formula2>
           <xm:sqref>AC39 AR39 BJ39 DU39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000052000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$62</xm:f>
           </x14:formula1>
@@ -33755,7 +33631,7 @@
           </x14:formula2>
           <xm:sqref>AT51 BL51 CD51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000053000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$63</xm:f>
           </x14:formula1>
@@ -33764,7 +33640,7 @@
           </x14:formula2>
           <xm:sqref>AS53 BK53 CC53 CY53 AT55 BL55 CC55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000054000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$L$2:$L$64</xm:f>
           </x14:formula1>
@@ -33773,7 +33649,7 @@
           </x14:formula2>
           <xm:sqref>AS61 BK61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000055000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$5:$AA$5</xm:f>
           </x14:formula1>
@@ -33782,7 +33658,7 @@
           </x14:formula2>
           <xm:sqref>R2:R33 R36:R73 Q72:R72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000056000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'xlfile://root/users/karkaz/documents/workspace/c:/volumes/documents/evelina/  doctorate/c:/users/alber/documents/2015 lavori/wallingford/aggiornamenti di maggio 2016/[ladybird-data_2016-05-31 alberto gr 12-6.xlsx]charact_default'!#REF!</xm:f>
           </x14:formula1>
@@ -33791,7 +33667,7 @@
           </x14:formula2>
           <xm:sqref>DA2:DB5 DU5 DV6 DA7:DB13 DS15:DT15 DU16 DA17:DC18 DA21:DA23 DN21:DN22 EL21:EL22 CR22 CC29 CY29 DA29:DC29 DS37 DA38:DB38 CB39 DA40:DA44 CR43:CR44 DN43:DN44 EK43:EK44 DS45:DT45 DA49:DB50 DU49 DS50:DT50 DA52:DB55 CQ53 CR55 CB58 DA59:DB59 DA60:DC63 CQ61 DM61 EH61:EH62 DA65:DB65 DA72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000057000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'xlfile://root/users/karkaz/documents/workspace/c:/volumes/documents/evelina/  doctorate/c:/users/alber/documents/2016 lavori/coccinelle/antonio soares/correzioni database 12.2016/[ladybird-data_2016-11-10 alberto.xlsx]charact_default'!#REF!</xm:f>
           </x14:formula1>
@@ -33800,7 +33676,7 @@
           </x14:formula2>
           <xm:sqref>CX2:CZ5 DY5:EA5 CY6:CZ13 DY6 CX7:CZ13 CY16:CZ18 CX17:CZ18 DK17:DK18 DM17:DM23 CX21:CY23 DZ29:EB29 DK38 DK49:DL50 DK52:DL55 DO54 DK59 DO60 DO62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000058000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$4:$AC$4</xm:f>
           </x14:formula1>
@@ -33809,7 +33685,7 @@
           </x14:formula2>
           <xm:sqref>I2:I73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000059000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$2:$Y$2</xm:f>
           </x14:formula1>
@@ -33818,7 +33694,7 @@
           </x14:formula2>
           <xm:sqref>N2:N73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00005A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$3:$H$3</xm:f>
           </x14:formula1>
@@ -33827,7 +33703,7 @@
           </x14:formula2>
           <xm:sqref>J2:M73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00005B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$5:$AC$5</xm:f>
           </x14:formula1>
@@ -33836,7 +33712,7 @@
           </x14:formula2>
           <xm:sqref>R34:R35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00005C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$J$2:$J$45</xm:f>
           </x14:formula1>
@@ -33845,7 +33721,7 @@
           </x14:formula2>
           <xm:sqref>Q43:Q44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00005D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$5</xm:f>
           </x14:formula1>
@@ -33854,7 +33730,7 @@
           </x14:formula2>
           <xm:sqref>V2 V46:V48 V54 V59 V64 V68:V69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00005E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$6</xm:f>
           </x14:formula1>
@@ -33863,7 +33739,7 @@
           </x14:formula2>
           <xm:sqref>V45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00005F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$7</xm:f>
           </x14:formula1>
@@ -33872,7 +33748,7 @@
           </x14:formula2>
           <xm:sqref>V57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000060000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$8</xm:f>
           </x14:formula1>
@@ -33881,7 +33757,7 @@
           </x14:formula2>
           <xm:sqref>V58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000061000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$9</xm:f>
           </x14:formula1>
@@ -33890,7 +33766,7 @@
           </x14:formula2>
           <xm:sqref>V60:V61 V65 V72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000062000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$11</xm:f>
           </x14:formula1>
@@ -33899,7 +33775,7 @@
           </x14:formula2>
           <xm:sqref>V49:V50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000063000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$12</xm:f>
           </x14:formula1>
@@ -33908,7 +33784,7 @@
           </x14:formula2>
           <xm:sqref>V51 V71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000064000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$13</xm:f>
           </x14:formula1>
@@ -33917,7 +33793,7 @@
           </x14:formula2>
           <xm:sqref>V52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000065000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$14</xm:f>
           </x14:formula1>
@@ -33926,7 +33802,7 @@
           </x14:formula2>
           <xm:sqref>V53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000066000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$15</xm:f>
           </x14:formula1>
@@ -33935,7 +33811,7 @@
           </x14:formula2>
           <xm:sqref>V55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000067000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$16</xm:f>
           </x14:formula1>
@@ -33944,7 +33820,7 @@
           </x14:formula2>
           <xm:sqref>V56</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000068000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$17</xm:f>
           </x14:formula1>
@@ -33953,7 +33829,7 @@
           </x14:formula2>
           <xm:sqref>V62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000069000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$18</xm:f>
           </x14:formula1>
@@ -33962,7 +33838,7 @@
           </x14:formula2>
           <xm:sqref>V63 V70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00006A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$10</xm:f>
           </x14:formula1>
@@ -33971,7 +33847,7 @@
           </x14:formula2>
           <xm:sqref>V3:V44 V66:V67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00006B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$51</xm:f>
           </x14:formula1>
@@ -33980,7 +33856,7 @@
           </x14:formula2>
           <xm:sqref>CO58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00006C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$N$2:$N$27</xm:f>
           </x14:formula1>
@@ -33989,7 +33865,7 @@
           </x14:formula2>
           <xm:sqref>AM2 BD2 BV2 CR2:CR4 EK2:EN2 FB2 EK3:EL4 AM45 BD45:BD47 BV45:BV48 CR45 DN45:DO45 EK45:EN45 FB45 AM47:AM48 CR47:CR48 DN47:DO48 EK47:EN48 FB47:FB48 AM50:AM52 BD50:BD52 BV50:BV52 CR50:CR52 EK50:EN52 FB50:FB52 DN51:DO51 AM54 BD54 BV54 CR54 DN54 EK54:EN54 FB54 AM58:AM60 BD58:BD60 BV58:BV60 CR58:CR60 DN58:DO58 EK58:EN60 FB58:FB60 DN59:DN60 AM62:AM63 BD62:BD63 BV62:BV63 CR62:CR63 DN62:DN63 EM62:EN62 FB62:FB63 EK63:EN63 AM66:AM73 BD66:BD73 BT66:BV73 CR66:CR72 DN66:DO70 EK66:EN73 FB66:FB73 DN71:DN73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00006D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$N$2:$N$28</xm:f>
           </x14:formula1>
@@ -33998,7 +33874,7 @@
           </x14:formula2>
           <xm:sqref>AM49 BD49 BV49 CR49 DN49:DN50 EK49:EN49 FB49 DN52 AM64 BD64 BV64 CR64 DN64 EK64:EN64 FB64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00006E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$N$2:$N$31</xm:f>
           </x14:formula1>
@@ -34007,7 +33883,7 @@
           </x14:formula2>
           <xm:sqref>AM53 BD53 BV53 DN53 EK53:EN53 FB53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00006F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$N$2:$N$33</xm:f>
           </x14:formula1>
@@ -34016,7 +33892,7 @@
           </x14:formula2>
           <xm:sqref>AM55:AM57 BD55:BD57 BV55:BV57 EK55:EN57 FB55:FB57 CR56:CR57 DN56 DN57:DO57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000070000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$N$2:$N$34</xm:f>
           </x14:formula1>
@@ -34025,7 +33901,7 @@
           </x14:formula2>
           <xm:sqref>AM65 BD65 BV65 CR65 DN65 EK65 EM65:EN65 FB65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000071000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$N$2:$N$35</xm:f>
           </x14:formula1>
@@ -34034,7 +33910,7 @@
           </x14:formula2>
           <xm:sqref>DN2:DN5 AM3:AM44 BD3:BD44 BV3:BV44 EM3:EN18 FB3:FB44 CR5:CR21 EK5:EN9 DN6:DO6 DN7:DN15 EH9 EL10:EN10 EK11:EN17 DN16:DO16 DN17:DN18 EK18:EK20 EL19:EN20 EM21:EN26 CR23:CR42 DN23:DN29 EL23:EN23 EK24:EN42 DN30:DO36 DN37:DN38 DN39:DO39 DN40:DN42 EL43:EN44 AM61 BD61 BV61 CR61 DN61 EM61:EN61 FB61 CR73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000072000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$25</xm:f>
           </x14:formula1>
@@ -34043,7 +33919,7 @@
           </x14:formula2>
           <xm:sqref>W47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000073000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$K$2:$K$19</xm:f>
           </x14:formula1>
@@ -34052,7 +33928,7 @@
           </x14:formula2>
           <xm:sqref>V73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000074000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$M$2:$M$52</xm:f>
           </x14:formula1>
@@ -34061,7 +33937,7 @@
           </x14:formula2>
           <xm:sqref>BS47 BA58 BS58 BA60 BS60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000075000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Characteristics_overview!$B$6:$AT$6</xm:f>
           </x14:formula1>
@@ -34070,7 +33946,7 @@
           </x14:formula2>
           <xm:sqref>S2:S73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000076000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Charact_default!$O$2:$O$26</xm:f>
           </x14:formula1>
@@ -34086,7 +33962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -36295,13 +36171,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -37819,7 +37695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -39254,10 +39130,10 @@
         <v>1052</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>1101</v>
+        <v>1062</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>1100</v>
+        <v>1061</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>1053</v>
@@ -39645,7 +39521,7 @@
       <c r="AX16" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="AY16" s="177" t="s">
+      <c r="AY16" s="174" t="s">
         <v>843</v>
       </c>
       <c r="AZ16" s="1"/>
@@ -39905,3038 +39781,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J73"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D1" s="174" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E1" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F1" s="174" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G1" s="174" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H1" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I1" s="174" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J1" s="174" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="174">
-        <v>1</v>
-      </c>
-      <c r="B2" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C2" s="174">
-        <v>683</v>
-      </c>
-      <c r="D2" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E2" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F2" s="174">
-        <v>850</v>
-      </c>
-      <c r="G2" s="174" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H2" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I2" s="174">
-        <v>782</v>
-      </c>
-      <c r="J2" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="174">
-        <v>2</v>
-      </c>
-      <c r="B3" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C3" s="174">
-        <v>683</v>
-      </c>
-      <c r="D3" s="175" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E3" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F3" s="174">
-        <v>718</v>
-      </c>
-      <c r="G3" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="174">
-        <v>3</v>
-      </c>
-      <c r="B4" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C4" s="174">
-        <v>794</v>
-      </c>
-      <c r="D4" s="174" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E4" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F4" s="174">
-        <v>683</v>
-      </c>
-      <c r="G4" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H4" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I4" s="174">
-        <v>658</v>
-      </c>
-      <c r="J4" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="174">
-        <v>4</v>
-      </c>
-      <c r="B5" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C5" s="174">
-        <v>772</v>
-      </c>
-      <c r="D5" s="174" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E5" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F5" s="174">
-        <v>665</v>
-      </c>
-      <c r="G5" s="174" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H5" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I5" s="174">
-        <v>839</v>
-      </c>
-      <c r="J5" s="174" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="174">
-        <v>5</v>
-      </c>
-      <c r="B6" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C6" s="174">
-        <v>716</v>
-      </c>
-      <c r="D6" s="174" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E6" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F6" s="174">
-        <v>678</v>
-      </c>
-      <c r="G6" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H6" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I6" s="174">
-        <v>678</v>
-      </c>
-      <c r="J6" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="174">
-        <v>6</v>
-      </c>
-      <c r="B7" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C7" s="174">
-        <v>731</v>
-      </c>
-      <c r="D7" s="174" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E7" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F7" s="174">
-        <v>839</v>
-      </c>
-      <c r="G7" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H7" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I7" s="174">
-        <v>683</v>
-      </c>
-      <c r="J7" s="174" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="174">
-        <v>7</v>
-      </c>
-      <c r="B8" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C8" s="174">
-        <v>762</v>
-      </c>
-      <c r="D8" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="174">
-        <v>8</v>
-      </c>
-      <c r="B9" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C9" s="174">
-        <v>678</v>
-      </c>
-      <c r="D9" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E9" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F9" s="174">
-        <v>778</v>
-      </c>
-      <c r="G9" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H9" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I9" s="174">
-        <v>768</v>
-      </c>
-      <c r="J9" s="174" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="174">
-        <v>9</v>
-      </c>
-      <c r="B10" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C10" s="174">
-        <v>678</v>
-      </c>
-      <c r="D10" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E10" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F10" s="174">
-        <v>683</v>
-      </c>
-      <c r="G10" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H10" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I10" s="174">
-        <v>686</v>
-      </c>
-      <c r="J10" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="174">
-        <v>10</v>
-      </c>
-      <c r="B11" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C11" s="174">
-        <v>678</v>
-      </c>
-      <c r="D11" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E11" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F11" s="174">
-        <v>641</v>
-      </c>
-      <c r="G11" s="174" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H11" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I11" s="174">
-        <v>680</v>
-      </c>
-      <c r="J11" s="174" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="174">
-        <v>11</v>
-      </c>
-      <c r="B12" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C12" s="174">
-        <v>683</v>
-      </c>
-      <c r="D12" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E12" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F12" s="174">
-        <v>685</v>
-      </c>
-      <c r="G12" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H12" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I12" s="174">
-        <v>678</v>
-      </c>
-      <c r="J12" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="174">
-        <v>12</v>
-      </c>
-      <c r="B13" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="174">
-        <v>683</v>
-      </c>
-      <c r="D13" s="174" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E13" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F13" s="174">
-        <v>683</v>
-      </c>
-      <c r="G13" s="174" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H13" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I13" s="174">
-        <v>712</v>
-      </c>
-      <c r="J13" s="174" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="174">
-        <v>13</v>
-      </c>
-      <c r="B14" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C14" s="174">
-        <v>678</v>
-      </c>
-      <c r="D14" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E14" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F14" s="174">
-        <v>840</v>
-      </c>
-      <c r="G14" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H14" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I14" s="174">
-        <v>683</v>
-      </c>
-      <c r="J14" s="174" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="174">
-        <v>14</v>
-      </c>
-      <c r="B15" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C15" s="174">
-        <v>686</v>
-      </c>
-      <c r="D15" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E15" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F15" s="174">
-        <v>683</v>
-      </c>
-      <c r="G15" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H15" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I15" s="174">
-        <v>683</v>
-      </c>
-      <c r="J15" s="174" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="174">
-        <v>15</v>
-      </c>
-      <c r="B16" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C16" s="174">
-        <v>678</v>
-      </c>
-      <c r="D16" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E16" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F16" s="174">
-        <v>678</v>
-      </c>
-      <c r="G16" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H16" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I16" s="174">
-        <v>768</v>
-      </c>
-      <c r="J16" s="174" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="174">
-        <v>16</v>
-      </c>
-      <c r="B17" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C17" s="174">
-        <v>682</v>
-      </c>
-      <c r="D17" s="174" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E17" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F17" s="174">
-        <v>854</v>
-      </c>
-      <c r="G17" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H17" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I17" s="174">
-        <v>802</v>
-      </c>
-      <c r="J17" s="174" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="174">
-        <v>17</v>
-      </c>
-      <c r="B18" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C18" s="174">
-        <v>683</v>
-      </c>
-      <c r="D18" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E18" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F18" s="174">
-        <v>685</v>
-      </c>
-      <c r="G18" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H18" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I18" s="174">
-        <v>686</v>
-      </c>
-      <c r="J18" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="174">
-        <v>18</v>
-      </c>
-      <c r="B19" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C19" s="174">
-        <v>804</v>
-      </c>
-      <c r="D19" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E19" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F19" s="174">
-        <v>678</v>
-      </c>
-      <c r="G19" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H19" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I19" s="174">
-        <v>788</v>
-      </c>
-      <c r="J19" s="174" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="174">
-        <v>19</v>
-      </c>
-      <c r="B20" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C20" s="174">
-        <v>730</v>
-      </c>
-      <c r="D20" s="174" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E20" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F20" s="174">
-        <v>683</v>
-      </c>
-      <c r="G20" s="174" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H20" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I20" s="174">
-        <v>686</v>
-      </c>
-      <c r="J20" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="174">
-        <v>20</v>
-      </c>
-      <c r="B21" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="174">
-        <v>678</v>
-      </c>
-      <c r="D21" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E21" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F21" s="174">
-        <v>683</v>
-      </c>
-      <c r="G21" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="174">
-        <v>21</v>
-      </c>
-      <c r="B22" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C22" s="174">
-        <v>686</v>
-      </c>
-      <c r="D22" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E22" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F22" s="174">
-        <v>678</v>
-      </c>
-      <c r="G22" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H22" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I22" s="174">
-        <v>685</v>
-      </c>
-      <c r="J22" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="174">
-        <v>22</v>
-      </c>
-      <c r="B23" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C23" s="174">
-        <v>678</v>
-      </c>
-      <c r="D23" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E23" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F23" s="174">
-        <v>999</v>
-      </c>
-      <c r="G23" s="174" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H23" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="174">
-        <v>731</v>
-      </c>
-      <c r="J23" s="174" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="174">
-        <v>23</v>
-      </c>
-      <c r="B24" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C24" s="174">
-        <v>819</v>
-      </c>
-      <c r="D24" s="174" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E24" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F24" s="174">
-        <v>732</v>
-      </c>
-      <c r="G24" s="174" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H24" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I24" s="174">
-        <v>732</v>
-      </c>
-      <c r="J24" s="174" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="174">
-        <v>24</v>
-      </c>
-      <c r="B25" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C25" s="174">
-        <v>685</v>
-      </c>
-      <c r="D25" s="174" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E25" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F25" s="174">
-        <v>845</v>
-      </c>
-      <c r="G25" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="174">
-        <v>25</v>
-      </c>
-      <c r="B26" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C26" s="174">
-        <v>678</v>
-      </c>
-      <c r="D26" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E26" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F26" s="174">
-        <v>731</v>
-      </c>
-      <c r="G26" s="174" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H26" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I26" s="174">
-        <v>844</v>
-      </c>
-      <c r="J26" s="174" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="174">
-        <v>26</v>
-      </c>
-      <c r="B27" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="174">
-        <v>763</v>
-      </c>
-      <c r="D27" s="174" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="174">
-        <v>27</v>
-      </c>
-      <c r="B28" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C28" s="174">
-        <v>721</v>
-      </c>
-      <c r="D28" s="174" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="174">
-        <v>28</v>
-      </c>
-      <c r="B29" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C29" s="174">
-        <v>685</v>
-      </c>
-      <c r="D29" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E29" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F29" s="174">
-        <v>683</v>
-      </c>
-      <c r="G29" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H29" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I29" s="174">
-        <v>742</v>
-      </c>
-      <c r="J29" s="174" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="174">
-        <v>29</v>
-      </c>
-      <c r="B30" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C30" s="174">
-        <v>685</v>
-      </c>
-      <c r="D30" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E30" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F30" s="174">
-        <v>683</v>
-      </c>
-      <c r="G30" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="174">
-        <v>30</v>
-      </c>
-      <c r="B31" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C31" s="174">
-        <v>683</v>
-      </c>
-      <c r="D31" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="174">
-        <v>31</v>
-      </c>
-      <c r="B32" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C32" s="174">
-        <v>784</v>
-      </c>
-      <c r="D32" s="174" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E32" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F32" s="174">
-        <v>685</v>
-      </c>
-      <c r="G32" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H32" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I32" s="174">
-        <v>879</v>
-      </c>
-      <c r="J32" s="174" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="174">
-        <v>32</v>
-      </c>
-      <c r="B33" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C33" s="174">
-        <v>819</v>
-      </c>
-      <c r="D33" s="174" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E33" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F33" s="174">
-        <v>730</v>
-      </c>
-      <c r="G33" s="174" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H33" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I33" s="174">
-        <v>865</v>
-      </c>
-      <c r="J33" s="174" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="174">
-        <v>33</v>
-      </c>
-      <c r="B34" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C34" s="174">
-        <v>683</v>
-      </c>
-      <c r="D34" s="174" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="174">
-        <v>34</v>
-      </c>
-      <c r="B35" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C35" s="174">
-        <v>797</v>
-      </c>
-      <c r="D35" s="174" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="174">
-        <v>35</v>
-      </c>
-      <c r="B36" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C36" s="174">
-        <v>794</v>
-      </c>
-      <c r="D36" s="174" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="174">
-        <v>36</v>
-      </c>
-      <c r="B37" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C37" s="174">
-        <v>678</v>
-      </c>
-      <c r="D37" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E37" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F37" s="174">
-        <v>683</v>
-      </c>
-      <c r="G37" s="174" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H37" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I37" s="174">
-        <v>768</v>
-      </c>
-      <c r="J37" s="174" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="174">
-        <v>37</v>
-      </c>
-      <c r="B38" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C38" s="174">
-        <v>678</v>
-      </c>
-      <c r="D38" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E38" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F38" s="174">
-        <v>678</v>
-      </c>
-      <c r="G38" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H38" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I38" s="174">
-        <v>886</v>
-      </c>
-      <c r="J38" s="174" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="174">
-        <v>38</v>
-      </c>
-      <c r="B39" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C39" s="174">
-        <v>736</v>
-      </c>
-      <c r="D39" s="174" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E39" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F39" s="174">
-        <v>716</v>
-      </c>
-      <c r="G39" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H39" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I39" s="174">
-        <v>1357</v>
-      </c>
-      <c r="J39" s="174" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="174">
-        <v>39</v>
-      </c>
-      <c r="B40" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C40" s="174">
-        <v>683</v>
-      </c>
-      <c r="D40" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E40" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F40" s="174">
-        <v>781</v>
-      </c>
-      <c r="G40" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H40" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I40" s="174">
-        <v>686</v>
-      </c>
-      <c r="J40" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="174">
-        <v>40</v>
-      </c>
-      <c r="B41" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C41" s="174">
-        <v>875</v>
-      </c>
-      <c r="D41" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E41" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F41" s="174">
-        <v>678</v>
-      </c>
-      <c r="G41" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H41" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I41" s="174">
-        <v>682</v>
-      </c>
-      <c r="J41" s="174" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="174">
-        <v>41</v>
-      </c>
-      <c r="B42" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C42" s="174">
-        <v>685</v>
-      </c>
-      <c r="D42" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E42" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F42" s="174">
-        <v>828</v>
-      </c>
-      <c r="G42" s="174" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H42" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I42" s="174">
-        <v>685</v>
-      </c>
-      <c r="J42" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="174">
-        <v>42</v>
-      </c>
-      <c r="B43" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C43" s="174">
-        <v>1441</v>
-      </c>
-      <c r="D43" s="174" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="174">
-        <v>43</v>
-      </c>
-      <c r="B44" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C44" s="174">
-        <v>1364</v>
-      </c>
-      <c r="D44" s="174" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E44" s="174"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="174">
-        <v>44</v>
-      </c>
-      <c r="B45" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C45" s="174">
-        <v>678</v>
-      </c>
-      <c r="D45" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E45" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F45" s="174">
-        <v>678</v>
-      </c>
-      <c r="G45" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="174">
-        <v>45</v>
-      </c>
-      <c r="B46" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C46" s="174">
-        <v>1343</v>
-      </c>
-      <c r="D46" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E46" s="174"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174"/>
-      <c r="H46" s="174"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="174"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="174">
-        <v>46</v>
-      </c>
-      <c r="B47" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C47" s="174">
-        <v>780</v>
-      </c>
-      <c r="D47" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="174"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="174">
-        <v>47</v>
-      </c>
-      <c r="B48" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C48" s="174">
-        <v>881</v>
-      </c>
-      <c r="D48" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E48" s="174"/>
-      <c r="F48" s="174"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="174"/>
-      <c r="J48" s="174"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="174">
-        <v>48</v>
-      </c>
-      <c r="B49" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C49" s="174">
-        <v>685</v>
-      </c>
-      <c r="D49" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E49" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F49" s="174">
-        <v>686</v>
-      </c>
-      <c r="G49" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H49" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I49" s="174">
-        <v>678</v>
-      </c>
-      <c r="J49" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="174">
-        <v>49</v>
-      </c>
-      <c r="B50" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C50" s="174">
-        <v>678</v>
-      </c>
-      <c r="D50" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E50" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F50" s="174">
-        <v>1365</v>
-      </c>
-      <c r="G50" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="174"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="174">
-        <v>50</v>
-      </c>
-      <c r="B51" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C51" s="174">
-        <v>685</v>
-      </c>
-      <c r="D51" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E51" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F51" s="174">
-        <v>686</v>
-      </c>
-      <c r="G51" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H51" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I51" s="174">
-        <v>1365</v>
-      </c>
-      <c r="J51" s="174" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="174">
-        <v>51</v>
-      </c>
-      <c r="B52" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C52" s="174">
-        <v>685</v>
-      </c>
-      <c r="D52" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E52" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F52" s="174">
-        <v>769</v>
-      </c>
-      <c r="G52" s="174" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H52" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I52" s="174">
-        <v>1365</v>
-      </c>
-      <c r="J52" s="174" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="174">
-        <v>52</v>
-      </c>
-      <c r="B53" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C53" s="174">
-        <v>686</v>
-      </c>
-      <c r="D53" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E53" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F53" s="174">
-        <v>686</v>
-      </c>
-      <c r="G53" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H53" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I53" s="174">
-        <v>686</v>
-      </c>
-      <c r="J53" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="174">
-        <v>53</v>
-      </c>
-      <c r="B54" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C54" s="174">
-        <v>796</v>
-      </c>
-      <c r="D54" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="174"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="174">
-        <v>54</v>
-      </c>
-      <c r="B55" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C55" s="174">
-        <v>686</v>
-      </c>
-      <c r="D55" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E55" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F55" s="174">
-        <v>686</v>
-      </c>
-      <c r="G55" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H55" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I55" s="174">
-        <v>1365</v>
-      </c>
-      <c r="J55" s="174" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="174">
-        <v>55</v>
-      </c>
-      <c r="B56" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C56" s="174">
-        <v>686</v>
-      </c>
-      <c r="D56" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E56" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F56" s="174">
-        <v>1148</v>
-      </c>
-      <c r="G56" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H56" s="174"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="174"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="174">
-        <v>56</v>
-      </c>
-      <c r="B57" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C57" s="174">
-        <v>678</v>
-      </c>
-      <c r="D57" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E57" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F57" s="174">
-        <v>678</v>
-      </c>
-      <c r="G57" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H57" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I57" s="174">
-        <v>678</v>
-      </c>
-      <c r="J57" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="174">
-        <v>57</v>
-      </c>
-      <c r="B58" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C58" s="174">
-        <v>1365</v>
-      </c>
-      <c r="D58" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E58" s="174"/>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="174"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="174">
-        <v>58</v>
-      </c>
-      <c r="B59" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C59" s="174">
-        <v>1212</v>
-      </c>
-      <c r="D59" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="174">
-        <v>59</v>
-      </c>
-      <c r="B60" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C60" s="174">
-        <v>678</v>
-      </c>
-      <c r="D60" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E60" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F60" s="174">
-        <v>678</v>
-      </c>
-      <c r="G60" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H60" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I60" s="174">
-        <v>678</v>
-      </c>
-      <c r="J60" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="174">
-        <v>60</v>
-      </c>
-      <c r="B61" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C61" s="174">
-        <v>686</v>
-      </c>
-      <c r="D61" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E61" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F61" s="174">
-        <v>686</v>
-      </c>
-      <c r="G61" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H61" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I61" s="174">
-        <v>685</v>
-      </c>
-      <c r="J61" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="174">
-        <v>61</v>
-      </c>
-      <c r="B62" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C62" s="174">
-        <v>683</v>
-      </c>
-      <c r="D62" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E62" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F62" s="174">
-        <v>1365</v>
-      </c>
-      <c r="G62" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H62" s="174"/>
-      <c r="I62" s="174"/>
-      <c r="J62" s="174"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="174">
-        <v>62</v>
-      </c>
-      <c r="B63" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C63" s="174">
-        <v>686</v>
-      </c>
-      <c r="D63" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E63" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F63" s="174">
-        <v>1145</v>
-      </c>
-      <c r="G63" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H63" s="174"/>
-      <c r="I63" s="174"/>
-      <c r="J63" s="174"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="174">
-        <v>63</v>
-      </c>
-      <c r="B64" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C64" s="174">
-        <v>740</v>
-      </c>
-      <c r="D64" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E64" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F64" s="174">
-        <v>772</v>
-      </c>
-      <c r="G64" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H64" s="174"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="174">
-        <v>64</v>
-      </c>
-      <c r="B65" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C65" s="174">
-        <v>678</v>
-      </c>
-      <c r="D65" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E65" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F65" s="174">
-        <v>787</v>
-      </c>
-      <c r="G65" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H65" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I65" s="174">
-        <v>678</v>
-      </c>
-      <c r="J65" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="174">
-        <v>65</v>
-      </c>
-      <c r="B66" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C66" s="174">
-        <v>795</v>
-      </c>
-      <c r="D66" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E66" s="174"/>
-      <c r="F66" s="174"/>
-      <c r="G66" s="174"/>
-      <c r="H66" s="174"/>
-      <c r="I66" s="174"/>
-      <c r="J66" s="174"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="174">
-        <v>66</v>
-      </c>
-      <c r="B67" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C67" s="174">
-        <v>747</v>
-      </c>
-      <c r="D67" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E67" s="174"/>
-      <c r="F67" s="174"/>
-      <c r="G67" s="174"/>
-      <c r="H67" s="174"/>
-      <c r="I67" s="174"/>
-      <c r="J67" s="174"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="174">
-        <v>67</v>
-      </c>
-      <c r="B68" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C68" s="174">
-        <v>707</v>
-      </c>
-      <c r="D68" s="174" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E68" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F68" s="174">
-        <v>683</v>
-      </c>
-      <c r="G68" s="174" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H68" s="174"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="174">
-        <v>68</v>
-      </c>
-      <c r="B69" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C69" s="174">
-        <v>821</v>
-      </c>
-      <c r="D69" s="174" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E69" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F69" s="174">
-        <v>1001</v>
-      </c>
-      <c r="G69" s="174" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H69" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I69" s="174">
-        <v>823</v>
-      </c>
-      <c r="J69" s="174" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="174">
-        <v>69</v>
-      </c>
-      <c r="B70" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C70" s="174">
-        <v>1365</v>
-      </c>
-      <c r="D70" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E70" s="174"/>
-      <c r="F70" s="174"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="174"/>
-      <c r="I70" s="174"/>
-      <c r="J70" s="174"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="174">
-        <v>70</v>
-      </c>
-      <c r="B71" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C71" s="174">
-        <v>776</v>
-      </c>
-      <c r="D71" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="174"/>
-      <c r="I71" s="174"/>
-      <c r="J71" s="174"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="174">
-        <v>71</v>
-      </c>
-      <c r="B72" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C72" s="174">
-        <v>678</v>
-      </c>
-      <c r="D72" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E72" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F72" s="174">
-        <v>678</v>
-      </c>
-      <c r="G72" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H72" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I72" s="174">
-        <v>678</v>
-      </c>
-      <c r="J72" s="174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="174">
-        <v>72</v>
-      </c>
-      <c r="B73" s="174">
-        <v>1024</v>
-      </c>
-      <c r="C73" s="174">
-        <v>839</v>
-      </c>
-      <c r="D73" s="174" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E73" s="174"/>
-      <c r="F73" s="174"/>
-      <c r="G73" s="174"/>
-      <c r="H73" s="174"/>
-      <c r="I73" s="174"/>
-      <c r="J73" s="174"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="1025" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="176" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E1" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F1" s="174" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G1" s="174" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H1" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I1" s="174" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J1" s="174" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K1" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L1" s="174" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M1" s="174" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="174">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="122">
-        <v>2</v>
-      </c>
-      <c r="E2" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F2" s="174">
-        <v>683</v>
-      </c>
-      <c r="G2" s="174" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H2" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I2" s="174">
-        <v>718</v>
-      </c>
-      <c r="J2" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="174">
-        <v>7</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="176">
-        <v>2</v>
-      </c>
-      <c r="E3" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F3" s="174">
-        <v>762</v>
-      </c>
-      <c r="G3" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="174">
-        <v>20</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D4" s="176">
-        <v>1</v>
-      </c>
-      <c r="E4" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F4" s="174">
-        <v>678</v>
-      </c>
-      <c r="G4" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H4" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I4" s="174">
-        <v>683</v>
-      </c>
-      <c r="J4" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-    </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="174">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="176">
-        <v>1</v>
-      </c>
-      <c r="E5" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F5" s="174">
-        <v>685</v>
-      </c>
-      <c r="G5" s="174" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H5" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I5" s="174">
-        <v>845</v>
-      </c>
-      <c r="J5" s="174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="174">
-        <v>26</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" s="176">
-        <v>2</v>
-      </c>
-      <c r="E6" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F6" s="174">
-        <v>763</v>
-      </c>
-      <c r="G6" s="174" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="174">
-        <v>27</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D7" s="176">
-        <v>2</v>
-      </c>
-      <c r="E7" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F7" s="174">
-        <v>721</v>
-      </c>
-      <c r="G7" s="174" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="174">
-        <v>29</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="176">
-        <v>1</v>
-      </c>
-      <c r="E8" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F8" s="174">
-        <v>685</v>
-      </c>
-      <c r="G8" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H8" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I8" s="174">
-        <v>683</v>
-      </c>
-      <c r="J8" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="174">
-        <v>30</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D9" s="176">
-        <v>2</v>
-      </c>
-      <c r="E9" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F9" s="174">
-        <v>683</v>
-      </c>
-      <c r="G9" s="174" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="174">
-        <v>33</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" s="176">
-        <v>2</v>
-      </c>
-      <c r="E10" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F10" s="174">
-        <v>683</v>
-      </c>
-      <c r="G10" s="174" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="174">
-        <v>34</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="D11" s="176">
-        <v>2</v>
-      </c>
-      <c r="E11" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F11" s="174">
-        <v>797</v>
-      </c>
-      <c r="G11" s="174" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
-      <c r="M11" s="174"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="174">
-        <v>35</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="D12" s="176">
-        <v>2</v>
-      </c>
-      <c r="E12" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F12" s="174">
-        <v>794</v>
-      </c>
-      <c r="G12" s="174" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="174">
-        <v>42</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="176">
-        <v>2</v>
-      </c>
-      <c r="E13" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F13" s="174">
-        <v>1441</v>
-      </c>
-      <c r="G13" s="174" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="174">
-        <v>43</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="176">
-        <v>2</v>
-      </c>
-      <c r="E14" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F14" s="174">
-        <v>1364</v>
-      </c>
-      <c r="G14" s="174" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="174">
-        <v>44</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>577</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="176">
-        <v>1</v>
-      </c>
-      <c r="E15" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F15" s="174">
-        <v>678</v>
-      </c>
-      <c r="G15" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H15" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I15" s="174">
-        <v>678</v>
-      </c>
-      <c r="J15" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="174">
-        <v>45</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="176">
-        <v>2</v>
-      </c>
-      <c r="E16" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F16" s="174">
-        <v>1343</v>
-      </c>
-      <c r="G16" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="174"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="174">
-        <v>46</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="176">
-        <v>2</v>
-      </c>
-      <c r="E17" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F17" s="174">
-        <v>780</v>
-      </c>
-      <c r="G17" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="174"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="174">
-        <v>47</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="176">
-        <v>2</v>
-      </c>
-      <c r="E18" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F18" s="174">
-        <v>881</v>
-      </c>
-      <c r="G18" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="174">
-        <v>49</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>635</v>
-      </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="176">
-        <v>1</v>
-      </c>
-      <c r="E19" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F19" s="174">
-        <v>678</v>
-      </c>
-      <c r="G19" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H19" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I19" s="174">
-        <v>1365</v>
-      </c>
-      <c r="J19" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K19" s="174"/>
-      <c r="L19" s="174"/>
-      <c r="M19" s="174"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="174">
-        <v>53</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="176">
-        <v>2</v>
-      </c>
-      <c r="E20" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F20" s="174">
-        <v>796</v>
-      </c>
-      <c r="G20" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="174">
-        <v>55</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>711</v>
-      </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="176">
-        <v>1</v>
-      </c>
-      <c r="E21" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F21" s="174">
-        <v>686</v>
-      </c>
-      <c r="G21" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H21" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I21" s="174">
-        <v>1148</v>
-      </c>
-      <c r="J21" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K21" s="174"/>
-      <c r="L21" s="174"/>
-      <c r="M21" s="174"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="174">
-        <v>57</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>733</v>
-      </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="176">
-        <v>2</v>
-      </c>
-      <c r="E22" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F22" s="174">
-        <v>1365</v>
-      </c>
-      <c r="G22" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="174"/>
-      <c r="M22" s="174"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="174">
-        <v>58</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="176">
-        <v>2</v>
-      </c>
-      <c r="E23" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F23" s="174">
-        <v>1212</v>
-      </c>
-      <c r="G23" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="174">
-        <v>61</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="176">
-        <v>1</v>
-      </c>
-      <c r="E24" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F24" s="174">
-        <v>683</v>
-      </c>
-      <c r="G24" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H24" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I24" s="174">
-        <v>1365</v>
-      </c>
-      <c r="J24" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="174">
-        <v>62</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="176">
-        <v>1</v>
-      </c>
-      <c r="E25" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F25" s="174">
-        <v>686</v>
-      </c>
-      <c r="G25" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H25" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I25" s="174">
-        <v>1145</v>
-      </c>
-      <c r="J25" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="174">
-        <v>63</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="176">
-        <v>1</v>
-      </c>
-      <c r="E26" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F26" s="174">
-        <v>740</v>
-      </c>
-      <c r="G26" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H26" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I26" s="174">
-        <v>772</v>
-      </c>
-      <c r="J26" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="174"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="174">
-        <v>65</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C27" s="174"/>
-      <c r="D27" s="176">
-        <v>2</v>
-      </c>
-      <c r="E27" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F27" s="174">
-        <v>795</v>
-      </c>
-      <c r="G27" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="174"/>
-      <c r="M27" s="174"/>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="174">
-        <v>66</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="176">
-        <v>2</v>
-      </c>
-      <c r="E28" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F28" s="174">
-        <v>747</v>
-      </c>
-      <c r="G28" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="174">
-        <v>67</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>850</v>
-      </c>
-      <c r="C29" s="174"/>
-      <c r="D29" s="176">
-        <v>1</v>
-      </c>
-      <c r="E29" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F29" s="174">
-        <v>707</v>
-      </c>
-      <c r="G29" s="174" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H29" s="174">
-        <v>1024</v>
-      </c>
-      <c r="I29" s="174">
-        <v>683</v>
-      </c>
-      <c r="J29" s="174" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="174"/>
-    </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="174">
-        <v>69</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="176">
-        <v>2</v>
-      </c>
-      <c r="E30" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F30" s="174">
-        <v>1365</v>
-      </c>
-      <c r="G30" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="174">
-        <v>70</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>864</v>
-      </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="176">
-        <v>2</v>
-      </c>
-      <c r="E31" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F31" s="174">
-        <v>776</v>
-      </c>
-      <c r="G31" s="174" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="174">
-        <v>72</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>873</v>
-      </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="176">
-        <v>2</v>
-      </c>
-      <c r="E32" s="174">
-        <v>1024</v>
-      </c>
-      <c r="F32" s="174">
-        <v>839</v>
-      </c>
-      <c r="G32" s="174" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>